--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E2819B3-36B8-614F-940B-0C7FDD441C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D774A-8BF6-494B-823A-CE795EFAFD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,11 +20,11 @@
     <sheet name="MGTB" sheetId="6" r:id="rId5"/>
     <sheet name="MMLB" sheetId="5" r:id="rId6"/>
     <sheet name="MORB" sheetId="7" r:id="rId7"/>
-    <sheet name="MMNAB" sheetId="8" r:id="rId8"/>
-    <sheet name="MPSB" sheetId="9" r:id="rId9"/>
-    <sheet name="MRCAB" sheetId="10" r:id="rId10"/>
-    <sheet name="MMB" sheetId="11" r:id="rId11"/>
-    <sheet name="MLAB" sheetId="12" r:id="rId12"/>
+    <sheet name="MLAB" sheetId="12" r:id="rId8"/>
+    <sheet name="MMNAB" sheetId="8" r:id="rId9"/>
+    <sheet name="MPSB" sheetId="9" r:id="rId10"/>
+    <sheet name="MRCAB" sheetId="10" r:id="rId11"/>
+    <sheet name="MMB" sheetId="11" r:id="rId12"/>
     <sheet name="MLPB" sheetId="13" r:id="rId13"/>
     <sheet name="MLTB" sheetId="14" r:id="rId14"/>
     <sheet name="MLMB" sheetId="15" r:id="rId15"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="182">
   <si>
     <t>Title</t>
   </si>
@@ -85,27 +85,12 @@
     <t>Book</t>
   </si>
   <si>
-    <t>Linear and multilinear algebras / Matrix theory</t>
-  </si>
-  <si>
     <t>Axler, Sheldon</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>Undergrad / Pract.</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://cfknow.github.io/review/Linear-Algebra-Done-Right/" target="_blank"&gt;Antonio Montano - 05/11/2023&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-41026-0.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://linear.axler.net/" target="_blank"&gt;Author site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Publisher site&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>06/11/2023</t>
-  </si>
-  <si>
     <t>CC BY-NC 4.0 DEED</t>
   </si>
   <si>
@@ -124,9 +109,6 @@
     <t/>
   </si>
   <si>
-    <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;GitHub Repo&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>11/11/2023</t>
   </si>
   <si>
@@ -139,9 +121,6 @@
     <t>Morris, Sidney A.</t>
   </si>
   <si>
-    <t>Grad.</t>
-  </si>
-  <si>
     <t>&lt;a href="http://www.topologywithouttears.net/topbook2023.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.topologywithouttears.net/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -154,12 +133,6 @@
     <t>Judson, Thomas W.</t>
   </si>
   <si>
-    <t>English / Spanish</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://abstract.ups.edu/aata/aata.html" target="_blank"&gt;English HTML&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;Spanish HTML&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Algebra: Abstract and Concrete</t>
   </si>
   <si>
@@ -178,9 +151,6 @@
     <t>Connell, Edwin H.</t>
   </si>
   <si>
-    <t>Undergrad.</t>
-  </si>
-  <si>
     <t>&lt;a href="https://www.math.miami.edu/~ec/book/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.math.miami.edu/~ec/book/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -277,9 +247,6 @@
     <t>Measure / Integration</t>
   </si>
   <si>
-    <t>&lt;a href="https://measure.axler.net/MIRA.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://measure.axler.net/" target="_blank"&gt;Author site&lt;/a&gt;&lt;br&gt;&lt;a href="https://doi.org/10.1007/978-3-030-33143-6" target="_blank"&gt;Publisher site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>An introduction to measure theory</t>
   </si>
   <si>
@@ -313,9 +280,6 @@
     <t>Bishop, Christopher M.</t>
   </si>
   <si>
-    <t>&lt;a href="https://cfknow.github.io/review/Pattern-Recognition-and-Machine-Learning/" target="_blank"&gt;Antonio Montano - 04/11/2023&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="https://www.microsoft.com/en-us/research/uploads/prod/2006/01/Bishop-Pattern-Recognition-and-Machine-Learning-2006.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.microsoft.com/en-us/research/people/cmbishop/prml-book/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -364,9 +328,6 @@
     <t>Lattimore, Tom / Szepesvári, Csaba</t>
   </si>
   <si>
-    <t>&lt;a href = "https://tor-lattimore.com/downloads/book/book.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://tor-lattimore.com/downloads/book/solutions.pdf" target = "_blank" &gt;Solutions PDF&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Boosting: Foundations and Algorithms</t>
   </si>
   <si>
@@ -472,9 +433,6 @@
     <t>Jentzen, Arnulf / Kuckuck, Benno / von Wurstemberger, Philippe</t>
   </si>
   <si>
-    <t>&lt;a href = "https://arxiv.org/pdf/2310.20360.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/introdeeplearning/book" target = "_blank"&gt;Code&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Multi-Agent Reinforcement Learning: Foundations and Modern Approaches</t>
   </si>
   <si>
@@ -490,9 +448,6 @@
     <t>Ding, Peng</t>
   </si>
   <si>
-    <t>&lt;a href = "https://arxiv.org/abs/2305.18793" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/site/pengdingpku/teaching" target = "_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/ZX3VEV" target = "_blank"&gt;Code / Datasets&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Distributional Reinforcement Learning</t>
   </si>
   <si>
@@ -598,16 +553,48 @@
     <t>&lt;a href="https://ai.stanford.edu/%7Enilsson/QAI/qai.pdf" target="_blank"&gt;PDF&lt;/a&gt;</t>
   </si>
   <si>
-    <t>10/11/2023</t>
-  </si>
-  <si>
-    <t>11/11/2024</t>
-  </si>
-  <si>
-    <t>11/11/2025</t>
-  </si>
-  <si>
-    <t>11/11/2026</t>
+    <t>2023-11-06</t>
+  </si>
+  <si>
+    <t>2023-11-11</t>
+  </si>
+  <si>
+    <t>Linear and multilinear algebras
+Matrix theory</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://cfknow.github.io/review/Linear-Algebra-Done-Right/" target="_blank"&gt;2023-11-10&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Grad</t>
+  </si>
+  <si>
+    <t>English
+Spanish</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-41026-0.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://linear.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Publisher site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;Repo&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://abstract.ups.edu/aata/aata.html" target="_blank"&gt;HTML En&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;HTML Es&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://measure.axler.net/MIRA.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://measure.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://doi.org/10.1007/978-3-030-33143-6" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://cfknow.github.io/review/Pattern-Recognition-and-Machine-Learning/" target="_blank"&gt;2023-11-11&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://tor-lattimore.com/downloads/book/book.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://tor-lattimore.com/downloads/book/solutions.pdf" target = "_blank" &gt;Resources&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://arxiv.org/pdf/2310.20360.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/introdeeplearning/book" target = "_blank"&gt;Resources&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://arxiv.org/abs/2305.18793" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/site/pengdingpku/teaching" target = "_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/ZX3VEV" target = "_blank"&gt;Resources&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -658,9 +645,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1003,14 +992,137 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>171</v>
+      </c>
+      <c r="H3" t="s">
+        <v>174</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:K2 A5:K6 A3:B3 J3:K3 A4:G4 J4:K4 D3:E3" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1047,89 +1159,77 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:K2 A5:K6 A3:H3 J3:K3 A4:H4 J4:K4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D4303-C318-9243-91F0-9D29FB74C205}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1166,57 +1266,57 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>69</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -1224,7 +1324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35C2283-7711-724F-8130-A618BCC7670F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1236,27 +1336,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EBA103-6406-3D43-91A3-E71ECA0BBFB5}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1276,7 +1356,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1288,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1299,7 +1379,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1336,801 +1416,801 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>88</v>
+        <v>178</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
+        <v>77</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>80</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>26</v>
+        <v>84</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
         <v>86</v>
       </c>
-      <c r="D6" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>26</v>
+        <v>87</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>26</v>
+        <v>90</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>26</v>
+        <v>179</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>26</v>
+        <v>95</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H10" t="s">
-        <v>176</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
+        <v>161</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>113</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
+        <v>100</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>26</v>
+        <v>104</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D13" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>26</v>
+        <v>107</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>26</v>
+        <v>110</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>26</v>
+        <v>114</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H16" t="s">
-        <v>129</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>26</v>
+        <v>116</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>26</v>
+        <v>119</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>135</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>26</v>
+        <v>122</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>26</v>
+        <v>125</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D20" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H20" t="s">
-        <v>141</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>26</v>
+        <v>180</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>26</v>
+        <v>130</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>147</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>26</v>
+        <v>181</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D23" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>150</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>26</v>
+        <v>135</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>26</v>
+        <v>138</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>26</v>
+        <v>140</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H26" t="s">
-        <v>158</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>26</v>
+        <v>143</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D27" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>26</v>
+        <v>146</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E28" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>165</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>26</v>
+        <v>150</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H29" t="s">
-        <v>169</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>26</v>
+        <v>154</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D30" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H30" t="s">
-        <v>172</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>26</v>
+        <v>157</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J30" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="D31" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="E31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>175</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>26</v>
+        <v>160</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2144,14 +2224,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2188,28 +2268,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="H3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2222,14 +2302,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2266,112 +2346,112 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F4" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J4" t="s">
         <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="J4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
       </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>185</v>
+      <c r="I5" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>186</v>
+        <v>34</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2384,7 +2464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
@@ -2392,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2405,14 +2485,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2449,31 +2529,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2493,7 +2573,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -2513,7 +2593,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -2533,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2570,28 +2650,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>172</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>26</v>
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2600,6 +2680,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EBA103-6406-3D43-91A3-E71ECA0BBFB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2611,114 +2711,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92D774A-8BF6-494B-823A-CE795EFAFD83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF38F91-9611-664B-A482-B256B2A3A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,9 +160,6 @@
     <t>Discrete Mathematics: An Open Introduction</t>
   </si>
   <si>
-    <t>Discrete mathematics / Graph theory</t>
-  </si>
-  <si>
     <t>Levin, Oscar</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>An introduction to optimization on smooth manifolds</t>
   </si>
   <si>
-    <t>Geometry / Optimization</t>
-  </si>
-  <si>
     <t>Boumal, Nicolas</t>
   </si>
   <si>
@@ -235,18 +229,12 @@
     <t>&lt;a href="https://services.math.duke.edu/~rtd/EOSP/EOSP2021.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://services.math.duke.edu/~rtd/EOSP/eosp.html" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Grinstead, Charles M. / Snell, J. Laurie</t>
-  </si>
-  <si>
     <t>mathematics-real_complex-analysis-books</t>
   </si>
   <si>
     <t>Measure, Integration &amp; Real Analysis</t>
   </si>
   <si>
-    <t>Measure / Integration</t>
-  </si>
-  <si>
     <t>An introduction to measure theory</t>
   </si>
   <si>
@@ -274,9 +262,6 @@
     <t>Pattern Recognition and Machine Learning</t>
   </si>
   <si>
-    <t>Algorithms / Theory</t>
-  </si>
-  <si>
     <t>Bishop, Christopher M.</t>
   </si>
   <si>
@@ -286,9 +271,6 @@
     <t>Patterns, predictions, and actions: Foundations of machine learning</t>
   </si>
   <si>
-    <t>Hardt, Moritz / Recht, Benjamin</t>
-  </si>
-  <si>
     <t>&lt;a href="https://mlstory.org/pdf/patterns.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://mlstory.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -298,18 +280,12 @@
     <t>Deep Learning</t>
   </si>
   <si>
-    <t>Goodfellow, Ian / Bengio, Yoshua / Courville, Aaron</t>
-  </si>
-  <si>
     <t>&lt;a href="https://www.deeplearningbook.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Understanding Machine Learning: From Theory to Algorithms</t>
   </si>
   <si>
-    <t>Shalev-Shwartz, Shai / Ben-David, Shai</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://www.cs.huji.ac.il/~shais/UnderstandingMachineLearning/understanding-machine-learning-theory-algorithms.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.cs.huji.ac.il/~shais/UnderstandingMachineLearning/" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -325,72 +301,42 @@
     <t>Bandit Algorithms</t>
   </si>
   <si>
-    <t>Lattimore, Tom / Szepesvári, Csaba</t>
-  </si>
-  <si>
     <t>Boosting: Foundations and Algorithms</t>
   </si>
   <si>
-    <t>Schapire, Robert E. / Freund, Yoav</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2091763/book_9780262301183.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://doi.org/10.7551/mitpress/8291.001.0001" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Foundations of Machine Learning</t>
   </si>
   <si>
-    <t>Mohri, Mehryar / Rostamizadeh, Afshin / Talwalkar, Ameet</t>
-  </si>
-  <si>
     <t>Mathematics for Machine Learning</t>
   </si>
   <si>
-    <t>Deisenroth, Marc P. / Faisal, A. Aldo / Ong, Cheng Soon.</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://mml-book.github.io/book/mml-book.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://mml-book.github.io/" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>An Introduction to Statistical Learning, with Applications in Python</t>
   </si>
   <si>
-    <t>Algorithms / Theory / Programming</t>
-  </si>
-  <si>
-    <t>James, Gareth / Witten, Daniela / Hastie, Trevor / Tibshirani, Robert / Taylor, Jonathan</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://hastie.su.domains/ISLP/ISLP_website.pdf.download.html" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.statlearning.com/resources-python" target = "_blank"&gt;Resources&lt;/a&gt;</t>
   </si>
   <si>
     <t>An Introduction to Statistical Learning, with Applications in R</t>
   </si>
   <si>
-    <t>James, Gareth / Witten, Daniela / Hastie, Trevor / Tibshirani, Robert</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://hastie.su.domains/ISLR2/ISLRv2_corrected_June_2023.pdf.download.html" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.statlearning.com/resources-second-edition" target = "_blank"&gt;Resources&lt;/a&gt;</t>
   </si>
   <si>
     <t>The Elements of Statistical Learning: Data Mining, Inference, and Prediction</t>
   </si>
   <si>
-    <t>Hastie, Trevor / Tibshirani, Robert / Friedman, Jerome</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://hastie.su.domains/ElemStatLearn/printings/ESLII_print12_toc.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://hastie.su.domains/ElemStatLearn/" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Linear Algebra and Optimization with Applications to Machine Learning - Volume I: Linear Algebra for Computer Vision, Robotics, and Machine Learning</t>
   </si>
   <si>
-    <t>Algorithms / Math / Theory</t>
-  </si>
-  <si>
-    <t>Gallier, Jean / Quaintance, Jocelyn</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://www.seas.upenn.edu/~cis5150/linalg-I.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.cis.upenn.edu/~jean/gbooks/linalg.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -403,18 +349,12 @@
     <t>Data Mining and Machine Learning: Fundamental Concepts and Algorithms</t>
   </si>
   <si>
-    <t>Zaki, Mohammed J. / Meira, Wagner Jr</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://dataminingbook.info/book_html/" target = "_blank" &gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataminingbook.info/" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Speech and Language Processing</t>
   </si>
   <si>
-    <t>Jurafsky, Dan / Martin, James H.</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://web.stanford.edu/~jurafsky/slp3/ed3book_jan72023.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://web.stanford.edu/~jurafsky/slp3/" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -430,15 +370,9 @@
     <t>Mathematical Introduction to Deep Learning: Methods, Implementations, and Theory</t>
   </si>
   <si>
-    <t>Jentzen, Arnulf / Kuckuck, Benno / von Wurstemberger, Philippe</t>
-  </si>
-  <si>
     <t>Multi-Agent Reinforcement Learning: Foundations and Modern Approaches</t>
   </si>
   <si>
-    <t>Albrecht, Stefano V. / Christianos, Filippos / Schäfer, Lukas</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://www.marl-book.com/download" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.marl-book" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -451,9 +385,6 @@
     <t>Distributional Reinforcement Learning</t>
   </si>
   <si>
-    <t>Bellemare, Marc G. / Dabney, Will / Rowland, Mark</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2111075/book_9780262374026.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/oa-monograph/5590/Distributional-Reinforcement-Learning" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -496,9 +427,6 @@
     <t>Reinforcement Learning: An Introduction</t>
   </si>
   <si>
-    <t>Sutton, Richard S. / Barto, Andrew G.</t>
-  </si>
-  <si>
     <t>&lt;a href = "http://incompleteideas.net/book/RLbook2020.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "http://incompleteideas.net/book/the-book.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -508,16 +436,10 @@
     <t>Computational Topology for Data Analysis</t>
   </si>
   <si>
-    <t>Dey, Tamal K. / Wang, Yusu</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://www.cs.purdue.edu/homes/tamaldey/book/CTDAbook/CTDAbook.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.cs.purdue.edu/homes/tamaldey/book/CTDAbook/CTDAbook.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Elements of Causal Inference: Foundations and Learning Algorithms</t>
-  </si>
-  <si>
-    <t>Peters, Jonas / Janzing, Dominik / Schölkopf, Bernhard</t>
   </si>
   <si>
     <t>&lt;a href = "https://mitp-content-server.mit.edu/books/content/sectbyfn?collid=books_pres_0&amp;id=11283&amp;fn=11283.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://mitpress.mit.edu/9780262344296/elements-of-causal-inference/" target = "_blank"&gt;Site&lt;/a&gt;</t>
@@ -576,9 +498,6 @@
     <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-41026-0.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://linear.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Publisher site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;Repo&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="http://abstract.ups.edu/aata/aata.html" target="_blank"&gt;HTML En&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;HTML Es&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -595,6 +514,128 @@
   </si>
   <si>
     <t>&lt;a href = "https://arxiv.org/abs/2305.18793" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/site/pengdingpku/teaching" target = "_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/ZX3VEV" target = "_blank"&gt;Resources&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;Resources&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Discrete mathematics
+Graph theory</t>
+  </si>
+  <si>
+    <t>Geometry
+Optimization</t>
+  </si>
+  <si>
+    <t>Grinstead, Charles M.
+Snell, J. Laurie</t>
+  </si>
+  <si>
+    <t>Measure
+Integration</t>
+  </si>
+  <si>
+    <t>Algorithms
+Theory</t>
+  </si>
+  <si>
+    <t>Algorithms
+Theory
+Programming</t>
+  </si>
+  <si>
+    <t>Algorithms
+Math
+Theory</t>
+  </si>
+  <si>
+    <t>Hardt, Moritz
+Recht, Benjamin</t>
+  </si>
+  <si>
+    <t>Goodfellow, Ian
+Bengio, Yoshua
+Courville, Aaron</t>
+  </si>
+  <si>
+    <t>Shalev-Shwartz, Shai
+Ben-David, Shai</t>
+  </si>
+  <si>
+    <t>Lattimore, Tom
+Szepesvári, Csaba</t>
+  </si>
+  <si>
+    <t>Schapire, Robert E.
+Freund, Yoav</t>
+  </si>
+  <si>
+    <t>Mohri, Mehryar
+Rostamizadeh, Afshin
+Talwalkar, Ameet</t>
+  </si>
+  <si>
+    <t>Deisenroth, Marc P.
+Faisal, A. Aldo
+Ong, Cheng Soon.</t>
+  </si>
+  <si>
+    <t>James, Gareth
+Witten, Daniela
+Hastie, Trevor
+Tibshirani, Robert
+Taylor, Jonathan</t>
+  </si>
+  <si>
+    <t>James, Gareth
+Witten, Daniela
+Hastie, Trevor
+Tibshirani, Robert</t>
+  </si>
+  <si>
+    <t>Hastie, Trevor
+Tibshirani, Robert
+Friedman, Jerome</t>
+  </si>
+  <si>
+    <t>Gallier, Jean
+Quaintance, Jocelyn</t>
+  </si>
+  <si>
+    <t>Zaki, Mohammed J.
+Meira, Wagner Jr</t>
+  </si>
+  <si>
+    <t>Jurafsky, Dan
+Martin, James H.</t>
+  </si>
+  <si>
+    <t>Jentzen, Arnulf
+Kuckuck, Benno
+von Wurstemberger, Philippe</t>
+  </si>
+  <si>
+    <t>Albrecht, Stefano V.
+Christianos, Filippos
+Schäfer, Lukas</t>
+  </si>
+  <si>
+    <t>Bellemare, Marc G.
+Dabney, Will
+Rowland, Mark</t>
+  </si>
+  <si>
+    <t>Sutton, Richard S.
+Barto, Andrew G.</t>
+  </si>
+  <si>
+    <t>Dey, Tamal K.
+Wang, Yusu</t>
+  </si>
+  <si>
+    <t>Peters, Jonas
+Janzing, Dominik
+Schölkopf, Bernhard</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1045,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1057,13 +1098,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1092,10 +1133,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1115,14 +1156,17 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1157,18 +1201,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>158</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1177,27 +1221,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
         <v>58</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1206,10 +1250,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1229,7 +1273,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1264,15 +1308,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>65</v>
+      <c r="C3" s="3" t="s">
+        <v>159</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1281,13 +1325,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1295,28 +1339,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1336,7 +1380,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1356,7 +1400,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1369,17 +1413,19 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="23.83203125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="8" max="8" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1414,18 +1460,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>75</v>
+      <c r="C3" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1434,27 +1480,27 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>79</v>
+      <c r="C4" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1463,27 +1509,27 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" t="s">
-        <v>83</v>
+      <c r="C5" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1492,24 +1538,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>86</v>
+      <c r="C6" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1518,7 +1564,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>20</v>
@@ -1527,18 +1573,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>75</v>
+      <c r="C7" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1547,111 +1593,111 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>75</v>
       </c>
-      <c r="D8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>172</v>
-      </c>
-      <c r="H8" t="s">
-        <v>179</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>75</v>
       </c>
-      <c r="D9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>172</v>
-      </c>
-      <c r="H9" t="s">
-        <v>95</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>172</v>
-      </c>
-      <c r="H10" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" t="s">
-        <v>99</v>
+      <c r="C11" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1660,24 +1706,24 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
+      <c r="C12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1686,24 +1732,24 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" t="s">
-        <v>106</v>
+      <c r="C13" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1712,24 +1758,24 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
+      <c r="C14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1738,24 +1784,24 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" t="s">
-        <v>113</v>
+      <c r="C15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1764,50 +1810,50 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" t="s">
-        <v>113</v>
+      <c r="C16" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H16" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" t="s">
-        <v>118</v>
+      <c r="C17" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1816,24 +1862,24 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D18" t="s">
-        <v>121</v>
+      <c r="C18" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1842,33 +1888,33 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" t="s">
-        <v>75</v>
+      <c r="C19" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D19" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>20</v>
@@ -1877,44 +1923,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
+      <c r="C20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>129</v>
+      <c r="C21" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1923,27 +1969,27 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" t="s">
-        <v>75</v>
+      <c r="C22" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D22" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1952,24 +1998,24 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" t="s">
-        <v>112</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
+      <c r="C23" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -1978,27 +2024,27 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" t="s">
-        <v>75</v>
+      <c r="C24" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -2007,27 +2053,27 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" t="s">
-        <v>75</v>
+      <c r="C25" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -2036,53 +2082,53 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
-        <v>75</v>
+      <c r="C26" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H26" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
-      <c r="C27" t="s">
-        <v>112</v>
+      <c r="C27" s="3" t="s">
+        <v>162</v>
       </c>
       <c r="D27" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2091,27 +2137,27 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J27" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>149</v>
+      <c r="C28" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2120,36 +2166,36 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" t="s">
-        <v>112</v>
-      </c>
-      <c r="D29" t="s">
-        <v>153</v>
+      <c r="C29" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H29" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>20</v>
@@ -2158,47 +2204,47 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>146</v>
+      </c>
+      <c r="H30" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
         <v>75</v>
       </c>
-      <c r="D30" t="s">
-        <v>156</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>172</v>
-      </c>
-      <c r="H30" t="s">
-        <v>157</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" t="s">
-        <v>75</v>
+      <c r="C31" s="3" t="s">
+        <v>160</v>
       </c>
       <c r="D31" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -2207,7 +2253,7 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>20</v>
@@ -2231,7 +2277,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2268,28 +2314,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="D3" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2302,14 +2348,14 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2361,13 +2407,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -2384,16 +2430,16 @@
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="J4" t="s">
         <v>35</v>
@@ -2416,13 +2462,13 @@
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H5" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="J5" t="s">
         <v>31</v>
@@ -2451,7 +2497,7 @@
         <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +2518,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2485,14 +2531,17 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2527,18 +2576,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
         <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>38</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2547,13 +2596,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" t="s">
         <v>39</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -2573,7 +2622,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2593,7 +2642,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2606,14 +2655,17 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2648,30 +2700,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H3" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2691,7 +2743,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2763,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF38F91-9611-664B-A482-B256B2A3A124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D438614-D977-414C-9E34-003FA5752010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAB" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="183">
   <si>
     <t>Title</t>
   </si>
@@ -491,14 +491,7 @@
     <t>Grad</t>
   </si>
   <si>
-    <t>English
-Spanish</t>
-  </si>
-  <si>
     <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-41026-0.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://linear.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Publisher site&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://abstract.ups.edu/aata/aata.html" target="_blank"&gt;HTML En&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;HTML Es&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;a href="https://measure.axler.net/MIRA.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://measure.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://doi.org/10.1007/978-3-030-33143-6" target="_blank"&gt;Site&lt;/a&gt;</t>
@@ -636,6 +629,15 @@
     <t>Peters, Jonas
 Janzing, Dominik
 Schölkopf, Bernhard</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://abstract.ups.edu/aata/aata.html" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1035,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1101,7 +1103,7 @@
         <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>142</v>
@@ -1133,7 +1135,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>143</v>
@@ -1146,7 +1148,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:K2 A5:K6 A3:B3 J3:K3 A4:G4 J4:K4 D3:E3" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:K2 D3:E3 A3:B3 A4:G4 J3:K4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -1212,7 +1214,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1316,7 +1318,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1328,7 +1330,7 @@
         <v>146</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>143</v>
@@ -1412,7 +1414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1468,7 +1470,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -1480,7 +1482,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
@@ -1497,10 +1499,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1526,10 +1528,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1552,10 +1554,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1581,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -1610,10 +1612,10 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1622,7 +1624,7 @@
         <v>146</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
@@ -1636,10 +1638,10 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -1665,10 +1667,10 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1694,10 +1696,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1720,10 +1722,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1746,10 +1748,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1772,10 +1774,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1798,10 +1800,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1824,10 +1826,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -1850,10 +1852,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1876,10 +1878,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1902,7 +1904,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -1931,10 +1933,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -1943,7 +1945,7 @@
         <v>146</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>20</v>
@@ -1957,10 +1959,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1986,7 +1988,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
         <v>110</v>
@@ -1998,7 +2000,7 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>20</v>
@@ -2012,10 +2014,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2041,7 +2043,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
         <v>114</v>
@@ -2070,7 +2072,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
@@ -2099,7 +2101,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
@@ -2125,7 +2127,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" t="s">
         <v>122</v>
@@ -2154,10 +2156,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2183,10 +2185,10 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -2212,10 +2214,10 @@
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -2241,7 +2243,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
@@ -2345,10 +2347,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2416,7 +2418,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2430,13 +2432,13 @@
         <v>27</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>146</v>
       </c>
       <c r="H4" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>143</v>
@@ -2445,9 +2447,9 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -2456,27 +2458,27 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="F5" t="s">
         <v>146</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>182</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -2485,18 +2487,47 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H7" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>143</v>
       </c>
     </row>
@@ -2531,7 +2562,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2584,7 +2615,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -2655,7 +2686,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2708,7 +2739,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D438614-D977-414C-9E34-003FA5752010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F90A9-A372-8A4B-AC53-A01EC3AAB28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAB" sheetId="1" r:id="rId1"/>
@@ -481,10 +481,6 @@
     <t>2023-11-11</t>
   </si>
   <si>
-    <t>Linear and multilinear algebras
-Matrix theory</t>
-  </si>
-  <si>
     <t>&lt;a href="https://cfknow.github.io/review/Linear-Algebra-Done-Right/" target="_blank"&gt;2023-11-10&lt;/a&gt;</t>
   </si>
   <si>
@@ -512,125 +508,6 @@
     <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;Resources&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Discrete mathematics
-Graph theory</t>
-  </si>
-  <si>
-    <t>Geometry
-Optimization</t>
-  </si>
-  <si>
-    <t>Grinstead, Charles M.
-Snell, J. Laurie</t>
-  </si>
-  <si>
-    <t>Measure
-Integration</t>
-  </si>
-  <si>
-    <t>Algorithms
-Theory</t>
-  </si>
-  <si>
-    <t>Algorithms
-Theory
-Programming</t>
-  </si>
-  <si>
-    <t>Algorithms
-Math
-Theory</t>
-  </si>
-  <si>
-    <t>Hardt, Moritz
-Recht, Benjamin</t>
-  </si>
-  <si>
-    <t>Goodfellow, Ian
-Bengio, Yoshua
-Courville, Aaron</t>
-  </si>
-  <si>
-    <t>Shalev-Shwartz, Shai
-Ben-David, Shai</t>
-  </si>
-  <si>
-    <t>Lattimore, Tom
-Szepesvári, Csaba</t>
-  </si>
-  <si>
-    <t>Schapire, Robert E.
-Freund, Yoav</t>
-  </si>
-  <si>
-    <t>Mohri, Mehryar
-Rostamizadeh, Afshin
-Talwalkar, Ameet</t>
-  </si>
-  <si>
-    <t>Deisenroth, Marc P.
-Faisal, A. Aldo
-Ong, Cheng Soon.</t>
-  </si>
-  <si>
-    <t>James, Gareth
-Witten, Daniela
-Hastie, Trevor
-Tibshirani, Robert
-Taylor, Jonathan</t>
-  </si>
-  <si>
-    <t>James, Gareth
-Witten, Daniela
-Hastie, Trevor
-Tibshirani, Robert</t>
-  </si>
-  <si>
-    <t>Hastie, Trevor
-Tibshirani, Robert
-Friedman, Jerome</t>
-  </si>
-  <si>
-    <t>Gallier, Jean
-Quaintance, Jocelyn</t>
-  </si>
-  <si>
-    <t>Zaki, Mohammed J.
-Meira, Wagner Jr</t>
-  </si>
-  <si>
-    <t>Jurafsky, Dan
-Martin, James H.</t>
-  </si>
-  <si>
-    <t>Jentzen, Arnulf
-Kuckuck, Benno
-von Wurstemberger, Philippe</t>
-  </si>
-  <si>
-    <t>Albrecht, Stefano V.
-Christianos, Filippos
-Schäfer, Lukas</t>
-  </si>
-  <si>
-    <t>Bellemare, Marc G.
-Dabney, Will
-Rowland, Mark</t>
-  </si>
-  <si>
-    <t>Sutton, Richard S.
-Barto, Andrew G.</t>
-  </si>
-  <si>
-    <t>Dey, Tamal K.
-Wang, Yusu</t>
-  </si>
-  <si>
-    <t>Peters, Jonas
-Janzing, Dominik
-Schölkopf, Bernhard</t>
-  </si>
-  <si>
     <t>Spanish</t>
   </si>
   <si>
@@ -638,6 +515,87 @@
   </si>
   <si>
     <t>&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Linear and multilinear algebras&lt;br&gt;Matrix theory</t>
+  </si>
+  <si>
+    <t>Discrete mathematics&lt;br&gt;Graph theory</t>
+  </si>
+  <si>
+    <t>Geometry&lt;br&gt;Optimization</t>
+  </si>
+  <si>
+    <t>Grinstead, Charles M.&lt;br&gt;Snell, J. Laurie</t>
+  </si>
+  <si>
+    <t>Measure&lt;br&gt;Integration</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Theory</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Theory&lt;br&gt;Programming</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Math&lt;br&gt;Theory</t>
+  </si>
+  <si>
+    <t>Hardt, Moritz&lt;br&gt;Recht, Benjamin</t>
+  </si>
+  <si>
+    <t>Goodfellow, Ian&lt;br&gt;Bengio, Yoshua&lt;br&gt;Courville, Aaron</t>
+  </si>
+  <si>
+    <t>Shalev-Shwartz, Shai&lt;br&gt;Ben-David, Shai</t>
+  </si>
+  <si>
+    <t>Lattimore, Tom&lt;br&gt;Szepesvári, Csaba</t>
+  </si>
+  <si>
+    <t>Schapire, Robert E.&lt;br&gt;Freund, Yoav</t>
+  </si>
+  <si>
+    <t>Mohri, Mehryar&lt;br&gt;Rostamizadeh, Afshin&lt;br&gt;Talwalkar, Ameet</t>
+  </si>
+  <si>
+    <t>Deisenroth, Marc P.&lt;br&gt;Faisal, A. Aldo&lt;br&gt;Ong, Cheng Soon.</t>
+  </si>
+  <si>
+    <t>James, Gareth&lt;br&gt;Witten, Daniela&lt;br&gt;Hastie, Trevor&lt;br&gt;Tibshirani, Robert&lt;br&gt;Taylor, Jonathan</t>
+  </si>
+  <si>
+    <t>James, Gareth&lt;br&gt;Witten, Daniela&lt;br&gt;Hastie, Trevor&lt;br&gt;Tibshirani, Robert</t>
+  </si>
+  <si>
+    <t>Hastie, Trevor&lt;br&gt;Tibshirani, Robert&lt;br&gt;Friedman, Jerome</t>
+  </si>
+  <si>
+    <t>Gallier, Jean&lt;br&gt;Quaintance, Jocelyn</t>
+  </si>
+  <si>
+    <t>Zaki, Mohammed J.&lt;br&gt;Meira, Wagner Jr</t>
+  </si>
+  <si>
+    <t>Jurafsky, Dan&lt;br&gt;Martin, James H.</t>
+  </si>
+  <si>
+    <t>Jentzen, Arnulf&lt;br&gt;Kuckuck, Benno&lt;br&gt;von Wurstemberger, Philippe</t>
+  </si>
+  <si>
+    <t>Albrecht, Stefano V.&lt;br&gt;Christianos, Filippos&lt;br&gt;Schäfer, Lukas</t>
+  </si>
+  <si>
+    <t>Bellemare, Marc G.&lt;br&gt;Dabney, Will&lt;br&gt;Rowland, Mark</t>
+  </si>
+  <si>
+    <t>Sutton, Richard S.&lt;br&gt;Barto, Andrew G.</t>
+  </si>
+  <si>
+    <t>Dey, Tamal K.&lt;br&gt;Wang, Yusu</t>
+  </si>
+  <si>
+    <t>Peters, Jonas&lt;br&gt;Janzing, Dominik&lt;br&gt;Schölkopf, Bernhard</t>
   </si>
 </sst>
 </file>
@@ -1035,7 +993,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1046,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1100,10 +1058,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>142</v>
@@ -1135,7 +1093,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>143</v>
@@ -1158,7 +1116,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,7 +1172,7 @@
         <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1268,10 +1226,13 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1318,7 +1279,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1327,10 +1288,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>143</v>
@@ -1356,7 +1317,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
         <v>65</v>
@@ -1414,8 +1375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1462,7 +1423,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -1470,7 +1431,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
         <v>71</v>
@@ -1482,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H3" t="s">
         <v>72</v>
@@ -1499,10 +1460,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1520,7 +1481,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>76</v>
       </c>
@@ -1528,10 +1489,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1554,10 +1515,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1575,7 +1536,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>80</v>
       </c>
@@ -1583,7 +1544,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D7" t="s">
         <v>81</v>
@@ -1612,19 +1573,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>20</v>
@@ -1638,16 +1599,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H9" t="s">
         <v>85</v>
@@ -1667,16 +1628,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H10" t="s">
         <v>135</v>
@@ -1696,10 +1657,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1714,7 +1675,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>89</v>
       </c>
@@ -1722,10 +1683,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1740,7 +1701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -1748,10 +1709,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1774,10 +1735,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1792,7 +1753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -1800,10 +1761,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1818,7 +1779,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
@@ -1826,16 +1787,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H16" t="s">
         <v>98</v>
@@ -1852,10 +1813,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1878,10 +1839,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1896,7 +1857,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -1904,7 +1865,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D19" t="s">
         <v>104</v>
@@ -1913,7 +1874,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H19" t="s">
         <v>105</v>
@@ -1925,7 +1886,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -1933,19 +1894,19 @@
         <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>20</v>
@@ -1959,10 +1920,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1980,7 +1941,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>109</v>
       </c>
@@ -1988,7 +1949,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D22" t="s">
         <v>110</v>
@@ -2000,7 +1961,7 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>20</v>
@@ -2014,10 +1975,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2035,7 +1996,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -2043,7 +2004,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D24" t="s">
         <v>114</v>
@@ -2064,7 +2025,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>116</v>
       </c>
@@ -2072,7 +2033,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s">
         <v>114</v>
@@ -2093,7 +2054,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>118</v>
       </c>
@@ -2101,7 +2062,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D26" t="s">
         <v>119</v>
@@ -2110,7 +2071,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
         <v>120</v>
@@ -2119,7 +2080,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>121</v>
       </c>
@@ -2127,7 +2088,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D27" t="s">
         <v>122</v>
@@ -2156,10 +2117,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2177,7 +2138,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>128</v>
       </c>
@@ -2185,16 +2146,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H29" t="s">
         <v>129</v>
@@ -2214,16 +2175,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H30" t="s">
         <v>131</v>
@@ -2235,7 +2196,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -2243,7 +2204,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
@@ -2349,8 +2310,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2409,7 +2370,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
         <v>24</v>
@@ -2435,10 +2396,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>143</v>
@@ -2461,13 +2422,13 @@
         <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>143</v>
@@ -2493,7 +2454,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
         <v>30</v>
@@ -2562,12 +2523,13 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -2615,7 +2577,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D3" t="s">
         <v>37</v>
@@ -2686,7 +2648,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2739,7 +2701,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -2748,7 +2710,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H3" t="s">
         <v>42</v>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67F90A9-A372-8A4B-AC53-A01EC3AAB28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CDFE4-4E0F-FD43-B960-04BB5B4D0643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="100" windowWidth="29260" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAB" sheetId="1" r:id="rId1"/>
@@ -20,11 +20,11 @@
     <sheet name="MGTB" sheetId="6" r:id="rId5"/>
     <sheet name="MMLB" sheetId="5" r:id="rId6"/>
     <sheet name="MORB" sheetId="7" r:id="rId7"/>
-    <sheet name="MLAB" sheetId="12" r:id="rId8"/>
-    <sheet name="MMNAB" sheetId="8" r:id="rId9"/>
-    <sheet name="MPSB" sheetId="9" r:id="rId10"/>
-    <sheet name="MRCAB" sheetId="10" r:id="rId11"/>
-    <sheet name="MMB" sheetId="11" r:id="rId12"/>
+    <sheet name="MMNAB" sheetId="8" r:id="rId8"/>
+    <sheet name="MPSB" sheetId="9" r:id="rId9"/>
+    <sheet name="MRCAB" sheetId="10" r:id="rId10"/>
+    <sheet name="MMB" sheetId="11" r:id="rId11"/>
+    <sheet name="MLAB" sheetId="12" r:id="rId12"/>
     <sheet name="MLPB" sheetId="13" r:id="rId13"/>
     <sheet name="MLTB" sheetId="14" r:id="rId14"/>
     <sheet name="MLMB" sheetId="15" r:id="rId15"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="189">
   <si>
     <t>Title</t>
   </si>
@@ -596,6 +596,24 @@
   </si>
   <si>
     <t>Peters, Jonas&lt;br&gt;Janzing, Dominik&lt;br&gt;Schölkopf, Bernhard</t>
+  </si>
+  <si>
+    <t>The Joy of Cryptography</t>
+  </si>
+  <si>
+    <t>Rosulek, Mike</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://joyofcryptography.com/pdf/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://joyofcryptography.com/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>2023-11-17</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 DEED</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt; Cryptography</t>
   </si>
 </sst>
 </file>
@@ -1112,116 +1130,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D4303-C318-9243-91F0-9D29FB74C205}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -1331,7 +1239,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35C2283-7711-724F-8130-A618BCC7670F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1344,6 +1252,26 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EBA103-6406-3D43-91A3-E71ECA0BBFB5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -2628,7 +2556,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2648,7 +2576,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2725,18 +2653,79 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EBA103-6406-3D43-91A3-E71ECA0BBFB5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
+        <v>185</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J3" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -2745,18 +2734,108 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01CDFE4-4E0F-FD43-B960-04BB5B4D0643}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040A957-D6ED-DF44-B526-36E0B14E3313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="100" windowWidth="29260" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAB" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="220">
   <si>
     <t>Title</t>
   </si>
@@ -614,13 +614,106 @@
   </si>
   <si>
     <t>Applied math&lt;br&gt; Cryptography</t>
+  </si>
+  <si>
+    <t>The Open Logic Text</t>
+  </si>
+  <si>
+    <t>Set theory&lt;br&gt;Propositional logic&lt;br&gt;First-order logic&lt;br&gt;Model theory&lt;br&gt;Computability&lt;br&gt;Turing machine&lt;br&gt;Incompleteness&lt;br&gt;Second-order logic&lt;br&gt;Lambda calculus&lt;br&gt;Many-valued logic&lt;br&gt;Normal modal logics&lt;br&gt;Intuitionistic logic&lt;br&gt;Counterfactuals</t>
+  </si>
+  <si>
+    <t>The Open Logic Project contributors</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://builds.openlogicproject.org/open-logic-complete.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://openlogicproject.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CC BY 4.0 DEED</t>
+  </si>
+  <si>
+    <t>Sets, Logic, Computation: An Open Introduction to Metalogic</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://slc.openlogicproject.org/slc-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://slc.openlogicproject.org" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Set theory&lt;br&gt;First-order logic&lt;br&gt;Turing machine</t>
+  </si>
+  <si>
+    <t>forall x: Calgary: An Introduction to Formal Logic</t>
+  </si>
+  <si>
+    <t>First-order logic&lt;br&gt;Modal logic</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://forallx.openlogicproject.org/forallxyyc.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://forallx.openlogicproject.org" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Magnus, P. D.&lt;br&gt;Button, Tim&lt;br&gt;Trueman, Robert&lt;br&gt;Zach, Richard&lt;br&gt;Loftis, J. Robert&lt;br&gt;Thomas-Bolduc, Aaron</t>
+  </si>
+  <si>
+    <t>Incompleteness and Computability: An Open Introduction to Gödel’s Theorems</t>
+  </si>
+  <si>
+    <t>Incompleteness</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://ic.openlogicproject.org/ic-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://ic.openlogicproject.org" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Boxes and Diamonds: An Open Introduction toModal Logic</t>
+  </si>
+  <si>
+    <t>Normal modal logics&lt;br&gt;Intuitionistic logic&lt;br&gt;Counterfactuals</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://bd.openlogicproject.org/bd-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://bd.openlogicproject.org" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Set Theory: An Open Introduction</t>
+  </si>
+  <si>
+    <t>Set theory</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://st.openlogicproject.org/settheory-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://builds.openlogicproject.org/courses/set-theory/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Intermediate Logic: An Open Introduction</t>
+  </si>
+  <si>
+    <t>First-order logic</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://builds.openlogicproject.org/courses/intermediate-logic/il-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://builds.openlogicproject.org/courses/intermediate-logic/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>What if?: An Open Introduction to Non-Classical Logics</t>
+  </si>
+  <si>
+    <t>Non-classical logics</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://builds.openlogicproject.org/courses/what-if/wi-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://builds.openlogicproject.org/courses/what-if/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Calculus</t>
+  </si>
+  <si>
+    <t>Strand, Gilbert</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://ocw.mit.edu/courses/res-18-001-calculus-fall-2023/mitres_18_001_f17_full_book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://ocw.mit.edu/courses/res-18-001-calculus-fall-2023/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -637,6 +730,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -659,18 +760,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1011,7 +1115,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2239,7 +2343,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2428,18 +2532,82 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>219</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2451,7 +2619,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2553,20 +2721,287 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7317D5C-0833-9C49-910D-501B8A37D6EA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
     </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>192</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>204</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>207</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>213</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" t="s">
+        <v>191</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>216</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2575,8 +3010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2656,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7040A957-D6ED-DF44-B526-36E0B14E3313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B02AD-30AD-F742-B414-3A33F9F7D0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAB" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="219">
   <si>
     <t>Title</t>
   </si>
@@ -109,9 +109,6 @@
     <t/>
   </si>
   <si>
-    <t>11/11/2023</t>
-  </si>
-  <si>
     <t>Topology Without Tears</t>
   </si>
   <si>
@@ -319,15 +316,9 @@
     <t>An Introduction to Statistical Learning, with Applications in Python</t>
   </si>
   <si>
-    <t>&lt;a href = "https://hastie.su.domains/ISLP/ISLP_website.pdf.download.html" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.statlearning.com/resources-python" target = "_blank"&gt;Resources&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>An Introduction to Statistical Learning, with Applications in R</t>
   </si>
   <si>
-    <t>&lt;a href = "https://hastie.su.domains/ISLR2/ISLRv2_corrected_June_2023.pdf.download.html" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.statlearning.com/resources-second-edition" target = "_blank"&gt;Resources&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>The Elements of Statistical Learning: Data Mining, Inference, and Prediction</t>
   </si>
   <si>
@@ -496,18 +487,6 @@
     <t>&lt;a href="https://cfknow.github.io/review/Pattern-Recognition-and-Machine-Learning/" target="_blank"&gt;2023-11-11&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href = "https://tor-lattimore.com/downloads/book/book.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://tor-lattimore.com/downloads/book/solutions.pdf" target = "_blank" &gt;Resources&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "https://arxiv.org/pdf/2310.20360.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/introdeeplearning/book" target = "_blank"&gt;Resources&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "https://arxiv.org/abs/2305.18793" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/site/pengdingpku/teaching" target = "_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/ZX3VEV" target = "_blank"&gt;Resources&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;Resources&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Spanish</t>
   </si>
   <si>
@@ -707,13 +686,31 @@
   </si>
   <si>
     <t>&lt;a href="https://ocw.mit.edu/courses/res-18-001-calculus-fall-2023/mitres_18_001_f17_full_book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://ocw.mit.edu/courses/res-18-001-calculus-fall-2023/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://tor-lattimore.com/downloads/book/book.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://tor-lattimore.com/downloads/book/solutions.pdf" target = "_blank" &gt;Res&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://hastie.su.domains/ISLP/ISLP_website.pdf.download.html" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.statlearning.com/resources-python" target = "_blank"&gt;Res&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://hastie.su.domains/ISLR2/ISLRv2_corrected_June_2023.pdf.download.html" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.statlearning.com/resources-second-edition" target = "_blank"&gt;Res&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://arxiv.org/pdf/2310.20360.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/introdeeplearning/book" target = "_blank"&gt;Res&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://arxiv.org/abs/2305.18793" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/site/pengdingpku/teaching" target = "_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/ZX3VEV" target = "_blank"&gt;Res&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;Res&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -723,13 +720,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -762,16 +752,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -1115,7 +1104,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,7 +1114,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1167,8 +1156,8 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>156</v>
+      <c r="C3" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1180,13 +1169,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1215,10 +1204,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>152</v>
+        <v>218</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1248,7 +1237,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1285,13 +1274,13 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>160</v>
+      <c r="C3" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1300,13 +1289,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1314,28 +1303,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>62</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>145</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1355,7 +1344,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1375,7 +1364,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1384,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1407,8 +1396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1420,7 +1409,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1457,268 +1446,268 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D3" t="s">
         <v>70</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
+      <c r="I3" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" t="s">
         <v>74</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>76</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>77</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>20</v>
+      <c r="I5" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>78</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>20</v>
+      <c r="I6" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>81</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>20</v>
+      <c r="I7" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>167</v>
+      <c r="C8" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>20</v>
+        <v>213</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" t="s">
         <v>84</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" t="s">
-        <v>85</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>20</v>
+      <c r="I9" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>169</v>
+      <c r="C10" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>20</v>
+        <v>132</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>87</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>20</v>
+      <c r="I11" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>171</v>
+      <c r="C12" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>164</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1727,24 +1716,24 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>214</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>172</v>
+      <c r="C13" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>165</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1753,24 +1742,24 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>20</v>
+        <v>215</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>173</v>
+      <c r="C14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>166</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1779,24 +1768,24 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>174</v>
+      <c r="C15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1805,50 +1794,50 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>96</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>20</v>
+        <v>93</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>174</v>
+      <c r="C16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>20</v>
+        <v>95</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>175</v>
+      <c r="C17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1857,24 +1846,24 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>20</v>
+        <v>97</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>176</v>
+      <c r="C18" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>169</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1883,79 +1872,79 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>20</v>
+        <v>99</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>161</v>
+      <c r="C19" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H19" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
+        <v>102</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>177</v>
+      <c r="C20" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>170</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H20" t="s">
-        <v>150</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>20</v>
+        <v>216</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>178</v>
+      <c r="C21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1964,27 +1953,27 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>20</v>
+        <v>105</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>161</v>
+      <c r="C22" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1993,24 +1982,24 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>151</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>20</v>
+        <v>217</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>179</v>
+      <c r="C23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>172</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2019,27 +2008,27 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>112</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>20</v>
+        <v>109</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>161</v>
+      <c r="C24" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -2048,111 +2037,111 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>115</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>161</v>
+      <c r="C25" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>114</v>
       </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>20</v>
+      <c r="I25" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>161</v>
+      <c r="C26" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>20</v>
+        <v>117</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D27" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>120</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J27" t="s">
         <v>121</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D27" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>123</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>180</v>
+      <c r="C28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>173</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2161,85 +2150,85 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>20</v>
+        <v>123</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J28" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>181</v>
+      <c r="C29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H29" t="s">
-        <v>129</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>20</v>
+        <v>126</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>182</v>
+      <c r="C30" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H30" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>20</v>
+        <v>128</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="J30" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>161</v>
+      <c r="C31" s="2" t="s">
+        <v>154</v>
       </c>
       <c r="D31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -2248,10 +2237,10 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>20</v>
+        <v>131</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2265,14 +2254,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2309,28 +2298,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>137</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>138</v>
       </c>
-      <c r="D3" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>140</v>
-      </c>
-      <c r="H3" t="s">
-        <v>141</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2350,7 +2339,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2387,141 +2376,141 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>153</v>
+      <c r="E5" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="F5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>145</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="I6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J6" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>33</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>34</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2531,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2579,16 +2568,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2597,17 +2586,17 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H4" s="4"/>
+      <c r="H4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2630,7 +2619,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2667,31 +2656,31 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" t="s">
         <v>36</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
         <v>38</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2711,7 +2700,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2736,7 +2725,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2773,16 +2762,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="D3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2791,27 +2780,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2820,27 +2809,27 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2849,27 +2838,27 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J5" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2878,27 +2867,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J6" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>205</v>
+      <c r="A7" s="2" t="s">
+        <v>198</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2907,27 +2896,27 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J7" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D8" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2936,27 +2925,27 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J8" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2965,24 +2954,24 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J9" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2991,13 +2980,13 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="J10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3010,7 +2999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3:I3"/>
     </sheetView>
   </sheetViews>
@@ -3021,7 +3010,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3058,28 +3047,28 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" t="s">
-        <v>42</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3099,7 +3088,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3136,31 +3125,31 @@
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>188</v>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="J3" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3183,7 +3172,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3220,57 +3209,57 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J3" t="s">
         <v>54</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J3" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>56</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>57</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>58</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>59</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66B02AD-30AD-F742-B414-3A33F9F7D0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9FE0A-C72B-6C49-8E18-A8BF80E28984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAB" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="219">
   <si>
     <t>Title</t>
   </si>
@@ -472,21 +472,12 @@
     <t>2023-11-11</t>
   </si>
   <si>
-    <t>&lt;a href="https://cfknow.github.io/review/Linear-Algebra-Done-Right/" target="_blank"&gt;2023-11-10&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Grad</t>
   </si>
   <si>
-    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-41026-0.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://linear.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Publisher site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="https://measure.axler.net/MIRA.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://measure.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://doi.org/10.1007/978-3-030-33143-6" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href="https://cfknow.github.io/review/Pattern-Recognition-and-Machine-Learning/" target="_blank"&gt;2023-11-11&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Spanish</t>
   </si>
   <si>
@@ -704,6 +695,15 @@
   </si>
   <si>
     <t>&lt;a href="https://wstein.org/ent/ent.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/williamstein/ent" target="_blank"&gt;Res&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-41026-0.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://linear.axler.net/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://cfknow.github.io/review/Linear-Algebra-Done-Right/" target="_blank"&gt;2023-11&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://cfknow.github.io/review/Pattern-Recognition-and-Machine-Learning/" target="_blank"&gt;2023-11&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1104,11 +1104,12 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1157,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1169,10 +1170,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>139</v>
@@ -1204,7 +1205,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>140</v>
@@ -1280,7 +1281,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1289,10 +1290,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
         <v>142</v>
-      </c>
-      <c r="H3" t="s">
-        <v>144</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>140</v>
@@ -1318,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
         <v>64</v>
@@ -1396,15 +1397,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="8" max="8" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -1452,7 +1453,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>70</v>
@@ -1464,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="H3" t="s">
         <v>71</v>
@@ -1481,10 +1482,10 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1510,10 +1511,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1536,10 +1537,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1565,7 +1566,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D7" t="s">
         <v>80</v>
@@ -1594,19 +1595,19 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>140</v>
@@ -1620,16 +1621,16 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
@@ -1649,16 +1650,16 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
         <v>132</v>
@@ -1678,10 +1679,10 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1704,10 +1705,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1716,7 +1717,7 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>140</v>
@@ -1730,10 +1731,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1742,7 +1743,7 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>140</v>
@@ -1756,10 +1757,10 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1782,10 +1783,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1808,16 +1809,16 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H16" t="s">
         <v>95</v>
@@ -1834,10 +1835,10 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1860,10 +1861,10 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1886,7 +1887,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
         <v>101</v>
@@ -1895,7 +1896,7 @@
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H19" t="s">
         <v>102</v>
@@ -1915,19 +1916,19 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H20" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>140</v>
@@ -1941,10 +1942,10 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1970,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D22" t="s">
         <v>107</v>
@@ -1982,7 +1983,7 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>140</v>
@@ -1996,10 +1997,10 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2025,7 +2026,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D24" t="s">
         <v>111</v>
@@ -2054,7 +2055,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
         <v>111</v>
@@ -2083,7 +2084,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D26" t="s">
         <v>116</v>
@@ -2092,7 +2093,7 @@
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H26" t="s">
         <v>117</v>
@@ -2109,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D27" t="s">
         <v>119</v>
@@ -2138,10 +2139,10 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2167,16 +2168,16 @@
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
         <v>126</v>
@@ -2196,16 +2197,16 @@
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H30" t="s">
         <v>128</v>
@@ -2225,7 +2226,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D31" t="s">
         <v>130</v>
@@ -2253,7 +2254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -2391,7 +2392,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -2417,10 +2418,10 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>140</v>
@@ -2443,13 +2444,13 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>140</v>
@@ -2475,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -2568,16 +2569,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2586,13 +2587,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2662,7 +2663,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2713,7 +2714,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2762,45 +2763,45 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="J3" t="s">
         <v>183</v>
-      </c>
-      <c r="D3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>185</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="J3" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>187</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>190</v>
-      </c>
       <c r="D4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2809,28 +2810,28 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -2838,27 +2839,27 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J5" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2867,27 +2868,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2896,27 +2897,27 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2925,27 +2926,27 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2954,24 +2955,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2980,13 +2984,13 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J10" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3057,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D3" t="s">
         <v>40</v>
@@ -3062,7 +3066,7 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
         <v>41</v>
@@ -3125,31 +3129,31 @@
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>175</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="J3" t="s">
         <v>177</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H3" t="s">
-        <v>178</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J3" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3222,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9FE0A-C72B-6C49-8E18-A8BF80E28984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A345B4E9-9AFE-9F4C-AB42-FD8B71594667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MAB" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="224">
   <si>
     <t>Title</t>
   </si>
@@ -704,6 +704,21 @@
   </si>
   <si>
     <t>&lt;a href="https://cfknow.github.io/review/Pattern-Recognition-and-Machine-Learning/" target="_blank"&gt;2023-11&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Large-Scale Convex Optimization: Algorithms &amp; Analyses via Monotone Operators</t>
+  </si>
+  <si>
+    <t>Optimization</t>
+  </si>
+  <si>
+    <t>Ryu, Ernest&lt;br&gt;Yin, Wotao</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://large-scale-book.mathopt.com/LSCOMO.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://large-scale-book.mathopt.com/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>2023-11-20</t>
   </si>
 </sst>
 </file>
@@ -2254,7 +2269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -3001,10 +3016,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3075,7 +3090,34 @@
         <v>140</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D4" t="s">
+        <v>221</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -1,33 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A345B4E9-9AFE-9F4C-AB42-FD8B71594667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0511D2C-9AA5-8843-BF19-64AF8391F8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MAB" sheetId="1" r:id="rId1"/>
-    <sheet name="MAATB" sheetId="2" r:id="rId2"/>
-    <sheet name="MCDEB" sheetId="3" r:id="rId3"/>
-    <sheet name="MDMB" sheetId="4" r:id="rId4"/>
-    <sheet name="MGTB" sheetId="6" r:id="rId5"/>
-    <sheet name="MMLB" sheetId="5" r:id="rId6"/>
-    <sheet name="MORB" sheetId="7" r:id="rId7"/>
-    <sheet name="MMNAB" sheetId="8" r:id="rId8"/>
-    <sheet name="MPSB" sheetId="9" r:id="rId9"/>
-    <sheet name="MRCAB" sheetId="10" r:id="rId10"/>
-    <sheet name="MMB" sheetId="11" r:id="rId11"/>
-    <sheet name="MLAB" sheetId="12" r:id="rId12"/>
-    <sheet name="MLPB" sheetId="13" r:id="rId13"/>
-    <sheet name="MLTB" sheetId="14" r:id="rId14"/>
-    <sheet name="MLMB" sheetId="15" r:id="rId15"/>
+    <sheet name="CSAB" sheetId="16" r:id="rId1"/>
+    <sheet name="CSPB" sheetId="17" r:id="rId2"/>
+    <sheet name="CSTB" sheetId="18" r:id="rId3"/>
+    <sheet name="CSMB" sheetId="19" r:id="rId4"/>
+    <sheet name="MAB" sheetId="1" r:id="rId5"/>
+    <sheet name="MAATB" sheetId="2" r:id="rId6"/>
+    <sheet name="MCDEB" sheetId="3" r:id="rId7"/>
+    <sheet name="MDMB" sheetId="4" r:id="rId8"/>
+    <sheet name="MGTB" sheetId="6" r:id="rId9"/>
+    <sheet name="MMLB" sheetId="5" r:id="rId10"/>
+    <sheet name="MORB" sheetId="7" r:id="rId11"/>
+    <sheet name="MMNAB" sheetId="8" r:id="rId12"/>
+    <sheet name="MPSB" sheetId="9" r:id="rId13"/>
+    <sheet name="MRCAB" sheetId="10" r:id="rId14"/>
+    <sheet name="MMB" sheetId="11" r:id="rId15"/>
+    <sheet name="MLAB" sheetId="12" r:id="rId16"/>
+    <sheet name="MLPB" sheetId="13" r:id="rId17"/>
+    <sheet name="MLTB" sheetId="14" r:id="rId18"/>
+    <sheet name="MLMB" sheetId="15" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="228">
   <si>
     <t>Title</t>
   </si>
@@ -175,33 +179,6 @@
     <t>&lt;a href="https://www.nicolasboumal.net/book/IntroOptimManifolds_Boumal_2023.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.nicolasboumal.net/book/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>mathematics-algebra-books</t>
-  </si>
-  <si>
-    <t>mathematics-abstract-algebra_topology-books</t>
-  </si>
-  <si>
-    <t>mathematics-calculus_differential-equations-books</t>
-  </si>
-  <si>
-    <t>mathematics-discrete-mathematics-books</t>
-  </si>
-  <si>
-    <t>mathematics-geometry_trigonometry-books</t>
-  </si>
-  <si>
-    <t>mathematics-mathematical-logic-books</t>
-  </si>
-  <si>
-    <t>mathematics-operations-research-books</t>
-  </si>
-  <si>
-    <t>mathematics-methods_numerical-analysis-books</t>
-  </si>
-  <si>
-    <t>mathematics-probability_statistics-books</t>
-  </si>
-  <si>
     <t>Introduction to Probability</t>
   </si>
   <si>
@@ -226,9 +203,6 @@
     <t>&lt;a href="https://services.math.duke.edu/~rtd/EOSP/EOSP2021.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://services.math.duke.edu/~rtd/EOSP/eosp.html" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>mathematics-real_complex-analysis-books</t>
-  </si>
-  <si>
     <t>Measure, Integration &amp; Real Analysis</t>
   </si>
   <si>
@@ -244,18 +218,6 @@
     <t>&lt;a href="https://terrytao.files.wordpress.com/2012/12/gsm-126-tao5-measure-book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://terrytao.wordpress.com/books/an-introduction-to-measure-theory/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>mathematics-miscellaneous-books</t>
-  </si>
-  <si>
-    <t>machine-learning-applications-books</t>
-  </si>
-  <si>
-    <t>machine-learning-programming-books</t>
-  </si>
-  <si>
-    <t>machine-learning-theory-books</t>
-  </si>
-  <si>
     <t>Pattern Recognition and Machine Learning</t>
   </si>
   <si>
@@ -448,9 +410,6 @@
     <t>&lt;a href = "https://www.dropbox.com/s/38p0j6ds5q9c8oe/10290.pdf?dl=1" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://mitpress.ublish.com/ebook/foundations-of-machine-learning--2-preview/7093/Cover" target = "_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://cs.nyu.edu/~mohri/mlbook/errata_ed2_p1.html" target = "_blank"&gt;Errata&lt;/a&gt;</t>
   </si>
   <si>
-    <t>machine-learning-miscellaneous-books</t>
-  </si>
-  <si>
     <t>The Quest for Artificial Intelligence: A History of Ideas and Achievements</t>
   </si>
   <si>
@@ -719,13 +678,150 @@
   </si>
   <si>
     <t>2023-11-20</t>
+  </si>
+  <si>
+    <t>mathematics/mathematics-algebra-books</t>
+  </si>
+  <si>
+    <t>mathematics/mathematics-abstract-algebra_topology-books</t>
+  </si>
+  <si>
+    <t>mathematics/mathematics-calculus_differential-equations-books</t>
+  </si>
+  <si>
+    <t>mathematics/mathematics-discrete-mathematics-books</t>
+  </si>
+  <si>
+    <t>mathematics/mathematics-geometry_trigonometry-books</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics-mathematical-logic-books</t>
+    </r>
+  </si>
+  <si>
+    <t>mathematics/mathematics-operations-research-books</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics-methods_numerical-analysis-books</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics-probability_statistics-books</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mathematics-real_complex-analysis-books</t>
+    </r>
+  </si>
+  <si>
+    <t>mathematics/mathematics-miscellaneous-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-applications-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-programming-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-theory-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-miscellaneous-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-applications-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-programming-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-theory-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-miscellaneous-books</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -743,6 +839,14 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1115,22 +1219,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF473F-CBF9-BB4E-8EFC-85F894DA5870}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7317D5C-0833-9C49-910D-501B8A37D6EA}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1165,18 +1288,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>146</v>
+      <c r="C3" t="s">
+        <v>165</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1184,31 +1307,28 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>217</v>
-      </c>
       <c r="H3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>166</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1216,34 +1336,501 @@
       <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>179</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>185</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>191</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:K2 D3:E3 A3:B3 A4:G4 J3:K4" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D4303-C318-9243-91F0-9D29FB74C205}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1253,7 +1840,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1290,13 +1877,13 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1305,13 +1892,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1319,28 +1906,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1348,19 +1935,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35C2283-7711-724F-8130-A618BCC7670F}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1368,19 +1955,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EBA103-6406-3D43-91A3-E71ECA0BBFB5}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1388,19 +1975,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893C98B-CBC4-7246-B032-90C8B1A2697A}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -1408,12 +1995,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1425,7 +2012,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1462,16 +2049,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1480,27 +2067,27 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1509,27 +2096,27 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1538,24 +2125,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1564,10 +2151,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -1575,16 +2162,16 @@
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -1593,111 +2180,111 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H8" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1706,24 +2293,24 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -1732,24 +2319,24 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -1758,24 +2345,24 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -1784,24 +2371,24 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -1810,50 +2397,50 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -1862,24 +2449,24 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -1888,36 +2475,36 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J19" t="s">
         <v>30</v>
@@ -1925,42 +2512,42 @@
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H20" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -1969,27 +2556,27 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D22" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E22" t="s">
         <v>13</v>
@@ -1998,24 +2585,24 @@
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -2024,27 +2611,27 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J23" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -2053,27 +2640,27 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J24" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -2082,53 +2669,53 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J25" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D26" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D27" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2137,27 +2724,27 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J27" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -2166,39 +2753,39 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J28" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J29" t="s">
         <v>30</v>
@@ -2206,45 +2793,45 @@
     </row>
     <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J30" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="D31" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -2253,10 +2840,10 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2265,19 +2852,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2314,28 +2901,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2344,18 +2931,196 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98323329-0184-9144-8174-5F0D8EC1C70B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21079C7-A759-D34E-A31D-0C3FA6B6DCD8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:K2 D3:E3 A3:B3 A4:G4 J3:K4" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2407,13 +3172,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2433,13 +3198,13 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
@@ -2459,16 +3224,16 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -2491,13 +3256,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -2526,7 +3291,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2535,19 +3300,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2584,16 +3349,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="D3" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2602,13 +3367,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -2619,12 +3384,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD9C4D-316B-4247-B873-47498DCA2D0C}">
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2635,7 +3400,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2678,7 +3443,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2693,7 +3458,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="J3" t="s">
         <v>38</v>
@@ -2704,608 +3469,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7317D5C-0833-9C49-910D-501B8A37D6EA}">
-  <dimension ref="A1:J10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
-    <col min="4" max="4" width="36.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>186</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>190</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D6" t="s">
-        <v>181</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>194</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>197</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>198</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>199</v>
-      </c>
-      <c r="D8" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>200</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" t="s">
-        <v>181</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>203</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J9" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>206</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="J10" t="s">
-        <v>183</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="17.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>141</v>
-      </c>
-      <c r="H4" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>141</v>
-      </c>
-      <c r="H3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="J3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
-  <dimension ref="A1:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="J3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>140</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0511D2C-9AA5-8843-BF19-64AF8391F8E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CF989E-B40D-7D41-96A7-E4BB558BAAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSAB" sheetId="16" r:id="rId1"/>
@@ -32,6 +32,10 @@
     <sheet name="MLPB" sheetId="13" r:id="rId17"/>
     <sheet name="MLTB" sheetId="14" r:id="rId18"/>
     <sheet name="MLMB" sheetId="15" r:id="rId19"/>
+    <sheet name="QCAB" sheetId="20" r:id="rId20"/>
+    <sheet name="QCPB" sheetId="21" r:id="rId21"/>
+    <sheet name="QCTB" sheetId="22" r:id="rId22"/>
+    <sheet name="QCMT" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="308">
   <si>
     <t>Title</t>
   </si>
@@ -486,9 +490,6 @@
   </si>
   <si>
     <t>Mohri, Mehryar&lt;br&gt;Rostamizadeh, Afshin&lt;br&gt;Talwalkar, Ameet</t>
-  </si>
-  <si>
-    <t>Deisenroth, Marc P.&lt;br&gt;Faisal, A. Aldo&lt;br&gt;Ong, Cheng Soon.</t>
   </si>
   <si>
     <t>James, Gareth&lt;br&gt;Witten, Daniela&lt;br&gt;Hastie, Trevor&lt;br&gt;Tibshirani, Robert&lt;br&gt;Taylor, Jonathan</t>
@@ -816,6 +817,250 @@
   <si>
     <t>computer-science/computer-science-miscellaneous-books</t>
   </si>
+  <si>
+    <t>quantum-computing/quantum-computing-applications-books</t>
+  </si>
+  <si>
+    <t>quantum-computing/quantum-computing-programming-books</t>
+  </si>
+  <si>
+    <t>quantum-computing/quantum-computing-theory-books</t>
+  </si>
+  <si>
+    <t>quantum-computing/quantum-computing-miscellaneous-books</t>
+  </si>
+  <si>
+    <t>Deisenroth, Marc P.&lt;br&gt;Faisal, A. Aldo&lt;br&gt;Ong, Cheng Soon</t>
+  </si>
+  <si>
+    <t>Dive into Deep Learning</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://d2l.ai/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://zh.d2l.ai/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Foundations of Data Science</t>
+  </si>
+  <si>
+    <t>Zhang, Aston&lt;br&gt;Lipton, Zachary C.&lt;br&gt;Li, Mu&lt;br&gt;
+Smola, Alexander J.</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data science&lt;br&gt;Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blum, Avrim&lt;br&gt;Hopcroft, John&lt;br&gt;Kannan, Ravindran </t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://home.ttic.edu/~avrim/book.pdf" target = "_blank"&gt;PDF&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>2023-11-25</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Vietnamese</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://pt.d2l.ai/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://tr.d2l.ai/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://d2l.aivivn.com/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://ko.d2l.ai/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://ja.d2l.ai/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bayes Rules! An Introduction to Applied Bayesian Modeling</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.bayesrulesbook.com/" target = "_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://bayes-rules.github.io" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Probability and Bayesian Modeling</t>
+  </si>
+  <si>
+    <t>Johnson, Alicia A.&lt;br&gt;Ott, Miles Q.&lt;br&gt;Dogucu, Mine</t>
+  </si>
+  <si>
+    <t>Albert,Jim&lt;br&gt;Hu, Jingchen</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://bayesball.github.io/BOOK/probability-a-measurement-of-uncertainty.html" target = "_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://monika76five.github.io/ProbBayes/" target = "_blank"&gt;Res&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Computational Complexity: A Modern Approach</t>
+  </si>
+  <si>
+    <t>Arora,Sanjeev&lt;br&gt;Barak,Boaz</t>
+  </si>
+  <si>
+    <t>Computational complexity</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://theory.cs.princeton.edu/complexity/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://theory.cs.princeton.edu/complexity/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mathematics and Computation: A Theory Revolutionizing Technology and Science</t>
+  </si>
+  <si>
+    <t>Wigderson, Avi</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.math.ias.edu/files/Book-online-Aug0619.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://press.princeton.edu/books/hardcover/9780691189130/mathematics-and-computation" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Elementary Differential Equations with Boundary Value Problems</t>
+  </si>
+  <si>
+    <t>Differential equations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trench, William F. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?article=1008&amp;context=mono" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=0&amp;article=1008&amp;context=mono&amp;type=additional" target="_blank"&gt;LATEX&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/mono/9/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Elementary Differential Equations</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?article=1007&amp;context=mono" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=0&amp;article=1007&amp;context=mono&amp;type=additional" target="_blank"&gt;LATEX&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/mono/8/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Student Solutions Manual for Elementary Differential Equations and Elementary Differential Equations with Boundary Value Problems</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?article=1009&amp;context=mono" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/mono/10/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Real Analysis</t>
+  </si>
+  <si>
+    <t>Real Analysis</t>
+  </si>
+  <si>
+    <t>Trench, William F.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?article=1006&amp;context=mono" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href=https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=0&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=1&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=2&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;LATEX&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/mono/7/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Elementary College Geometry</t>
+  </si>
+  <si>
+    <t>Africk, Henry</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://academicworks.cuny.edu/cgi/viewcontent.cgi?article=1051&amp;context=ny_oers" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Elementary_College_Geometry_(Africk)" target="_blank"&gt;HTML&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bishop, Wayne</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Modern Geometry</t>
+  </si>
+  <si>
+    <t>Trigonometry</t>
+  </si>
+  <si>
+    <t>Sundstrom, Ted&lt;br&gt;Schlicker, Steven</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Modern_Geometry_(Bishop)" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Modern_Geometry_(Bishop)" target="_blank"&gt;HTML&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1012&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/12/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 3.0 DEED</t>
+  </si>
+  <si>
+    <t>Mathematical Reasoning: Writing and Proof</t>
+  </si>
+  <si>
+    <t>Sundstrom, Ted</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1024&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/24/ target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Proof</t>
+  </si>
+  <si>
+    <t>Topology: An Inquiry-Based Approach</t>
+  </si>
+  <si>
+    <t>Schlicker, Steven</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1030&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/30/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Numerical Methods</t>
+  </si>
+  <si>
+    <t>CC BY 1.0 DEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chasnov, Jeffrey R. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Applied_Mathematics/Numerical_Methods_(Chasnov)" target="_blank"&gt;HTML&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Seven Sketches in Compositionality: An Invitation to Applied Category Theory</t>
+  </si>
+  <si>
+    <t>Fong, Brendan&lt;br&gt;Spivak, David I.</t>
+  </si>
+  <si>
+    <t>Category theory</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Applied_Mathematics/Seven_Sketches_in_Compositionality%3A_An_Invitation_to_Applied_Category_Theory_(Fong_and_Spivak)" target="_blank"&gt;HTML&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Jentzen, Arnulf&lt;br&gt;Kuckuck, Benno&lt;br&gt;Wurstemberger, Philippe von</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://arxiv.org/pdf/2310.20360.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/introdeeplearning/book" target="_blank"&gt;Code&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Convex Optimization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boyd, Stephen&lt;br&gt;Vandenberghe, Lieven </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://stanford.edu/~boyd/cvxbook/bv_cvxbook.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://stanford.edu/~boyd/cvxbook/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -836,17 +1081,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -869,9 +1113,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -879,10 +1122,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1222,13 +1464,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF473F-CBF9-BB4E-8EFC-85F894DA5870}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -1238,22 +1482,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7317D5C-0833-9C49-910D-501B8A37D6EA}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.1640625" customWidth="1"/>
     <col min="3" max="3" width="36.33203125" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1290,234 +1534,263 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>164</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>165</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>166</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
         <v>167</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J3" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="J4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>173</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>174</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>175</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>177</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>178</v>
       </c>
-      <c r="D6" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>179</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>180</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>181</v>
       </c>
-      <c r="D7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>182</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>183</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>184</v>
       </c>
-      <c r="D8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>185</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>186</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>187</v>
       </c>
-      <c r="D9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>188</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>189</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>190</v>
       </c>
-      <c r="D10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>191</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>168</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>301</v>
+      </c>
+      <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>302</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1528,20 +1801,21 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1604,16 +1878,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>204</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>205</v>
-      </c>
-      <c r="D4" t="s">
-        <v>206</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1622,10 +1896,36 @@
         <v>126</v>
       </c>
       <c r="H4" t="s">
+        <v>206</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>208</v>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>307</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -1639,14 +1939,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1681,33 +1981,33 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>163</v>
+        <v>295</v>
       </c>
       <c r="D3" t="s">
-        <v>159</v>
+        <v>297</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>298</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>161</v>
+        <v>241</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -1730,7 +2030,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1827,20 +2127,21 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D4303-C318-9243-91F0-9D29FB74C205}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1930,24 +2231,141 @@
         <v>125</v>
       </c>
     </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>276</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35C2283-7711-724F-8130-A618BCC7670F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>290</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1967,7 +2385,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -1987,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1997,22 +2415,24 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="38.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.83203125" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2048,8 +2468,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>55</v>
+      <c r="A3" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2058,7 +2478,7 @@
         <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2066,57 +2486,51 @@
       <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
-        <v>203</v>
-      </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>198</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>58</v>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>61</v>
+    </row>
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2125,24 +2539,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>63</v>
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2151,18 +2565,15 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>65</v>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2170,28 +2581,25 @@
       <c r="C7" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D7" t="s">
-        <v>66</v>
+      <c r="D7" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H7" t="s">
-        <v>67</v>
+        <v>194</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J7" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>68</v>
+      <c r="A8" s="2" t="s">
+        <v>252</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2200,24 +2608,21 @@
         <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>69</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -2225,8 +2630,8 @@
       <c r="C9" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>143</v>
+      <c r="D9" t="s">
+        <v>102</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2235,18 +2640,15 @@
         <v>126</v>
       </c>
       <c r="H9" t="s">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>71</v>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2255,7 +2657,7 @@
         <v>136</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2264,7 +2666,7 @@
         <v>126</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>125</v>
@@ -2273,44 +2675,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>72</v>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>74</v>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="D12" t="s">
+        <v>105</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2319,24 +2724,27 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>196</v>
+        <v>106</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>75</v>
+      <c r="J12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -2345,24 +2753,24 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>197</v>
+        <v>83</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>76</v>
+    <row r="14" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -2371,24 +2779,24 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>78</v>
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>149</v>
+        <v>303</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -2397,15 +2805,15 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>80</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -2414,24 +2822,27 @@
         <v>138</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>82</v>
+      <c r="J16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -2440,7 +2851,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>150</v>
+        <v>237</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -2449,15 +2860,18 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>233</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>84</v>
+        <v>241</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -2466,24 +2880,27 @@
         <v>136</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>151</v>
+        <v>237</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>234</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>235</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>86</v>
+        <v>241</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -2491,54 +2908,57 @@
       <c r="C19" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D19" t="s">
-        <v>87</v>
+      <c r="D19" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>242</v>
       </c>
       <c r="F19" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>88</v>
+        <v>247</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="J19" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>89</v>
+      <c r="A20" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>152</v>
+        <v>237</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>243</v>
       </c>
       <c r="F20" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>125</v>
+        <v>241</v>
+      </c>
+      <c r="J20" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>90</v>
+      <c r="A21" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -2547,27 +2967,27 @@
         <v>136</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="E21" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>91</v>
+        <v>249</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="J21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>92</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -2575,54 +2995,57 @@
       <c r="C22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D22" t="s">
-        <v>93</v>
+      <c r="D22" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>13</v>
+        <v>245</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>125</v>
+        <v>241</v>
+      </c>
+      <c r="J22" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>94</v>
+      <c r="A23" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>154</v>
+        <v>237</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
+        <v>246</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="J23" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>96</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="B24" t="s">
         <v>11</v>
@@ -2630,17 +3053,17 @@
       <c r="C24" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D24" t="s">
-        <v>97</v>
+      <c r="D24" s="2" t="s">
+        <v>156</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H24" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>125</v>
@@ -2649,18 +3072,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>99</v>
+    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>236</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D25" t="s">
-        <v>97</v>
+        <v>238</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -2669,18 +3092,18 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>125</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>101</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
@@ -2688,8 +3111,8 @@
       <c r="C26" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D26" t="s">
-        <v>102</v>
+      <c r="D26" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -2698,15 +3121,18 @@
         <v>126</v>
       </c>
       <c r="H26" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>104</v>
+      <c r="J26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -2714,8 +3140,8 @@
       <c r="C27" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D27" t="s">
-        <v>105</v>
+      <c r="D27" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -2724,18 +3150,15 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J27" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>108</v>
+      <c r="A28" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -2743,28 +3166,28 @@
       <c r="C28" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>155</v>
+      <c r="D28" t="s">
+        <v>87</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>126</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>125</v>
       </c>
       <c r="J28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>111</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -2773,7 +3196,7 @@
         <v>138</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -2782,18 +3205,15 @@
         <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>112</v>
+        <v>197</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J29" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>113</v>
+      <c r="A30" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -2802,27 +3222,24 @@
         <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>115</v>
+    </row>
+    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="B31" t="s">
         <v>11</v>
@@ -2830,8 +3247,8 @@
       <c r="C31" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D31" t="s">
-        <v>116</v>
+      <c r="D31" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="E31" t="s">
         <v>13</v>
@@ -2840,13 +3257,323 @@
         <v>18</v>
       </c>
       <c r="H31" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>125</v>
       </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>202</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D34" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H36" t="s">
+        <v>98</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="H37" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J38" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D41" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" t="s">
+        <v>64</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J42" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
+    <sortCondition ref="A3:A42"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2864,7 +3591,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2940,7 +3667,100 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7191E-8A55-5548-B5FA-223080F55BDC}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>230</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC3D27-B3D2-0440-84EC-8ECFD50A0037}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BB2A7-AC10-244A-B399-A7AD9473C2C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C43D7-6A9E-8A4D-B8F2-19E8DCCCCADB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2950,6 +3770,114 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21079C7-A759-D34E-A31D-0C3FA6B6DCD8}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="48.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>264</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2966,31 +3894,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3000,7 +3910,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3055,10 +3965,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>124</v>
@@ -3090,7 +4000,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>125</v>
@@ -3110,17 +4020,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3292,6 +4205,35 @@
       </c>
       <c r="I7" s="1" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>294</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J8" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3302,17 +4244,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3349,35 +4291,101 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
         <v>192</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>193</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>194</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="H4" s="3"/>
+      <c r="A4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3389,7 +4397,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3400,7 +4408,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3471,20 +4479,143 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>283</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>286</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J5" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CF989E-B40D-7D41-96A7-E4BB558BAAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AABD5D-631E-474A-AA7C-1E5E8863E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSAB" sheetId="16" r:id="rId1"/>
@@ -966,9 +966,6 @@
     <t>Trench, William F.</t>
   </si>
   <si>
-    <t>&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?article=1006&amp;context=mono" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href=https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=0&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=1&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=2&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;LATEX&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/mono/7/" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Elementary College Geometry</t>
   </si>
   <si>
@@ -1008,9 +1005,6 @@
     <t>Sundstrom, Ted</t>
   </si>
   <si>
-    <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1024&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/24/ target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Proof</t>
   </si>
   <si>
@@ -1060,6 +1054,12 @@
   </si>
   <si>
     <t>&lt;a href="https://stanford.edu/~boyd/cvxbook/bv_cvxbook.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://stanford.edu/~boyd/cvxbook/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?article=1006&amp;context=mono" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=0&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=1&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/cgi/viewcontent.cgi?filename=2&amp;article=1006&amp;context=mono&amp;type=additional" target="_blank"&gt;LATEX&lt;/a&gt;&lt;br&gt;&lt;a href="https://digitalcommons.trinity.edu/mono/7/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1024&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/24/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1465,7 +1465,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:A14"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1766,25 +1766,25 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>299</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>301</v>
-      </c>
       <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>300</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>302</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>241</v>
@@ -1803,7 +1803,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -1904,7 +1904,7 @@
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1913,7 +1913,7 @@
         <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1922,7 +1922,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>241</v>
@@ -1983,17 +1983,17 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
         <v>295</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="D3" t="s">
-        <v>297</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -2001,13 +2001,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>241</v>
       </c>
       <c r="J3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
@@ -2130,7 +2130,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2251,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>241</v>
@@ -2268,7 +2268,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2312,17 +2312,17 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
         <v>288</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" t="s">
-        <v>289</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>241</v>
@@ -2796,7 +2796,7 @@
         <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -2805,7 +2805,7 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>241</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -4218,7 +4218,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -4227,13 +4227,13 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>241</v>
       </c>
       <c r="J8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4481,8 +4481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4529,25 +4529,25 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" t="s">
         <v>277</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>278</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>279</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>241</v>
@@ -4558,16 +4558,16 @@
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -4576,7 +4576,7 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>241</v>
@@ -4587,17 +4587,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" t="s">
         <v>283</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D5" t="s">
-        <v>284</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -4605,13 +4605,13 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>241</v>
       </c>
       <c r="J5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AABD5D-631E-474A-AA7C-1E5E8863E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0F1ED8-DFE6-034D-8961-74AC979D9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" firstSheet="7" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSAB" sheetId="16" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="312">
   <si>
     <t>Title</t>
   </si>
@@ -1060,6 +1060,18 @@
   </si>
   <si>
     <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1024&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/24/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Quantum Computing for the Quantum Curious</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Hughes, Ciaran&lt;br&gt;Isaacson, Joshua&lt;br&gt;Perry, Anastasia&lt;br&gt;Sun, Ranbel F.&lt;br&gt;Turner, Jessica</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-030-61601-4.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-030-61601-4.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-030-61601-4" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -3583,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3677,10 +3689,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7191E-8A55-5548-B5FA-223080F55BDC}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T47" sqref="T47"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3688,21 +3700,6 @@
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3732,17 +3729,78 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BB2A7-AC10-244A-B399-A7AD9473C2C7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>311</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3773,7 +3831,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4481,7 +4539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0F1ED8-DFE6-034D-8961-74AC979D9C86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F012FD-1659-A747-A70B-63F30E4C80BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" firstSheet="7" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CSAB" sheetId="16" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="312">
   <si>
     <t>Title</t>
   </si>
@@ -2429,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2630,6 +2630,9 @@
       </c>
       <c r="H8" t="s">
         <v>253</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3731,7 +3734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BB2A7-AC10-244A-B399-A7AD9473C2C7}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,34 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F012FD-1659-A747-A70B-63F30E4C80BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71283E46-C749-8B44-8DC7-8A28E72B4EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="0" windowWidth="29260" windowHeight="21600" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="0" windowWidth="18440" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CSAB" sheetId="16" r:id="rId1"/>
-    <sheet name="CSPB" sheetId="17" r:id="rId2"/>
-    <sheet name="CSTB" sheetId="18" r:id="rId3"/>
-    <sheet name="CSMB" sheetId="19" r:id="rId4"/>
-    <sheet name="MAB" sheetId="1" r:id="rId5"/>
-    <sheet name="MAATB" sheetId="2" r:id="rId6"/>
-    <sheet name="MCDEB" sheetId="3" r:id="rId7"/>
-    <sheet name="MDMB" sheetId="4" r:id="rId8"/>
-    <sheet name="MGTB" sheetId="6" r:id="rId9"/>
-    <sheet name="MMLB" sheetId="5" r:id="rId10"/>
-    <sheet name="MORB" sheetId="7" r:id="rId11"/>
-    <sheet name="MMNAB" sheetId="8" r:id="rId12"/>
-    <sheet name="MPSB" sheetId="9" r:id="rId13"/>
-    <sheet name="MRCAB" sheetId="10" r:id="rId14"/>
-    <sheet name="MMB" sheetId="11" r:id="rId15"/>
-    <sheet name="MLAB" sheetId="12" r:id="rId16"/>
-    <sheet name="MLPB" sheetId="13" r:id="rId17"/>
-    <sheet name="MLTB" sheetId="14" r:id="rId18"/>
-    <sheet name="MLMB" sheetId="15" r:id="rId19"/>
-    <sheet name="QCAB" sheetId="20" r:id="rId20"/>
-    <sheet name="QCPB" sheetId="21" r:id="rId21"/>
-    <sheet name="QCTB" sheetId="22" r:id="rId22"/>
-    <sheet name="QCMT" sheetId="23" r:id="rId23"/>
+    <sheet name="COVER" sheetId="24" r:id="rId1"/>
+    <sheet name="CSDSB" sheetId="16" r:id="rId2"/>
+    <sheet name="CSAVRB" sheetId="17" r:id="rId3"/>
+    <sheet name="CSTB" sheetId="18" r:id="rId4"/>
+    <sheet name="CSSEB" sheetId="25" r:id="rId5"/>
+    <sheet name="CSCB" sheetId="26" r:id="rId6"/>
+    <sheet name="CSCSB" sheetId="27" r:id="rId7"/>
+    <sheet name="CSCCB" sheetId="28" r:id="rId8"/>
+    <sheet name="CSMB" sheetId="19" r:id="rId9"/>
+    <sheet name="MAB" sheetId="1" r:id="rId10"/>
+    <sheet name="MAATB" sheetId="2" r:id="rId11"/>
+    <sheet name="MCDEB" sheetId="3" r:id="rId12"/>
+    <sheet name="MDMB" sheetId="4" r:id="rId13"/>
+    <sheet name="MGTB" sheetId="6" r:id="rId14"/>
+    <sheet name="MMLB" sheetId="5" r:id="rId15"/>
+    <sheet name="MORB" sheetId="7" r:id="rId16"/>
+    <sheet name="MMNAB" sheetId="8" r:id="rId17"/>
+    <sheet name="MPSB" sheetId="9" r:id="rId18"/>
+    <sheet name="MRCAB" sheetId="10" r:id="rId19"/>
+    <sheet name="MMB" sheetId="11" r:id="rId20"/>
+    <sheet name="MLAB" sheetId="12" r:id="rId21"/>
+    <sheet name="MLPB" sheetId="13" r:id="rId22"/>
+    <sheet name="MLTB" sheetId="14" r:id="rId23"/>
+    <sheet name="MLMB" sheetId="15" r:id="rId24"/>
+    <sheet name="QCAB" sheetId="20" r:id="rId25"/>
+    <sheet name="QCPB" sheetId="21" r:id="rId26"/>
+    <sheet name="QCTB" sheetId="22" r:id="rId27"/>
+    <sheet name="QCMT" sheetId="23" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="323">
   <si>
     <t>Title</t>
   </si>
@@ -806,12 +811,6 @@
     <t>machine-learning/machine-learning-miscellaneous-books</t>
   </si>
   <si>
-    <t>computer-science/computer-science-applications-books</t>
-  </si>
-  <si>
-    <t>computer-science/computer-science-programming-books</t>
-  </si>
-  <si>
     <t>computer-science/computer-science-theory-books</t>
   </si>
   <si>
@@ -1072,6 +1071,45 @@
   </si>
   <si>
     <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-030-61601-4.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-030-61601-4.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-030-61601-4" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Linear algebra</t>
+  </si>
+  <si>
+    <t>2023-11-26</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://web.stanford.edu/~boyd/vmls/vmls.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/playlist?list=PLoROMvodv4rMz-WbFQtNUsUElIh2cPmN9" target="_blank"&gt;Videos&lt;/a&gt;&lt;br&gt;&lt;a href="https://web.stanford.edu/~boyd/vmls/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Applied Linear Algebra: Vectors, Matrices, and Least Squares</t>
+  </si>
+  <si>
+    <t>Linear Matrix Inequalities in System and Control Theory</t>
+  </si>
+  <si>
+    <t>Boyd, Stephen&lt;br&gt;El Ghaoui, Laurent&lt;br&gt;Feron, Eric&lt;br&gt;Balakrishnan, Venkataramanan</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://web.stanford.edu/~boyd/lmibook/lmibook.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://web.stanford.edu/~boyd/lmibook/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-data-science-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-augmented_virtual-reality-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-software-engineering-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-cybersecurity-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-computing-systems-books</t>
+  </si>
+  <si>
+    <t>computer-science/computer-science-cloud-computing-books</t>
   </si>
 </sst>
 </file>
@@ -1473,18 +1511,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF473F-CBF9-BB4E-8EFC-85F894DA5870}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC7E88C-6A55-074C-BC5F-4DBB91BA8A9B}">
+  <dimension ref="A2:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>223</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1493,6 +1576,784 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>199</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>316</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:K2 D3:E3 A3:B3 A4:G4 J3:K4" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>289</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>290</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>265</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD9C4D-316B-4247-B873-47498DCA2D0C}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="J3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>282</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>283</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7317D5C-0833-9C49-910D-501B8A37D6EA}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1778,28 +2639,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>297</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>299</v>
-      </c>
       <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>298</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>300</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J11" t="s">
         <v>161</v>
@@ -1811,12 +2672,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D5" sqref="D5:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,7 +2777,7 @@
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -1925,7 +2786,7 @@
         <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1934,10 +2795,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -1946,7 +2807,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -1995,17 +2856,17 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" t="s">
         <v>293</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D3" t="s">
-        <v>295</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -2013,13 +2874,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2027,7 +2888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
   <dimension ref="A1:J4"/>
   <sheetViews>
@@ -2137,7 +2998,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D4303-C318-9243-91F0-9D29FB74C205}">
   <dimension ref="A1:J5"/>
   <sheetViews>
@@ -2245,17 +3106,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D5" t="s">
         <v>273</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" t="s">
-        <v>275</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -2263,10 +3124,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2275,109 +3136,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35C2283-7711-724F-8130-A618BCC7670F}">
-  <dimension ref="A1:J4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF473F-CBF9-BB4E-8EFC-85F894DA5870}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>307</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" t="s">
-        <v>161</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2385,7 +3156,217 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35C2283-7711-724F-8130-A618BCC7670F}">
+  <dimension ref="A1:J36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>305</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EBA103-6406-3D43-91A3-E71ECA0BBFB5}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2405,7 +3386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893C98B-CBC4-7246-B032-90C8B1A2697A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2425,11 +3406,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -2611,7 +3592,7 @@
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2620,7 +3601,7 @@
         <v>136</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2629,10 +3610,10 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2811,7 +3792,7 @@
         <v>136</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -2820,10 +3801,10 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
@@ -2857,7 +3838,7 @@
     </row>
     <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -2866,7 +3847,7 @@
         <v>136</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -2875,10 +3856,10 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J17" t="s">
         <v>38</v>
@@ -2886,7 +3867,7 @@
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -2895,19 +3876,19 @@
         <v>136</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E18" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J18" t="s">
         <v>38</v>
@@ -2915,7 +3896,7 @@
     </row>
     <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B19" t="s">
         <v>11</v>
@@ -2924,19 +3905,19 @@
         <v>136</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J19" t="s">
         <v>38</v>
@@ -2944,7 +3925,7 @@
     </row>
     <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B20" t="s">
         <v>11</v>
@@ -2953,19 +3934,19 @@
         <v>136</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J20" t="s">
         <v>38</v>
@@ -2973,7 +3954,7 @@
     </row>
     <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
@@ -2982,19 +3963,19 @@
         <v>136</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J21" t="s">
         <v>38</v>
@@ -3002,7 +3983,7 @@
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B22" t="s">
         <v>11</v>
@@ -3011,19 +3992,19 @@
         <v>136</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F22" t="s">
         <v>18</v>
       </c>
       <c r="H22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J22" t="s">
         <v>38</v>
@@ -3031,7 +4012,7 @@
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -3040,19 +4021,19 @@
         <v>136</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
         <v>38</v>
@@ -3089,28 +4070,28 @@
     </row>
     <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>238</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="I25" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>240</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>241</v>
       </c>
       <c r="J25" t="s">
         <v>30</v>
@@ -3237,7 +4218,7 @@
         <v>136</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -3425,7 +4406,7 @@
     </row>
     <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s">
         <v>11</v>
@@ -3434,7 +4415,7 @@
         <v>136</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s">
         <v>13</v>
@@ -3443,7 +4424,7 @@
         <v>18</v>
       </c>
       <c r="H37" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -3594,7 +4575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -3672,25 +4653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98323329-0184-9144-8174-5F0D8EC1C70B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7191E-8A55-5548-B5FA-223080F55BDC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3702,7 +4665,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3710,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC3D27-B3D2-0440-84EC-8ECFD50A0037}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3722,7 +4685,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -3730,7 +4693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BB2A7-AC10-244A-B399-A7AD9473C2C7}">
   <dimension ref="A1:J3"/>
   <sheetViews>
@@ -3742,7 +4705,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3779,28 +4742,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D3" t="s">
         <v>308</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>309</v>
       </c>
-      <c r="D3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>311</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J3" t="s">
         <v>167</v>
@@ -3811,7 +4774,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C43D7-6A9E-8A4D-B8F2-19E8DCCCCADB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3821,7 +4784,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -3830,11 +4793,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98323329-0184-9144-8174-5F0D8EC1C70B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21079C7-A759-D34E-A31D-0C3FA6B6DCD8}">
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3844,7 +4827,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3881,16 +4864,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3899,36 +4882,36 @@
         <v>126</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>262</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>264</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3937,17 +4920,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA1A8F-9ED2-A448-BD63-707E314BDF07}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3955,497 +4940,39 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J4"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C0B19-EC8E-0149-99EB-54E31836D8CD}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A2:K2 D3:E3 A3:B3 A4:G4 J3:K4" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
-  <dimension ref="A1:J8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="52.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>129</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F5" t="s">
-        <v>126</v>
-      </c>
-      <c r="H5" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>126</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>290</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>291</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>292</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J8" t="s">
-        <v>286</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A55B510-3199-044D-80D5-14C3D6A5F0A4}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>193</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>266</v>
-      </c>
-      <c r="D5" t="s">
-        <v>267</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>266</v>
-      </c>
-      <c r="D6" t="s">
-        <v>267</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>272</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4454,83 +4981,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FD9C4D-316B-4247-B873-47498DCA2D0C}">
-  <dimension ref="A1:J3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F738DBE-9532-C643-8A03-0DC3396395CE}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4539,144 +5001,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="50.33203125" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>278</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>281</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>284</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>285</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="J5" t="s">
-        <v>286</v>
+        <v>224</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71283E46-C749-8B44-8DC7-8A28E72B4EBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C97DA7-FCAD-9447-9E5C-0A31C4D4A243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="0" windowWidth="18440" windowHeight="21600" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18560" yWindow="420" windowWidth="18440" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="327">
   <si>
     <t>Title</t>
   </si>
@@ -1110,6 +1110,18 @@
   </si>
   <si>
     <t>computer-science/computer-science-cloud-computing-books</t>
+  </si>
+  <si>
+    <t>Trends in Data Protection and Encryption Technologies</t>
+  </si>
+  <si>
+    <t>Mulder, Valentin&lt;br&gt;Mermoud, Alain&lt;br&gt;Lenders, Vincent&lt;br&gt;Tellenbach, Bernhard</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-33386-6.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-33386-6.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href=https://link.springer.com/book/10.1007/978-3-031-33386-6 target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Blockchain&lt;br&gt;Cybersecurity&lt;br&gt;Cryptography&lt;br&gt;Data protection</t>
   </si>
 </sst>
 </file>
@@ -4817,7 +4829,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4925,10 +4937,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4942,17 +4957,82 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C0B19-EC8E-0149-99EB-54E31836D8CD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>325</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -4984,7 +5064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F738DBE-9532-C643-8A03-0DC3396395CE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11128"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C97DA7-FCAD-9447-9E5C-0A31C4D4A243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A156F79-94BB-234A-9F70-81CED0942C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18560" yWindow="420" windowWidth="18440" windowHeight="21600" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18560" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -33,14 +33,20 @@
     <sheet name="MPSB" sheetId="9" r:id="rId18"/>
     <sheet name="MRCAB" sheetId="10" r:id="rId19"/>
     <sheet name="MMB" sheetId="11" r:id="rId20"/>
-    <sheet name="MLAB" sheetId="12" r:id="rId21"/>
-    <sheet name="MLPB" sheetId="13" r:id="rId22"/>
-    <sheet name="MLTB" sheetId="14" r:id="rId23"/>
-    <sheet name="MLMB" sheetId="15" r:id="rId24"/>
-    <sheet name="QCAB" sheetId="20" r:id="rId25"/>
-    <sheet name="QCPB" sheetId="21" r:id="rId26"/>
-    <sheet name="QCTB" sheetId="22" r:id="rId27"/>
-    <sheet name="QCMT" sheetId="23" r:id="rId28"/>
+    <sheet name="MLCVB" sheetId="12" r:id="rId21"/>
+    <sheet name="MLDLB" sheetId="13" r:id="rId22"/>
+    <sheet name="MLERAIB" sheetId="29" r:id="rId23"/>
+    <sheet name="MLFMLB" sheetId="30" r:id="rId24"/>
+    <sheet name="MLISAB" sheetId="31" r:id="rId25"/>
+    <sheet name="MLNLPB" sheetId="32" r:id="rId26"/>
+    <sheet name="MLPMLB" sheetId="33" r:id="rId27"/>
+    <sheet name="MLPPMLB" sheetId="34" r:id="rId28"/>
+    <sheet name="MLPTB" sheetId="35" r:id="rId29"/>
+    <sheet name="MLMB" sheetId="15" r:id="rId30"/>
+    <sheet name="QCAB" sheetId="20" r:id="rId31"/>
+    <sheet name="QCPB" sheetId="21" r:id="rId32"/>
+    <sheet name="QCTB" sheetId="22" r:id="rId33"/>
+    <sheet name="QCMT" sheetId="23" r:id="rId34"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -60,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="400">
   <si>
     <t>Title</t>
   </si>
@@ -173,9 +179,6 @@
     <t>Levin, Oscar</t>
   </si>
   <si>
-    <t>&lt;a href="https://discrete.openmathbooks.org/pdfs/dmoi3-tablet.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://discrete.openmathbooks.org/dmoi3/dmoi.html" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="https://discrete.openmathbooks.org/dmoi3.html" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>CC BY-SA 4.0 DEED</t>
   </si>
   <si>
@@ -311,9 +314,6 @@
     <t>Data Mining and Machine Learning: Fundamental Concepts and Algorithms</t>
   </si>
   <si>
-    <t>&lt;a href = "https://dataminingbook.info/book_html/" target = "_blank" &gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataminingbook.info/" target = "_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Speech and Language Processing</t>
   </si>
   <si>
@@ -416,9 +416,6 @@
     <t>&lt;a href = "https://arxiv.org/pdf/2206.13446.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://arxiv.org/abs/2206.13446" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>&lt;a href = "https://www.dropbox.com/s/38p0j6ds5q9c8oe/10290.pdf?dl=1" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://mitpress.ublish.com/ebook/foundations-of-machine-learning--2-preview/7093/Cover" target = "_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://cs.nyu.edu/~mohri/mlbook/errata_ed2_p1.html" target = "_blank"&gt;Errata&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>The Quest for Artificial Intelligence: A History of Ideas and Achievements</t>
   </si>
   <si>
@@ -447,12 +444,6 @@
   </si>
   <si>
     <t>Spanish</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://abstract.ups.edu/aata/aata.html" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Linear and multilinear algebras&lt;br&gt;Matrix theory</t>
@@ -799,15 +790,6 @@
     <t>mathematics/mathematics-miscellaneous-books</t>
   </si>
   <si>
-    <t>machine-learning/machine-learning-applications-books</t>
-  </si>
-  <si>
-    <t>machine-learning/machine-learning-programming-books</t>
-  </si>
-  <si>
-    <t>machine-learning/machine-learning-theory-books</t>
-  </si>
-  <si>
     <t>machine-learning/machine-learning-miscellaneous-books</t>
   </si>
   <si>
@@ -896,9 +878,6 @@
     <t>Bayes Rules! An Introduction to Applied Bayesian Modeling</t>
   </si>
   <si>
-    <t>&lt;a href = "https://www.bayesrulesbook.com/" target = "_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://bayes-rules.github.io" target = "_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Probability and Bayesian Modeling</t>
   </si>
   <si>
@@ -908,9 +887,6 @@
     <t>Albert,Jim&lt;br&gt;Hu, Jingchen</t>
   </si>
   <si>
-    <t>&lt;a href = "https://bayesball.github.io/BOOK/probability-a-measurement-of-uncertainty.html" target = "_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href = "https://monika76five.github.io/ProbBayes/" target = "_blank"&gt;Res&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Computational Complexity: A Modern Approach</t>
   </si>
   <si>
@@ -971,9 +947,6 @@
     <t>Africk, Henry</t>
   </si>
   <si>
-    <t>&lt;a href="https://academicworks.cuny.edu/cgi/viewcontent.cgi?article=1051&amp;context=ny_oers" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Elementary_College_Geometry_(Africk)" target="_blank"&gt;HTML&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Bishop, Wayne</t>
   </si>
   <si>
@@ -989,9 +962,6 @@
     <t>Sundstrom, Ted&lt;br&gt;Schlicker, Steven</t>
   </si>
   <si>
-    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Modern_Geometry_(Bishop)" target="_blank"&gt;HTML&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Modern_Geometry_(Bishop)" target="_blank"&gt;HTML&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1012&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/12/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -1025,9 +995,6 @@
     <t xml:space="preserve">Chasnov, Jeffrey R. </t>
   </si>
   <si>
-    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Applied_Mathematics/Numerical_Methods_(Chasnov)" target="_blank"&gt;HTML&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Seven Sketches in Compositionality: An Invitation to Applied Category Theory</t>
   </si>
   <si>
@@ -1037,9 +1004,6 @@
     <t>Category theory</t>
   </si>
   <si>
-    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Applied_Mathematics/Seven_Sketches_in_Compositionality%3A_An_Invitation_to_Applied_Category_Theory_(Fong_and_Spivak)" target="_blank"&gt;HTML&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Jentzen, Arnulf&lt;br&gt;Kuckuck, Benno&lt;br&gt;Wurstemberger, Philippe von</t>
   </si>
   <si>
@@ -1122,6 +1086,267 @@
   </si>
   <si>
     <t>Blockchain&lt;br&gt;Cybersecurity&lt;br&gt;Cryptography&lt;br&gt;Data protection</t>
+  </si>
+  <si>
+    <t>CC BY 2.5 CA DEED</t>
+  </si>
+  <si>
+    <t>2023-12-02</t>
+  </si>
+  <si>
+    <t>Morin, Pat</t>
+  </si>
+  <si>
+    <t>Pract</t>
+  </si>
+  <si>
+    <t>Open Data Structures: Pseudocode Edition</t>
+  </si>
+  <si>
+    <t>Open Data Structures: Java Edition</t>
+  </si>
+  <si>
+    <t>Open Data Structures: C++ Edition</t>
+  </si>
+  <si>
+    <t>Open Data Structures (の日本語版)</t>
+  </si>
+  <si>
+    <t>Open Data Structures (Za programski jezik Java)</t>
+  </si>
+  <si>
+    <t>Slovenian</t>
+  </si>
+  <si>
+    <t>Open Data Structures (Za programski jezik C++)</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://sl.opendatastructures.org/ods-sl-java.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://sl.opendatastructures.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://sl.opendatastructures.org/ods-sl-cpp.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://sl.opendatastructures.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://sites.google.com/view/open-data-structures-ja/home" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Open Data Structures: Java Edition (Estruturas de dados abertas: Uma introduc¸ao em Java)</t>
+  </si>
+  <si>
+    <t>Open Data Structures: Pseudocode Edition (Estruturas de Dados Abertas: Uma introduc¸ao em pseudocode)</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.facom.ufu.br/~albertini/ods-python.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/albertiniufu/ods" target="_blank"&gt;Code&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.facom.ufu.br/~albertini/ods-java.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/albertiniufu/ods" target="_blank"&gt;Code&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Open Data Structures: Java Edition (Estruturas de Dados Abertas: Uma introduc¸ao em C++)</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.facom.ufu.br/~albertini/ods-cpp.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/albertiniufu/ods" target="_blank"&gt;Code&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Theory of Computation</t>
+  </si>
+  <si>
+    <t>Maheshwari, Anil&lt;br&gt;Smid, Michiel</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://cglab.ca/~michiel/TheoryOfComputation/TheoryOfComputation.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://cglab.ca/~michiel/TheoryOfComputation/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Operating Systems: Three Easy Pieces</t>
+  </si>
+  <si>
+    <t>Operating systems</t>
+  </si>
+  <si>
+    <t>Computation theory</t>
+  </si>
+  <si>
+    <t>Arpaci-Dusseau, Remzi H.&lt;br&gt;Arpaci-Dusseau, Andrea C.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://pages.cs.wisc.edu/~remzi/OSTEP/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mathematics for Computer Science</t>
+  </si>
+  <si>
+    <t>Lehman, Eric&lt;br&gt;Leighton, Frank T.&lt;br&gt;Meyer, Albert R.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://courses.csail.mit.edu/6.042/spring18/mcs.pdf" target="_blank"&gt;PDF&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CC BY-SA 3.0 DEED</t>
+  </si>
+  <si>
+    <t>How to Design Programs</t>
+  </si>
+  <si>
+    <t>Software design</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data structures</t>
+  </si>
+  <si>
+    <t>Felleisen, Matthias&lt;br&gt;Findler, Robert B.&lt;br&gt;Flatt, Matthew&lt;br&gt;Krishnamurthi, Shriram</t>
+  </si>
+  <si>
+    <t>CC BY-NC-ND 2.0 LEGAL CODE</t>
+  </si>
+  <si>
+    <t>A Data-Centric Introduction to Computing</t>
+  </si>
+  <si>
+    <t>Fisler, Kathi&lt;br&gt;Krishnamurthi, Shriram&lt;br&gt;Lerner, Benjamin S.&lt;br&gt;Politz, Joe G.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://dcic-world.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Data Science: Theories, Models, Algorithms, and Analytics</t>
+  </si>
+  <si>
+    <t>APACHE LICENSE, VERSION 2.0</t>
+  </si>
+  <si>
+    <t>Das, Sanjiv R.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://srdas.github.io/MLBook/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Rust Programming Language</t>
+  </si>
+  <si>
+    <t>Programming languages</t>
+  </si>
+  <si>
+    <t>Klabnik, Steve&lt;br&gt;Nichols, Carol</t>
+  </si>
+  <si>
+    <t>CC BY-SA 3.0 US DEED</t>
+  </si>
+  <si>
+    <t>Principles of Programming Languages</t>
+  </si>
+  <si>
+    <t>Smith, Scott F.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://pl.cs.jhu.edu/pl/book/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://pl.cs.jhu.edu/pl/book/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Compilers and Language Design</t>
+  </si>
+  <si>
+    <t>Programming languages&lt;br&gt;Compilers</t>
+  </si>
+  <si>
+    <t>Thain, Douglas</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www3.nd.edu/~dthain/compilerbook/compilerbook.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="http://compilerbook.org" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://opendatastructures.org/ods-python.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://opendatastructures.org/ods-python/" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/patmorin/ods" target="_blank"&gt;Code&lt;/a&gt;&lt;br&gt;&lt;a href="https://opendatastructures.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://opendatastructures.org/ods-java.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://opendatastructures.org/ods-java/" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/patmorin/ods" target="_blank"&gt;Code&lt;/a&gt;&lt;br&gt;&lt;a href="https://opendatastructures.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://opendatastructures.org/ods-cpp.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://opendatastructures.org/ods-cpp/" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/patmorin/ods" target="_blank"&gt;Code&lt;/a&gt;&lt;br&gt;&lt;a href="https://opendatastructures.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://htdp.org/2023-8-14/Book/index.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://htdp.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://doc.rust-lang.org/book/title-page.html" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://abstract.ups.edu/aata/aata.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://abstract.pugetsound.edu/aata-es/" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="http://abstract.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://discrete.openmathbooks.org/pdfs/dmoi3-tablet.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://discrete.openmathbooks.org/dmoi3/dmoi.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://discrete.openmathbooks.org/dmoi3.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://academicworks.cuny.edu/cgi/viewcontent.cgi?article=1051&amp;context=ny_oers" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Elementary_College_Geometry_(Africk)" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Modern_Geometry_(Bishop)" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.libretexts.org/Bookshelves/Geometry/Modern_Geometry_(Bishop)" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Applied_Mathematics/Seven_Sketches_in_Compositionality%3A_An_Invitation_to_Applied_Category_Theory_(Fong_and_Spivak)" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://math.libretexts.org/Bookshelves/Applied_Mathematics/Numerical_Methods_(Chasnov)" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.bayesrulesbook.com/" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://bayes-rules.github.io" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://dataminingbook.info/book_html/" target = "_blank" &gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataminingbook.info/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.dropbox.com/s/38p0j6ds5q9c8oe/10290.pdf?dl=1" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://mitpress.ublish.com/ebook/foundations-of-machine-learning--2-preview/7093/Cover" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://cs.nyu.edu/~mohri/mlbook/errata_ed2_p1.html" target = "_blank"&gt;Errata&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://bayesball.github.io/BOOK/probability-a-measurement-of-uncertainty.html" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://monika76five.github.io/ProbBayes/" target = "_blank"&gt;Res&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Anatomy of Programming Languages</t>
+  </si>
+  <si>
+    <t>Cook, William R.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.cs.utexas.edu/~wcook/anatomy/anatomy.htm" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.cs.utexas.edu/~wcook/anatomy/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>An Introduction to Applied Bioinformatics</t>
+  </si>
+  <si>
+    <t>Bioinformatics</t>
+  </si>
+  <si>
+    <t>Caporaso, Gregory</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://readiab.org/introduction.html" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-computer-vision-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-deep-learning-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-ethics_responsible-AI-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-fundamentals-machine-learning-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-industry-specific-applications-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-natural-language-processing-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-practical-machine-learning-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-privacy-preserving-machine-learning-books</t>
+  </si>
+  <si>
+    <t>machine-learning/machine-learning-programming_tools-books</t>
   </si>
 </sst>
 </file>
@@ -1592,7 +1817,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1603,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1646,7 +1871,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1658,13 +1883,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1693,10 +1918,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1704,16 +1929,16 @@
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -1722,24 +1947,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="D6" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -1748,10 +1973,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -1768,7 +1993,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,7 +2003,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1830,13 +2055,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -1856,13 +2081,13 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>373</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
         <v>34</v>
@@ -1882,16 +2107,16 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>374</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J5" t="s">
         <v>34</v>
@@ -1914,13 +2139,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -1949,12 +2174,12 @@
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -1963,7 +2188,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -1972,13 +2197,13 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J8" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2224,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2036,16 +2261,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2054,27 +2279,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2083,21 +2308,21 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2106,21 +2331,21 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="D6" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2129,7 +2354,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2367,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2153,7 +2378,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2196,7 +2421,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
         <v>36</v>
@@ -2208,13 +2433,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
+        <v>375</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
         <v>37</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2452,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2237,7 +2462,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2274,16 +2499,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2292,27 +2517,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2321,10 +2546,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>377</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -2332,16 +2557,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2350,13 +2575,13 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J5" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2595,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2382,7 +2607,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2419,74 +2644,74 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>165</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>170</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2495,27 +2720,27 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2524,27 +2749,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2553,27 +2778,27 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2582,27 +2807,27 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D9" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2611,27 +2836,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2640,27 +2865,27 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="J10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2669,13 +2894,13 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>298</v>
+        <v>378</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J11" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2689,7 +2914,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:I5"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2700,7 +2925,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2737,68 +2962,68 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" t="s">
         <v>40</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -2807,10 +3032,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2824,14 +3049,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2868,16 +3093,16 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2886,13 +3111,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>379</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -2902,10 +3127,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2915,7 +3140,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2952,57 +3177,83 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" t="s">
         <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>46</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>380</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3026,7 +3277,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3063,13 +3314,13 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3078,13 +3329,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -3092,42 +3343,42 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>51</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>52</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3136,10 +3387,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3150,17 +3401,136 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF473F-CBF9-BB4E-8EFC-85F894DA5870}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>317</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>356</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3184,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3221,16 +3591,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3239,10 +3609,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -3250,31 +3620,31 @@
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3383,14 +3753,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3400,17 +3770,359 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893C98B-CBC4-7246-B032-90C8B1A2697A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>225</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>237</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>241</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H12" t="s">
+        <v>192</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3419,1375 +4131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9397F5B8-63EB-1E49-B490-6A816D061D16}">
-  <dimension ref="A1:J42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="38.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.83203125" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="8" max="8" width="48.1640625" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>198</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>195</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>196</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>251</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>126</v>
-      </c>
-      <c r="H9" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>126</v>
-      </c>
-      <c r="H11" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D12" t="s">
-        <v>105</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>62</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>300</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>95</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>231</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E18" t="s">
-        <v>232</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>233</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E19" t="s">
-        <v>240</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>245</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E20" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>246</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E21" t="s">
-        <v>242</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>247</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E22" t="s">
-        <v>243</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>248</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="E23" t="s">
-        <v>244</v>
-      </c>
-      <c r="F23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" t="s">
-        <v>249</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>126</v>
-      </c>
-      <c r="H24" t="s">
-        <v>114</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>238</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>126</v>
-      </c>
-      <c r="H26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" t="s">
-        <v>18</v>
-      </c>
-      <c r="H27" t="s">
-        <v>79</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D28" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" t="s">
-        <v>126</v>
-      </c>
-      <c r="H28" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>91</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" t="s">
-        <v>202</v>
-      </c>
-      <c r="H32" t="s">
-        <v>57</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D35" t="s">
-        <v>97</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="H35" t="s">
-        <v>100</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" t="s">
-        <v>97</v>
-      </c>
-      <c r="E36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" t="s">
-        <v>98</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B37" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="E37" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" t="s">
-        <v>18</v>
-      </c>
-      <c r="H37" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B38" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E38" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="H38" t="s">
-        <v>109</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E39" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H39" t="s">
-        <v>85</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E40" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="H40" t="s">
-        <v>77</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D41" t="s">
-        <v>66</v>
-      </c>
-      <c r="E41" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J41" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" t="s">
-        <v>11</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E42" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="H42" t="s">
-        <v>64</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="J42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J42">
-    <sortCondition ref="A3:A42"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="A2:J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7191E-8A55-5548-B5FA-223080F55BDC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC3D27-B3D2-0440-84EC-8ECFD50A0037}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BB2A7-AC10-244A-B399-A7AD9473C2C7}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>309</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="J3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C43D7-6A9E-8A4D-B8F2-19E8DCCCCADB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC12F66-7D6E-B749-8951-4A7A989FC3AD}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4795,8 +4139,879 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>228</v>
+      <c r="A1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF6137D-0C53-C045-9269-910480ECA323}">
+  <dimension ref="A1:J26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>190</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>191</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H7" t="s">
+        <v>189</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" t="s">
+        <v>382</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>98</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BA2C8-2CA4-904F-888B-5A7FB98580DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F8B490-A9E7-D347-9007-403C2A9D5669}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7258B521-C020-A84C-A724-AAA32DDEDD5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF29D515-2EF3-B34E-BA21-67F30FD92914}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56639084-29BA-DA46-97E8-81326A521625}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -4816,7 +5031,250 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA7191E-8A55-5548-B5FA-223080F55BDC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AAC3D27-B3D2-0440-84EC-8ECFD50A0037}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BB2A7-AC10-244A-B399-A7AD9473C2C7}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>295</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="J3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C43D7-6A9E-8A4D-B8F2-19E8DCCCCADB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -4826,20 +5284,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21079C7-A759-D34E-A31D-0C3FA6B6DCD8}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4874,44 +5333,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="D3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>258</v>
+      <c r="C4" t="s">
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -4920,10 +5379,204 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>239</v>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>252</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D6" t="s">
+        <v>339</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>343</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>340</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>352</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>358</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>363</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>384</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>358</v>
+      </c>
+      <c r="D11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>386</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4934,23 +5587,373 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA1A8F-9ED2-A448-BD63-707E314BDF07}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J3"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>316</v>
+      </c>
+      <c r="H4" t="s">
+        <v>369</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>316</v>
+      </c>
+      <c r="H5" t="s">
+        <v>370</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" t="s">
+        <v>316</v>
+      </c>
+      <c r="H6" t="s">
+        <v>324</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F7" t="s">
+        <v>316</v>
+      </c>
+      <c r="H7" t="s">
+        <v>325</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H8" t="s">
+        <v>326</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" t="s">
+        <v>315</v>
+      </c>
+      <c r="E9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" t="s">
+        <v>316</v>
+      </c>
+      <c r="H9" t="s">
+        <v>329</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E10" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" t="s">
+        <v>316</v>
+      </c>
+      <c r="H10" t="s">
+        <v>330</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D11" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" t="s">
+        <v>316</v>
+      </c>
+      <c r="H11" t="s">
+        <v>332</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" t="s">
+        <v>359</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>316</v>
+      </c>
+      <c r="H13" t="s">
+        <v>372</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4959,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691C0B19-EC8E-0149-99EB-54E31836D8CD}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4971,7 +5974,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5008,16 +6011,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D3" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5026,13 +6029,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="J3" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -5052,7 +6055,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5072,7 +6075,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5082,17 +6085,75 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>224</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>387</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A156F79-94BB-234A-9F70-81CED0942C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE07C99C-BF8E-C044-BC49-3ECEC0B369C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18560" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="20" activeTab="29" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18560" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="398">
   <si>
     <t>Title</t>
   </si>
@@ -506,9 +506,6 @@
     <t>Jurafsky, Dan&lt;br&gt;Martin, James H.</t>
   </si>
   <si>
-    <t>Jentzen, Arnulf&lt;br&gt;Kuckuck, Benno&lt;br&gt;von Wurstemberger, Philippe</t>
-  </si>
-  <si>
     <t>Albrecht, Stefano V.&lt;br&gt;Christianos, Filippos&lt;br&gt;Schäfer, Lukas</t>
   </si>
   <si>
@@ -642,9 +639,6 @@
   </si>
   <si>
     <t>&lt;a href = "https://hastie.su.domains/ISLR2/ISLRv2_corrected_June_2023.pdf.download.html" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.statlearning.com/resources-second-edition" target = "_blank"&gt;Res&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>&lt;a href = "https://arxiv.org/pdf/2310.20360.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/introdeeplearning/book" target = "_blank"&gt;Res&lt;/a&gt;</t>
   </si>
   <si>
     <t>&lt;a href = "https://arxiv.org/abs/2305.18793" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/site/pengdingpku/teaching" target = "_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href = "https://dataverse.harvard.edu/dataset.xhtml?persistentId=doi:10.7910/DVN/ZX3VEV" target = "_blank"&gt;Res&lt;/a&gt;</t>
@@ -1082,9 +1076,6 @@
     <t>Mulder, Valentin&lt;br&gt;Mermoud, Alain&lt;br&gt;Lenders, Vincent&lt;br&gt;Tellenbach, Bernhard</t>
   </si>
   <si>
-    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-33386-6.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-33386-6.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href=https://link.springer.com/book/10.1007/978-3-031-33386-6 target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Blockchain&lt;br&gt;Cybersecurity&lt;br&gt;Cryptography&lt;br&gt;Data protection</t>
   </si>
   <si>
@@ -1142,9 +1133,6 @@
     <t>&lt;a href="https://www.facom.ufu.br/~albertini/ods-java.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/albertiniufu/ods" target="_blank"&gt;Code&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Open Data Structures: Java Edition (Estruturas de Dados Abertas: Uma introduc¸ao em C++)</t>
-  </si>
-  <si>
     <t>&lt;a href="https://www.facom.ufu.br/~albertini/ods-cpp.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/albertiniufu/ods" target="_blank"&gt;Code&lt;/a&gt;</t>
   </si>
   <si>
@@ -1347,6 +1335,12 @@
   </si>
   <si>
     <t>machine-learning/machine-learning-programming_tools-books</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-33386-6.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-33386-6.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-33386-6 target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Open Data Structures: Java Edition (Estruturas de Dados Abertas: Uma introduçao em C++)</t>
   </si>
 </sst>
 </file>
@@ -1828,7 +1822,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1883,10 +1877,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>121</v>
@@ -1918,7 +1912,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>122</v>
@@ -1929,54 +1923,54 @@
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>296</v>
       </c>
-      <c r="D5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>298</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>300</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D6" t="s">
-        <v>301</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>302</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2003,7 +1997,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2084,7 +2078,7 @@
         <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>122</v>
@@ -2113,7 +2107,7 @@
         <v>123</v>
       </c>
       <c r="H5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>122</v>
@@ -2179,7 +2173,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2188,7 +2182,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2197,13 +2191,13 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2218,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2261,45 +2255,45 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" t="s">
         <v>186</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>187</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>188</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2308,44 +2302,44 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D5" t="s">
         <v>253</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>254</v>
-      </c>
-      <c r="D5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2354,7 +2348,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2378,7 +2372,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2433,7 +2427,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>122</v>
@@ -2462,7 +2456,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2499,16 +2493,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2517,27 +2511,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2546,10 +2540,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -2557,31 +2551,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>269</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>269</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="J5" t="s">
         <v>270</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>271</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="J5" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2607,7 +2601,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2644,248 +2638,248 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>158</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>159</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>160</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J3" t="s">
         <v>161</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>167</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>169</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>171</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>172</v>
       </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>173</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>174</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>175</v>
       </c>
-      <c r="D7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>176</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
         <v>177</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>178</v>
       </c>
-      <c r="D8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>179</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
         <v>180</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>159</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>181</v>
       </c>
-      <c r="D9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>182</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>183</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>184</v>
       </c>
-      <c r="D10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>185</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>282</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>284</v>
-      </c>
       <c r="D11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2894,13 +2888,13 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -2925,7 +2919,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2988,16 +2982,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" t="s">
         <v>198</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D4" t="s">
-        <v>200</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3006,36 +3000,36 @@
         <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>286</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>287</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>199</v>
-      </c>
-      <c r="D5" t="s">
-        <v>288</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>289</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3056,7 +3050,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3093,17 +3087,17 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" t="s">
         <v>279</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" t="s">
-        <v>281</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -3111,13 +3105,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3140,7 +3134,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3232,7 +3226,7 @@
     </row>
     <row r="5" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3241,7 +3235,7 @@
         <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3250,10 +3244,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +3271,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3369,17 +3363,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5" t="s">
         <v>261</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D5" t="s">
-        <v>263</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -3387,10 +3381,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -3411,7 +3405,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3448,16 +3442,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3466,13 +3460,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -3486,7 +3480,7 @@
         <v>133</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3506,28 +3500,28 @@
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>228</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>229</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>230</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -3554,7 +3548,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3591,16 +3585,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>275</v>
-      </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3609,10 +3603,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -3620,16 +3614,16 @@
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
         <v>152</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D4" t="s">
-        <v>153</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3638,13 +3632,13 @@
         <v>123</v>
       </c>
       <c r="H4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" t="s">
         <v>155</v>
-      </c>
-      <c r="J4" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -3760,7 +3754,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -3770,17 +3764,21 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893C98B-CBC4-7246-B032-90C8B1A2697A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3815,7 +3813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>60</v>
       </c>
@@ -3841,7 +3839,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>87</v>
       </c>
@@ -3852,7 +3850,7 @@
         <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3861,15 +3859,15 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -3878,7 +3876,7 @@
         <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3887,18 +3885,18 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -3907,27 +3905,27 @@
         <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J6" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3936,27 +3934,27 @@
         <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3965,27 +3963,27 @@
         <v>131</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -3994,27 +3992,27 @@
         <v>131</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -4023,27 +4021,27 @@
         <v>131</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -4052,76 +4050,50 @@
         <v>131</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="153" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
+      </c>
+      <c r="D12" t="s">
+        <v>65</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>192</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" t="s">
-        <v>65</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="J12" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4140,7 +4112,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4165,7 +4137,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4220,7 +4192,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>122</v>
@@ -4272,7 +4244,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>122</v>
@@ -4298,7 +4270,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>122</v>
@@ -4324,7 +4296,7 @@
         <v>123</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>122</v>
@@ -4434,7 +4406,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>122</v>
@@ -4451,7 +4423,7 @@
         <v>133</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -4480,7 +4452,7 @@
         <v>131</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -4518,7 +4490,7 @@
         <v>123</v>
       </c>
       <c r="H14" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>122</v>
@@ -4593,7 +4565,7 @@
         <v>131</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -4619,7 +4591,7 @@
         <v>131</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -4657,7 +4629,7 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H19" t="s">
         <v>56</v>
@@ -4755,7 +4727,7 @@
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -4764,7 +4736,7 @@
         <v>131</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -4773,7 +4745,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -4787,7 +4759,7 @@
         <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E24" t="s">
         <v>13</v>
@@ -4875,7 +4847,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4895,7 +4867,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4973,7 +4945,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -4991,7 +4963,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5011,7 +4983,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -5031,7 +5003,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -5043,7 +5015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -5051,7 +5023,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5155,7 +5127,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5175,7 +5147,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5195,7 +5167,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5232,31 +5204,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" t="s">
         <v>292</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>293</v>
       </c>
-      <c r="D3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>295</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5274,7 +5246,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5298,7 +5270,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5335,16 +5307,16 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>248</v>
-      </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5353,24 +5325,24 @@
         <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -5379,24 +5351,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5405,10 +5377,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
         <v>37</v>
@@ -5416,43 +5388,43 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D6" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>339</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>343</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" t="s">
         <v>338</v>
       </c>
-      <c r="D7" t="s">
-        <v>342</v>
-      </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -5460,27 +5432,27 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
+        <v>336</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J7" t="s">
         <v>340</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -5489,25 +5461,25 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>354</v>
+      </c>
+      <c r="D9" t="s">
         <v>358</v>
       </c>
-      <c r="D9" t="s">
-        <v>362</v>
-      </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -5515,27 +5487,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J9" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -5544,10 +5516,10 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -5555,16 +5527,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D11" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -5573,10 +5545,10 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5590,7 +5562,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5601,7 +5573,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5638,318 +5610,318 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D3" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H4" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J4" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>313</v>
+      </c>
+      <c r="H6" t="s">
         <v>321</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D6" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" t="s">
-        <v>322</v>
-      </c>
-      <c r="F6" t="s">
-        <v>316</v>
-      </c>
-      <c r="H6" t="s">
-        <v>324</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" t="s">
         <v>322</v>
       </c>
-      <c r="F7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H7" t="s">
-        <v>325</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J8" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="D10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F10" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" t="s">
         <v>327</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" t="s">
-        <v>315</v>
-      </c>
-      <c r="E10" t="s">
-        <v>232</v>
-      </c>
-      <c r="F10" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" t="s">
-        <v>330</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>331</v>
+        <v>397</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J12" t="s">
         <v>345</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D12" t="s">
-        <v>348</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>371</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="J12" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D13" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="H13" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5963,7 +5935,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5974,7 +5946,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6011,16 +5983,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="D3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6029,13 +6001,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>396</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -6055,7 +6027,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -6075,7 +6047,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -6095,7 +6067,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6132,16 +6104,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6150,10 +6122,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11212"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE07C99C-BF8E-C044-BC49-3ECEC0B369C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242955BE-E07D-DE4F-A22A-EA73619498C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18560" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="12" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="534">
   <si>
     <t>Title</t>
   </si>
@@ -170,9 +170,6 @@
     <t>&lt;a href="https://www.math.miami.edu/~ec/book/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.math.miami.edu/~ec/book/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>GNU Free Documentation License (GFDL)</t>
-  </si>
-  <si>
     <t>Discrete Mathematics: An Open Introduction</t>
   </si>
   <si>
@@ -534,9 +531,6 @@
   </si>
   <si>
     <t>CC BY-NC-SA 4.0 DEED</t>
-  </si>
-  <si>
-    <t>Applied math&lt;br&gt; Cryptography</t>
   </si>
   <si>
     <t>The Open Logic Text</t>
@@ -1337,10 +1331,425 @@
     <t>machine-learning/machine-learning-programming_tools-books</t>
   </si>
   <si>
-    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-33386-6.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-33386-6.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-33386-6 target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Open Data Structures: Java Edition (Estruturas de Dados Abertas: Uma introduçao em C++)</t>
+  </si>
+  <si>
+    <t>A First Course in Linear Algebra</t>
+  </si>
+  <si>
+    <t>2023-12-09</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://linear.pugetsound.edu/download/fcla-3.50-print.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="http://linear.pugetsound.edu/html/fcla.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="http://linear.pugetsound.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>GNU Free Documentation License</t>
+  </si>
+  <si>
+    <t>Calculus: early transcendentals</t>
+  </si>
+  <si>
+    <t>Guichard, David</t>
+  </si>
+  <si>
+    <t>Calculus: late transcendentals</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.whitman.edu/mathematics/multivariable/multivariable.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.whitman.edu/mathematics/calculus_online/" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.whitman.edu/mathematics/multivariable/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.whitman.edu/mathematics/multivariable_late/multivariable_late.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.whitman.edu/mathematics/calculus_late_online/" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.whitman.edu/mathematics/multivariable/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Math in Society</t>
+  </si>
+  <si>
+    <t>Lippman, David</t>
+  </si>
+  <si>
+    <t>Applied math</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.opentextbookstore.com/mathinsociety/current2.php?chapter=MathinSociety.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.opentextbookstore.com/mathinsociety/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Applied Discrete Structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beezer, Robert A. </t>
+  </si>
+  <si>
+    <t>Combinatorics&lt;br&gt;Recursion theory&lt;br&gt;Graph theory&lt;br&gt;Algebraic structures</t>
+  </si>
+  <si>
+    <t>Doerr, Al&lt;br&gt;Levasseur, Ken</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://discretemath.org/ads-latex/ads.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/ads/index-ads.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Combinatorics Through Guided Discovery</t>
+  </si>
+  <si>
+    <t>Combinatorics</t>
+  </si>
+  <si>
+    <t>Bogart, Kenneth P.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://bogart.openmathbooks.org/pdf/ctgd.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://bogart.openmathbooks.org/ctgd/ctgd.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.dartmouth.edu/news-resources/electronic/kpbogart/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://wstein.org/ent/ent_ko.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://wstein.org/ent/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Quaternion Algebras</t>
+  </si>
+  <si>
+    <t>Quaternions</t>
+  </si>
+  <si>
+    <t>Voight, John</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-030-56694-4.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-030-56694-4.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-030-56694-4" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mathematical Surprises</t>
+  </si>
+  <si>
+    <t>Ben-Ari, Mordechai</t>
+  </si>
+  <si>
+    <t>Elementary math</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-13566-8.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/motib/suprises" target="_blank"&gt;Res&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-13566-8" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>High school</t>
+  </si>
+  <si>
+    <t>Number Fields</t>
+  </si>
+  <si>
+    <t>Keune, Frans</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://radbouduniversitypress.nl/site/books/10.54195/IPVU4488/download/9253/" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://radbouduniversitypress.nl/site/books/m/10.54195/IPVU4488/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Linear Partial Differential Equations and Fourier Theory</t>
+  </si>
+  <si>
+    <t>Pivato, Marcus</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://euclid.trentu.ca/pde/pde.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="http://euclid.trentu.ca/pde/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Design of Heuristic Algorithms for Hard Optimization: With Python Codes for the Travelling Salesman Problem</t>
+  </si>
+  <si>
+    <t>Taillard, Eric D.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-13714-3.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-13714-3.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-13714-3" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Topics in Complex Analysis</t>
+  </si>
+  <si>
+    <t>Complex analysis</t>
+  </si>
+  <si>
+    <t>Romik, Dan</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110796810/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110796810/epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110796810/html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Spectral Flow: A Functional Analytic and Index-Theoretic Approach</t>
+  </si>
+  <si>
+    <t>Doll, Nora&lt;br&gt;Schulz-Baldes, Hermann&lt;br&gt;Waterstraat, Nils</t>
+  </si>
+  <si>
+    <t>2023-12-10</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783111172477/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783111172477/epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783111172477/html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Differential equations&lt;br&gt;Applied math</t>
+  </si>
+  <si>
+    <t>Numerical methods</t>
+  </si>
+  <si>
+    <t>New Directions in Geometric and Applied Knot Theory</t>
+  </si>
+  <si>
+    <t>Reiter, Philipp&lt;br&gt;Blatt, Simon&lt;br&gt;Schikorra, Armin</t>
+  </si>
+  <si>
+    <t>Differential equations&lt;br&gt;Computational methods&lt;br&gt;Applied math</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Geometry&lt;br&gt;Topology</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110571493/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110571493/epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110571493/html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mathai, Arak M.&lt;br&gt;Haubold, Hans J.</t>
+  </si>
+  <si>
+    <t>Probability&lt;br&gt;Statistics</t>
+  </si>
+  <si>
+    <t>Probability and Statistics: A Course for Physicists and Engineers</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110562545/pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110562545/epub" target = "_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110562545/html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Linear Algebra: A Course for Physicists and Engineers</t>
+  </si>
+  <si>
+    <t>2023-12-11</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110562507/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110562507/epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110562507/html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Gainanov, Damir</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Applied math&lt;br&gt;Geometry&lt;br&gt;Topology</t>
+  </si>
+  <si>
+    <t>Graphs for Pattern Recognition: Infeasible Systems of Linear Inequalities</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110481068/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110481068/epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783110481068/html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Kant and Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>Kim, Hyeongjoo&lt;br&gt;Schönecker, Dieter</t>
+  </si>
+  <si>
+    <t>Prac</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110706611/pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110706611/epub" &gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110706611/html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>An Introduction to Nonlinear Optimization Theory</t>
+  </si>
+  <si>
+    <t>Durea, Marius&lt;br&gt;Strugariu, Radu</t>
+  </si>
+  <si>
+    <t>2023-12-16</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.degruyter.com/document/doi/10.2478/9783110426045/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.2478/9783110426045/epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.2478/9783110426045/html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Optimization</t>
+  </si>
+  <si>
+    <t>Introduction to Online Convex Optimization</t>
+  </si>
+  <si>
+    <t>Hazan, Elad</t>
+  </si>
+  <si>
+    <t>Hyperparameter Tuning for Machine and Deep Learning with R</t>
+  </si>
+  <si>
+    <t>Bartz, Eva&lt;br&gt;Bartz-Beielstein, Thomas&lt;br&gt;Zaefferer, Martin&lt;br&gt;Mersmann, Olaf</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-981-19-5170-1.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-981-19-5170-1.epub" target = "_blank" &gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-981-19-5170-1" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Statistical Foundations of Actuarial Learning and its Applications</t>
+  </si>
+  <si>
+    <t>Wüthrich, Mario V.&lt;br&gt;Merz, Michael</t>
+  </si>
+  <si>
+    <t>2023-12-15</t>
+  </si>
+  <si>
+    <t>Actuarial math&lt;br&gt;Applied math&lt;br&gt;Statistics</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-12409-9.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-12409-9.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-12409-9" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Random Differential Equations in Scientific Computing</t>
+  </si>
+  <si>
+    <t>Differential equations&lt;br&gt;Applied math&lt;br&gt;Probability</t>
+  </si>
+  <si>
+    <t>Neckel, Tobias&lt;br&gt;Rupp, Florian</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.degruyter.com/document/doi/10.2478/9788376560267/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.2478/9788376560267/html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CC BY-NC-ND 3.0 DEED</t>
+  </si>
+  <si>
+    <t>Computer Age Statistical Inference: Algorithms, Evidence and Data Science</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://hastie.su.domains/CASI_files/PDF/casi.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://hastie.su.domains/CASI/index.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Architecture of Advanced Numerical Analysis Systems: Designing a Scientific Computing System using OCaml</t>
+  </si>
+  <si>
+    <t>Wang, Liang&lt;br&gt; Zhao, Jianxin</t>
+  </si>
+  <si>
+    <t>Scientific computing</t>
+  </si>
+  <si>
+    <t>Undergrad&lt;br&gt;Pract</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-1-4842-8853-5.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-1-4842-8853-5.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-1-4842-8853-5" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-33386-6.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-33386-6.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-33386-6" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Fairness and Machine Learning: Limitations and Opportunities</t>
+  </si>
+  <si>
+    <t>Barocas, Solon&lt;br&gt;Hardt, Moritz&lt;br&gt;Narayanan, Arvind</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://fairmlbook.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://arxiv.org/pdf/1909.05207.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/view/intro-oco/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Principles of Deep Learning Theory: An Effective Theory Approach to Understanding Neural Networks</t>
+  </si>
+  <si>
+    <t>Roberts, Daniel A.&lt;br&gt;Yaida, Sho&lt;br&gt;Hanin, Boris</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://arxiv.org/pdf/2106.10165.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://arxiv.org/abs/2106.10165" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>2023-12-22</t>
+  </si>
+  <si>
+    <t>Algorithms for Sparse Linear Systems</t>
+  </si>
+  <si>
+    <t>Linear algebra&lt;br&gt;Numerical analysis</t>
+  </si>
+  <si>
+    <t>Scott, Jennifer&lt;br&gt;Tůma, Miroslav</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://link.springer.com/content/pdf/10.1007/978-3-031-25820-6.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/download/epub/10.1007/978-3-031-25820-6.epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-25820-6" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mathematical Discovery</t>
+  </si>
+  <si>
+    <t>Bruckner, Andrew M.&lt;br&gt;Thomson, Brian S.&lt;br&gt;Bruckner, Judith B.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://classicalrealanalysis.info/com/documents/BTB-colorA.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://classicalrealanalysis.info/com/Mathematical-Discovery.php" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Cryptography</t>
+  </si>
+  <si>
+    <t>Linear Algebra Done Wrong</t>
+  </si>
+  <si>
+    <t>Treil. Sergei</t>
+  </si>
+  <si>
+    <t>Applied Combinatorics</t>
+  </si>
+  <si>
+    <t>Keller, Mitchel T.&lt;br&gt;Trotter, William T.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.math.brown.edu/~treil/papers/LADW/LADW_2021_01-11.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://sites.google.com/a/brown.edu/sergei-treil-homepage/linear-algebra-done-wrong" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.appliedcombinatorics.org/book/app-comb.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.appliedcombinatorics.org/appcomb/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bayesian Methods for Statistical Analysis</t>
+  </si>
+  <si>
+    <t>Efron, Bradley&lt;br&gt;Hastie, Trevor</t>
+  </si>
+  <si>
+    <t>Borek, Puza</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://press-files.anu.edu.au/downloads/press/n1652/pdf/book.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://press.anu.edu.au/publications/bayesian-methods-statistical-analysis" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Real Harmonic Analysis</t>
+  </si>
+  <si>
+    <t>Auscher, Pascal&lt;br&gt;Bandara, Lashi</t>
+  </si>
+  <si>
+    <t>Real Analysis&lt;br&gt;Partial differential equations</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://press-files.anu.edu.au/downloads/press/n1666/pdf/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://press.anu.edu.au/publications/real-harmonic-analysis" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A First Course in Complex Analysis</t>
+  </si>
+  <si>
+    <t>Beck, Matthias&lt;br&gt;Marchesi, Gerald&lt;br&gt;Pixton, Dennis&lt;br&gt;Sabalka, Lucas</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://matthbeck.github.io/papers/complexorth.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://matthbeck.github.io/papers/complex.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://matthbeck.github.io/complex.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to
+Modern Statistics</t>
+  </si>
+  <si>
+    <t>Çetinkaya-Rundel, Mine&lt;br&gt;Hardin, Johanna</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://openintro-ims.netlify.app/" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/OpenIntroStat/ims/tree/ims1" target = "_blank"&gt;Sources&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.openintro.org/book/ims/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Geometry with an Introduction to Cosmic Topology</t>
+  </si>
+  <si>
+    <t>Geometry&lt;br&gt;Topology</t>
+  </si>
+  <si>
+    <t>Hitchman, Michael P.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://mphitchman.github.io/geometry/GCTprint.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://mphitchman.github.io/geometry/GCTscreen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://mphitchman.com/geometry/frontmatter.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://mphitchman.com/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -1808,21 +2217,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.1640625" customWidth="1"/>
+    <col min="1" max="1" width="42.1640625" customWidth="1"/>
     <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1865,7 +2274,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1877,13 +2286,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -1912,65 +2321,300 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>417</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>294</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" t="s">
         <v>297</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>296</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>298</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>300</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>295</v>
+      <c r="I7" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>397</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>408</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" t="s">
+        <v>411</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>412</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J9" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>416</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>455</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>292</v>
+      </c>
+      <c r="D11" t="s">
+        <v>451</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>457</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>505</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J12" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>292</v>
+      </c>
+      <c r="D13" t="s">
+        <v>511</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>514</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>512</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>515</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1984,10 +2628,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1997,7 +2641,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2049,13 +2693,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2075,16 +2719,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2101,19 +2745,19 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2133,13 +2777,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -2168,12 +2812,12 @@
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2182,7 +2826,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -2191,13 +2835,71 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>418</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>419</v>
+      </c>
+      <c r="D9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>421</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>428</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>429</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J10" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2208,17 +2910,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2255,45 +2960,45 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>185</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D3" t="s">
-        <v>186</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>187</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2302,44 +3007,56 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" t="s">
         <v>251</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>252</v>
       </c>
-      <c r="D5" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>254</v>
+      <c r="I5" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2348,10 +3065,133 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>399</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>402</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>403</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D9" t="s">
+        <v>431</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>432</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>482</v>
+      </c>
+      <c r="D10" t="s">
+        <v>483</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J10" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2361,7 +3201,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2372,7 +3212,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2409,31 +3249,31 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>371</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2443,10 +3283,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2456,7 +3296,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2493,16 +3333,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -2511,27 +3351,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -2540,10 +3380,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -2551,31 +3391,60 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>267</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>267</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
         <v>268</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>269</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="J5" t="s">
-        <v>270</v>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>531</v>
+      </c>
+      <c r="D6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>533</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2589,7 +3458,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2601,7 +3470,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2638,248 +3507,248 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" t="s">
         <v>157</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>158</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" t="s">
         <v>159</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>160</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J3" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>162</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" t="s">
         <v>159</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>166</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>168</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>170</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="I6" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J6" t="s">
         <v>159</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>172</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>173</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" t="s">
         <v>159</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>176</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" t="s">
         <v>159</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J8" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>179</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>180</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
         <v>159</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J9" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>182</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" t="s">
         <v>159</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>278</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>280</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>282</v>
-      </c>
       <c r="D11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2888,13 +3757,13 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2905,10 +3774,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2919,7 +3788,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2956,80 +3825,138 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" t="s">
-        <v>40</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" t="s">
         <v>196</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
         <v>197</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>199</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>285</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>287</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" t="s">
+        <v>434</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>435</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>470</v>
+      </c>
+      <c r="D7" t="s">
+        <v>467</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>469</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3040,17 +3967,20 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3087,17 +4017,17 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="D3" t="s">
         <v>277</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="D3" t="s">
-        <v>279</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -3105,36 +4035,183 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>278</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>440</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>448</v>
+      </c>
+      <c r="D4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>450</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" t="s">
+        <v>458</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>461</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>480</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="D8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
+        <v>152</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J8" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3169,74 +4246,74 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
         <v>43</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>242</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -3244,23 +4321,131 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D6" t="s">
+        <v>451</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>454</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>452</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>487</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>516</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>519</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>452</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>529</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J9" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D4303-C318-9243-91F0-9D29FB74C205}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3271,7 +4456,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3308,13 +4493,13 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3323,13 +4508,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
         <v>123</v>
       </c>
-      <c r="H3" t="s">
-        <v>124</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -3337,43 +4522,43 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>51</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
         <v>52</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>53</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D5" t="s">
         <v>259</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" t="s">
-        <v>261</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -3381,10 +4566,97 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="J5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D6" t="s">
+        <v>438</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>439</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>520</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>522</v>
+      </c>
+      <c r="D7" t="s">
+        <v>521</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" t="s">
+        <v>523</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="J7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>524</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>526</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -3398,14 +4670,14 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3442,17 +4714,17 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
         <v>349</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" t="s">
-        <v>351</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -3460,39 +4732,39 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
         <v>109</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>110</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -3500,28 +4772,28 @@
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>226</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>228</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -3537,7 +4809,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3548,7 +4820,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3585,16 +4857,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>273</v>
-      </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3603,52 +4875,98 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>426</v>
+      </c>
+      <c r="H6" t="s">
+        <v>425</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>424</v>
+      </c>
+      <c r="D7" t="s">
+        <v>507</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>426</v>
+      </c>
+      <c r="H7" t="s">
+        <v>508</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>501</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
@@ -3738,6 +5056,7 @@
       <c r="A36" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3754,7 +5073,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3764,10 +5083,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893C98B-CBC4-7246-B032-90C8B1A2697A}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3778,7 +5097,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3815,42 +5134,42 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3859,24 +5178,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3885,234 +5204,329 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E6" t="s">
         <v>220</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" t="s">
-        <v>222</v>
-      </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" t="s">
         <v>64</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>65</v>
       </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>66</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>500</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC12F66-7D6E-B749-8951-4A7A989FC3AD}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>496</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4122,10 +5536,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF6137D-0C53-C045-9269-910480ECA323}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4137,7 +5551,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4174,17 +5588,17 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
         <v>90</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -4192,50 +5606,50 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" t="s">
         <v>79</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H4" t="s">
-        <v>80</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4244,24 +5658,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4270,134 +5684,134 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" t="s">
         <v>99</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
         <v>100</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
         <v>68</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>123</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10" t="s">
         <v>102</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>103</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J10" t="s">
         <v>104</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -4406,149 +5820,149 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>93</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
         <v>111</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" t="s">
-        <v>112</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>77</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>78</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
         <v>84</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
         <v>85</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" t="s">
-        <v>86</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J16" t="s">
         <v>30</v>
@@ -4556,188 +5970,188 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
         <v>71</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>72</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>89</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H19" t="s">
         <v>55</v>
       </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>195</v>
-      </c>
-      <c r="H19" t="s">
-        <v>56</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="I20" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J20" t="s">
         <v>58</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
         <v>97</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D21" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>98</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" t="s">
         <v>94</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
         <v>95</v>
       </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>96</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
@@ -4745,94 +6159,150 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
         <v>106</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
+      <c r="I24" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J24" t="s">
         <v>107</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J24" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>75</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>76</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="H26" t="s">
-        <v>63</v>
-      </c>
       <c r="I26" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J26" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" t="s">
+        <v>497</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H28" t="s">
+        <v>475</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J28" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4847,7 +6317,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4867,7 +6337,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4904,28 +6374,28 @@
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>83</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4945,7 +6415,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -4963,7 +6433,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -4983,7 +6453,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -5003,7 +6473,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5013,17 +6483,20 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5060,57 +6533,84 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>116</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>117</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>118</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>119</v>
       </c>
-      <c r="H3" t="s">
-        <v>120</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>114</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>115</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>462</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>464</v>
+      </c>
+      <c r="H5" t="s">
+        <v>465</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="J5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5127,7 +6627,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -5147,7 +6647,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -5167,7 +6667,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5204,31 +6704,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" t="s">
         <v>290</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>291</v>
       </c>
-      <c r="D3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>293</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -5246,7 +6746,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5270,7 +6770,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5307,42 +6807,42 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="D3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" t="s">
         <v>245</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" t="s">
-        <v>247</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -5351,24 +6851,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5377,28 +6877,28 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>331</v>
+      </c>
+      <c r="D6" t="s">
         <v>333</v>
       </c>
-      <c r="D6" t="s">
-        <v>335</v>
-      </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
@@ -5406,120 +6906,120 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>334</v>
       </c>
-      <c r="D7" t="s">
+      <c r="I7" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J7" t="s">
         <v>338</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>336</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>346</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>334</v>
-      </c>
-      <c r="D8" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>348</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D9" t="s">
+        <v>356</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>357</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J9" t="s">
         <v>354</v>
-      </c>
-      <c r="D9" t="s">
-        <v>358</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>359</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J9" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>359</v>
+      </c>
+      <c r="D10" t="s">
         <v>360</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>361</v>
       </c>
-      <c r="D10" t="s">
-        <v>362</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>363</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -5527,28 +7027,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>352</v>
+      </c>
+      <c r="D11" t="s">
+        <v>379</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>380</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" t="s">
-        <v>381</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>382</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5573,7 +7073,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5610,278 +7110,278 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H3" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J4" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" t="s">
+        <v>311</v>
+      </c>
+      <c r="H6" t="s">
         <v>319</v>
       </c>
-      <c r="F6" t="s">
-        <v>313</v>
-      </c>
-      <c r="H6" t="s">
-        <v>321</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="D7" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" t="s">
+        <v>311</v>
+      </c>
+      <c r="H7" t="s">
         <v>320</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" t="s">
-        <v>312</v>
-      </c>
-      <c r="E7" t="s">
-        <v>319</v>
-      </c>
-      <c r="F7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H7" t="s">
-        <v>322</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D9" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H9" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H10" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J10" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D12" t="s">
         <v>342</v>
       </c>
-      <c r="D12" t="s">
-        <v>344</v>
-      </c>
       <c r="E12" t="s">
         <v>13</v>
       </c>
@@ -5889,39 +7389,39 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="D13" t="s">
         <v>353</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="D13" t="s">
-        <v>355</v>
-      </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H13" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5946,7 +7446,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5983,16 +7483,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6001,13 +7501,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>396</v>
+        <v>493</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6017,17 +7517,75 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A55B510-3199-044D-80D5-14C3D6A5F0A4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>305</v>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>488</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>490</v>
+      </c>
+      <c r="D3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F3" t="s">
+        <v>491</v>
+      </c>
+      <c r="H3" t="s">
+        <v>492</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="J3" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -6047,7 +7605,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6067,7 +7625,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6104,28 +7662,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>381</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" t="s">
         <v>383</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>384</v>
       </c>
-      <c r="D3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>386</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242955BE-E07D-DE4F-A22A-EA73619498C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BC91CF-88A4-A94A-8B40-0146D27F97FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="8" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="0" windowWidth="19840" windowHeight="21600" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="581">
   <si>
     <t>Title</t>
   </si>
@@ -618,9 +618,6 @@
   </si>
   <si>
     <t>Calculus</t>
-  </si>
-  <si>
-    <t>Strand, Gilbert</t>
   </si>
   <si>
     <t>&lt;a href="https://ocw.mit.edu/courses/res-18-001-calculus-fall-2023/mitres_18_001_f17_full_book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://ocw.mit.edu/courses/res-18-001-calculus-fall-2023/" target="_blank"&gt;Site&lt;/a&gt;</t>
@@ -1385,9 +1382,6 @@
     <t>Doerr, Al&lt;br&gt;Levasseur, Ken</t>
   </si>
   <si>
-    <t>&lt;a href="http://discretemath.org/ads-latex/ads.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/ads/index-ads.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Combinatorics Through Guided Discovery</t>
   </si>
   <si>
@@ -1673,9 +1667,6 @@
     <t>Bruckner, Andrew M.&lt;br&gt;Thomson, Brian S.&lt;br&gt;Bruckner, Judith B.</t>
   </si>
   <si>
-    <t>&lt;a href="http://classicalrealanalysis.info/com/documents/BTB-colorA.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://classicalrealanalysis.info/com/Mathematical-Discovery.php" target="_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Applied math&lt;br&gt;Cryptography</t>
   </si>
   <si>
@@ -1730,16 +1721,9 @@
     <t>&lt;a href="https://matthbeck.github.io/papers/complexorth.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://matthbeck.github.io/papers/complex.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://matthbeck.github.io/complex.html" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Introduction to
-Modern Statistics</t>
-  </si>
-  <si>
     <t>Çetinkaya-Rundel, Mine&lt;br&gt;Hardin, Johanna</t>
   </si>
   <si>
-    <t>&lt;a href = "https://openintro-ims.netlify.app/" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/OpenIntroStat/ims/tree/ims1" target = "_blank"&gt;Sources&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.openintro.org/book/ims/" target = "_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Geometry with an Introduction to Cosmic Topology</t>
   </si>
   <si>
@@ -1750,6 +1734,162 @@
   </si>
   <si>
     <t>&lt;a href="https://mphitchman.github.io/geometry/GCTprint.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://mphitchman.github.io/geometry/GCTscreen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://mphitchman.com/geometry/frontmatter.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://mphitchman.com/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://openintro-ims.netlify.app/" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/OpenIntroStat/ims" target = "_blank"&gt;Sources&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.openintro.org/book/ims/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A Graduate Course in Applied Cryptography</t>
+  </si>
+  <si>
+    <t>Boneh, Dan&lt;br&gt;Shoup, Victor</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://toc.cryptobook.us/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://toc.cryptobook.us/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Modern Statistics</t>
+  </si>
+  <si>
+    <t>Forecasting: Principles and Practice</t>
+  </si>
+  <si>
+    <t>Hyndman, Rob J.&lt;br&gt;Athanasopoulos, George</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Statistics</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://otexts.com/fpp3/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Think Bayes: Bayesian Statistics Made Simple</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://allendowney.github.io/ThinkBayes2/" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/AllenDowney/ThinkBayes2" target = "_blank"&gt;Sources&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Downey, Allen B.</t>
+  </si>
+  <si>
+    <t>Computational methods&lt;br&gt;Statistics</t>
+  </si>
+  <si>
+    <t>Handbook of Applied Cryptography</t>
+  </si>
+  <si>
+    <t>Menezes, Alfred J.&lt;br&gt;van Oorschot, Paul C.&lt;br&gt;Vanstone, Scott A.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://cacr.uwaterloo.ca/hac/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Number Theory: In Context and Interactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crisman, Karl-Dieter </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://math.gordon.edu/ntic/ntic/frontmatter-1.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://math.gordon.edu/ntic/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>CC BY-ND 4.0 DEED</t>
+  </si>
+  <si>
+    <t>Tea Time Numerical Analysis: Experiences in Mathematics</t>
+  </si>
+  <si>
+    <t>Brin,  Leon Q.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://github.com/lqbrin/tea-time-numerical/blob/master/TeaTimeNumericalAnalysis.pdf?raw=true" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://lqbrin.github.io/tea-time-numerical/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://maa.org/press/maa-reviews/tea-time-numerical-analysis" target="_blank"&gt;Ext&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Book of Proof</t>
+  </si>
+  <si>
+    <t>Hammack, Richard</t>
+  </si>
+  <si>
+    <t>Proof theory</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.people.vcu.edu/~rhammack/BookOfProof/Translations/Turkish/Turkish.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.people.vcu.edu/~rhammack/BookOfProof/Translations/Turkish/Turkish.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.people.vcu.edu/~rhammack/BookOfProof/Main.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.people.vcu.edu/~rhammack/BookOfProof/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Notes on Diffy Qs: Differential Equations for Engineers</t>
+  </si>
+  <si>
+    <t>Lebl, Jiří</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.jirka.org/diffyqs/diffyqs.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.jirka.org/diffyqs/html/diffyqs.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://youtube.com/playlist?list=PLRfQb6m35rf5E7QllafnyOXD0tHHI_N9E" target="_blank"&gt;Videos&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.jirka.org/diffyqs/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Marsden, Jerrold E.&lt;br&gt;Weinstein, Alan J.</t>
+  </si>
+  <si>
+    <t>Calculus I</t>
+  </si>
+  <si>
+    <t>Calculus II</t>
+  </si>
+  <si>
+    <t>Calculus III</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://authors.library.caltech.edu/records/00arw-c5851" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://authors.library.caltech.edu/records/hb74n-f9x09" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://authors.library.caltech.edu/records/rg25s-crx26" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Strang, Gilbert</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://scholarworks.gvsu.edu/cgi/viewcontent.cgi?article=1024&amp;context=books" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/playlist?list=PL2419488168AE7001" target="_blank"&gt;Videos&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.tedsundstrom.com/mathematical-reasoning-3" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/24/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>How We Got from There to Here: A Story of Real Analysis</t>
+  </si>
+  <si>
+    <t>History of math</t>
+  </si>
+  <si>
+    <t>Boman, Eugene&lt;br&gt;Rogers, Robert</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://knightscholar.geneseo.edu/cgi/viewcontent.cgi?article=1019&amp;context=oer-ost" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://ecb5.github.io/ASORA/ASORA-2.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://milneopentextbooks.org/how-we-got-from-there-to-here-a-story-of-real-analysis/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Differential Calculus: From Practice to Theory</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://knightscholar.geneseo.edu/cgi/viewcontent.cgi?article=1031&amp;context=oer-ost" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://milneopentextbooks.org/differential-calculus-from-practice-to-theory/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A Computational Introduction to Number Theory and Algebra</t>
+  </si>
+  <si>
+    <t>Algebra&lt;br&gt;Computational methods&lt;br&gt;Number theory</t>
+  </si>
+  <si>
+    <t>Shoup, Victor</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://shoup.net/ntb/ntb-v2.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://shoup.net/ntb/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://discretemath.org/ads-latex/ads.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/ads/index-ads.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/klevasseur/ads" target="_blank"&gt;Sources&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2217,10 +2357,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2231,7 +2371,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2286,10 +2426,10 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>120</v>
@@ -2321,7 +2461,7 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>121</v>
@@ -2344,7 +2484,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -2353,7 +2493,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>121</v>
@@ -2364,98 +2504,98 @@
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D6" t="s">
+        <v>283</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>293</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D6" t="s">
-        <v>284</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>294</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" t="s">
         <v>296</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="D7" t="s">
-        <v>297</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>298</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>291</v>
+      </c>
+      <c r="D8" t="s">
+        <v>408</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>396</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>292</v>
-      </c>
-      <c r="D8" t="s">
-        <v>409</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>397</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="J8" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
+        <v>409</v>
+      </c>
+      <c r="D9" t="s">
         <v>410</v>
       </c>
-      <c r="D9" t="s">
-        <v>411</v>
-      </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
@@ -2463,68 +2603,68 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>412</v>
+        <v>580</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>412</v>
+      </c>
+      <c r="D10" t="s">
         <v>413</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>414</v>
       </c>
-      <c r="D10" t="s">
-        <v>415</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>416</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>453</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" t="s">
+        <v>449</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>455</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D11" t="s">
-        <v>451</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>457</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J11" t="s">
         <v>58</v>
@@ -2532,28 +2672,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D12" t="s">
         <v>502</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>503</v>
       </c>
-      <c r="D12" t="s">
-        <v>504</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>505</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J12" t="s">
         <v>159</v>
@@ -2561,60 +2701,89 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D13" t="s">
+        <v>508</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>511</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>514</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J13" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>412</v>
+      </c>
+      <c r="D14" t="s">
+        <v>510</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>512</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>414</v>
-      </c>
-      <c r="D14" t="s">
-        <v>513</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>515</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J14" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>545</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>546</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>547</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J15" t="s">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +2810,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2722,13 +2891,13 @@
         <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>121</v>
       </c>
       <c r="J4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2751,13 +2920,13 @@
         <v>122</v>
       </c>
       <c r="H5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="J5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2817,7 +2986,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2826,36 +2995,36 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>273</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>274</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" t="s">
         <v>418</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>419</v>
-      </c>
-      <c r="D9" t="s">
-        <v>420</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2864,10 +3033,10 @@
         <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -2875,7 +3044,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -2884,7 +3053,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2893,10 +3062,10 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J10" t="s">
         <v>58</v>
@@ -2910,10 +3079,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2923,7 +3092,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2969,16 +3138,16 @@
         <v>183</v>
       </c>
       <c r="D3" t="s">
+        <v>568</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>185</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>161</v>
@@ -2989,94 +3158,94 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>252</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>253</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s">
-        <v>251</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>254</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>249</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>250</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>251</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>252</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D6" t="s">
+        <v>250</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>255</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D6" t="s">
-        <v>251</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>256</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -3085,7 +3254,7 @@
         <v>183</v>
       </c>
       <c r="D7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -3094,18 +3263,18 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3114,7 +3283,7 @@
         <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3123,39 +3292,39 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" t="s">
+        <v>429</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>430</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D9" t="s">
-        <v>431</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>432</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
@@ -3163,16 +3332,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+      <c r="D10" t="s">
         <v>481</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>482</v>
-      </c>
-      <c r="D10" t="s">
-        <v>483</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -3181,13 +3350,178 @@
         <v>122</v>
       </c>
       <c r="H10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J10" t="s">
-        <v>485</v>
+        <v>483</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>438</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D11" t="s">
+        <v>439</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="J11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" t="s">
+        <v>559</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>560</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>562</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>183</v>
+      </c>
+      <c r="D13" t="s">
+        <v>561</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>565</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>563</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" t="s">
+        <v>561</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>566</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>564</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" t="s">
+        <v>561</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>567</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>574</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" t="s">
+        <v>572</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>575</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J16" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3212,7 +3546,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3267,7 +3601,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>121</v>
@@ -3285,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF062A24-FE03-924A-8044-321665F33867}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -3296,7 +3630,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3333,17 +3667,17 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" t="s">
         <v>260</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -3351,10 +3685,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
         <v>154</v>
@@ -3362,16 +3696,16 @@
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3380,10 +3714,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -3391,45 +3725,45 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>264</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
         <v>265</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>266</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J5" t="s">
         <v>267</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J5" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D6" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3438,10 +3772,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -3455,22 +3789,22 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7317D5C-0833-9C49-910D-501B8A37D6EA}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.1640625" customWidth="1"/>
-    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3739,17 +4073,17 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D11" t="s">
         <v>278</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D11" t="s">
-        <v>279</v>
-      </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
@@ -3757,13 +4091,100 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J11" t="s">
         <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>555</v>
+      </c>
+      <c r="D12" t="s">
+        <v>554</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>557</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>553</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D13" t="s">
+        <v>554</v>
+      </c>
+      <c r="E13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>556</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>555</v>
+      </c>
+      <c r="D14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>569</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J14" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3788,7 +4209,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3851,16 +4272,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>194</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>195</v>
-      </c>
-      <c r="D4" t="s">
-        <v>196</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3869,62 +4290,62 @@
         <v>122</v>
       </c>
       <c r="H4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D5" t="s">
         <v>283</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>284</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>285</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>431</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" t="s">
+        <v>432</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>433</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D6" t="s">
-        <v>434</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>435</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J6" t="s">
         <v>159</v>
@@ -3932,28 +4353,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7" t="s">
+        <v>465</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>467</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>466</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>470</v>
-      </c>
-      <c r="D7" t="s">
-        <v>467</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>469</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>468</v>
       </c>
       <c r="J7" t="s">
         <v>58</v>
@@ -3967,10 +4388,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3980,7 +4401,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4017,57 +4438,57 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>372</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J3" t="s">
         <v>275</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="D3" t="s">
-        <v>277</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>373</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J3" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>447</v>
+      </c>
+      <c r="D4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>448</v>
       </c>
-      <c r="D4" t="s">
-        <v>441</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>443</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>396</v>
+        <v>454</v>
       </c>
       <c r="J4" t="s">
         <v>58</v>
@@ -4075,16 +4496,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D5" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4093,10 +4514,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
       <c r="J5" t="s">
         <v>58</v>
@@ -4104,16 +4525,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
       <c r="D6" t="s">
-        <v>458</v>
+        <v>475</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4122,27 +4543,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>461</v>
+        <v>478</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>476</v>
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>479</v>
+      <c r="C7" s="2" t="s">
+        <v>506</v>
       </c>
       <c r="D7" t="s">
-        <v>477</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -4151,42 +4572,152 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>480</v>
+        <v>152</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>478</v>
+        <v>153</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>150</v>
+      <c r="A8" t="s">
+        <v>530</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
+        <v>531</v>
       </c>
       <c r="F8" t="s">
         <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>152</v>
+        <v>532</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J8" t="s">
-        <v>154</v>
+        <v>499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>534</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" t="s">
+        <v>535</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>537</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="D10" t="s">
+        <v>543</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>544</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D11" t="s">
+        <v>550</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>552</v>
+      </c>
+      <c r="H11" t="s">
+        <v>551</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="D12" t="s">
+        <v>578</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>579</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J12" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -4197,10 +4728,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I9" sqref="I9:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4211,7 +4742,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4303,7 +4834,7 @@
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -4312,7 +4843,7 @@
         <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4321,50 +4852,50 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" t="s">
+        <v>449</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>452</v>
       </c>
-      <c r="D6" t="s">
-        <v>451</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>454</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -4373,50 +4904,50 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>450</v>
+      </c>
+      <c r="D8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>516</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>452</v>
-      </c>
-      <c r="D8" t="s">
-        <v>518</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>519</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -4428,10 +4959,39 @@
         <v>529</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J9" t="s">
-        <v>338</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>538</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D10" t="s">
+        <v>540</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>539</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="J10" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4456,7 +5016,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4548,17 +5108,17 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>257</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>258</v>
       </c>
-      <c r="D5" t="s">
-        <v>259</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -4566,27 +5126,27 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D6" t="s">
         <v>436</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>437</v>
-      </c>
-      <c r="D6" t="s">
-        <v>438</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4595,10 +5155,10 @@
         <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J6" t="s">
         <v>58</v>
@@ -4606,16 +5166,16 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="D7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -4624,10 +5184,10 @@
         <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="J7" t="s">
         <v>58</v>
@@ -4635,16 +5195,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -4653,10 +5213,10 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
   </sheetData>
@@ -4677,7 +5237,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4714,31 +5274,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>349</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" t="s">
         <v>347</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" t="s">
-        <v>349</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>350</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J3" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
@@ -4772,28 +5332,28 @@
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>225</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="I5" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -4809,7 +5369,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4820,7 +5380,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -4857,17 +5417,17 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D3" t="s">
         <v>269</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" t="s">
-        <v>270</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -4875,39 +5435,65 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>570</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>571</v>
+      </c>
+      <c r="D4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>286</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D5" t="s">
         <v>404</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>406</v>
       </c>
-      <c r="D5" t="s">
-        <v>405</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>407</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -4915,28 +5501,28 @@
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>422</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>421</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>424</v>
       </c>
-      <c r="D6" t="s">
+      <c r="H6" t="s">
         <v>423</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>426</v>
-      </c>
-      <c r="H6" t="s">
-        <v>425</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J6" t="s">
         <v>159</v>
@@ -4944,28 +5530,31 @@
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>422</v>
+      </c>
+      <c r="D7" t="s">
+        <v>505</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
         <v>424</v>
       </c>
-      <c r="D7" t="s">
-        <v>507</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>426</v>
-      </c>
       <c r="H7" t="s">
-        <v>508</v>
+        <v>573</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>501</v>
+        <v>499</v>
+      </c>
+      <c r="J7" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5073,7 +5662,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -5097,7 +5686,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5169,24 +5758,24 @@
         <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>281</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>282</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
@@ -5195,7 +5784,7 @@
         <v>130</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5204,10 +5793,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -5215,7 +5804,7 @@
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -5224,19 +5813,19 @@
         <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>220</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>221</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -5244,7 +5833,7 @@
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -5253,19 +5842,19 @@
         <v>130</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
@@ -5273,7 +5862,7 @@
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -5282,19 +5871,19 @@
         <v>130</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
@@ -5302,7 +5891,7 @@
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -5311,19 +5900,19 @@
         <v>130</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
@@ -5331,7 +5920,7 @@
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -5340,19 +5929,19 @@
         <v>130</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J10" t="s">
         <v>36</v>
@@ -5360,7 +5949,7 @@
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -5369,19 +5958,19 @@
         <v>130</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
@@ -5418,7 +6007,7 @@
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -5427,19 +6016,19 @@
         <v>130</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>498</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>500</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -5465,7 +6054,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5502,7 +6091,7 @@
     </row>
     <row r="3" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -5511,7 +6100,7 @@
         <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5520,7 +6109,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>121</v>
@@ -5538,8 +6127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF6137D-0C53-C045-9269-910480ECA323}">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="B3" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5551,7 +6140,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5606,7 +6195,7 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>121</v>
@@ -5658,7 +6247,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>121</v>
@@ -5684,7 +6273,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>121</v>
@@ -5710,7 +6299,7 @@
         <v>122</v>
       </c>
       <c r="H7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>121</v>
@@ -5820,7 +6409,7 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>121</v>
@@ -5904,7 +6493,7 @@
         <v>122</v>
       </c>
       <c r="H14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>121</v>
@@ -5979,7 +6568,7 @@
         <v>130</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -6043,7 +6632,7 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H19" t="s">
         <v>55</v>
@@ -6141,7 +6730,7 @@
     </row>
     <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
@@ -6150,7 +6739,7 @@
         <v>130</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -6159,7 +6748,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6248,7 +6837,7 @@
     </row>
     <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -6257,7 +6846,7 @@
         <v>130</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -6266,15 +6855,15 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -6283,7 +6872,7 @@
         <v>130</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -6292,10 +6881,10 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J28" t="s">
         <v>159</v>
@@ -6317,7 +6906,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -6337,7 +6926,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6415,7 +7004,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -6433,7 +7022,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -6453,7 +7042,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -6473,7 +7062,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -6496,7 +7085,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6585,25 +7174,25 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>460</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>462</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>463</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>464</v>
-      </c>
-      <c r="H5" t="s">
-        <v>465</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="J5" t="s">
         <v>58</v>
@@ -6627,7 +7216,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -6647,7 +7236,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -6667,7 +7256,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6704,28 +7293,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>288</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>289</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>290</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>291</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J3" t="s">
         <v>159</v>
@@ -6746,7 +7335,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6770,7 +7359,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6807,16 +7396,16 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" t="s">
         <v>242</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" t="s">
-        <v>243</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6825,25 +7414,25 @@
         <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>331</v>
+      </c>
+      <c r="D4" t="s">
         <v>246</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>332</v>
-      </c>
-      <c r="D4" t="s">
-        <v>247</v>
-      </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
@@ -6851,25 +7440,25 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>331</v>
+      </c>
+      <c r="D5" t="s">
         <v>327</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>332</v>
-      </c>
-      <c r="D5" t="s">
-        <v>328</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -6877,10 +7466,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -6888,16 +7477,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
         <v>330</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>331</v>
-      </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -6906,25 +7495,25 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>331</v>
+      </c>
+      <c r="D7" t="s">
         <v>335</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D7" t="s">
-        <v>336</v>
-      </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
@@ -6932,94 +7521,94 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>331</v>
+      </c>
+      <c r="D8" t="s">
         <v>344</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>345</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>346</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>351</v>
+      </c>
+      <c r="D9" t="s">
         <v>355</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>356</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>357</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>357</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>358</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>359</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>360</v>
       </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>361</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -7027,28 +7616,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>377</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D11" t="s">
         <v>378</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>352</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>379</v>
       </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>380</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7062,7 +7651,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7073,7 +7662,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7110,318 +7699,318 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>310</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>311</v>
-      </c>
       <c r="H3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
         <v>310</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>311</v>
-      </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
         <v>310</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>311</v>
-      </c>
       <c r="H5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
         <v>316</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>310</v>
       </c>
-      <c r="E6" t="s">
-        <v>317</v>
-      </c>
-      <c r="F6" t="s">
-        <v>311</v>
-      </c>
       <c r="H6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F7" t="s">
         <v>310</v>
       </c>
-      <c r="E7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F7" t="s">
-        <v>311</v>
-      </c>
       <c r="H7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D8" t="s">
+        <v>309</v>
+      </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" t="s">
         <v>310</v>
       </c>
-      <c r="E8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" t="s">
-        <v>311</v>
-      </c>
       <c r="H8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J8" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>309</v>
+      </c>
+      <c r="E9" t="s">
+        <v>227</v>
+      </c>
+      <c r="F9" t="s">
+        <v>310</v>
+      </c>
+      <c r="H9" t="s">
         <v>323</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="D9" t="s">
-        <v>310</v>
-      </c>
-      <c r="E9" t="s">
-        <v>228</v>
-      </c>
-      <c r="F9" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" t="s">
-        <v>324</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D10" t="s">
+        <v>309</v>
+      </c>
+      <c r="E10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" t="s">
         <v>310</v>
       </c>
-      <c r="E10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F10" t="s">
-        <v>311</v>
-      </c>
       <c r="H10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D11" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F11" t="s">
         <v>310</v>
       </c>
-      <c r="E11" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" t="s">
-        <v>311</v>
-      </c>
       <c r="H11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>340</v>
-      </c>
       <c r="D12" t="s">
+        <v>341</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J12" t="s">
         <v>342</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>365</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="J12" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" t="s">
         <v>352</v>
       </c>
-      <c r="D13" t="s">
-        <v>353</v>
-      </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="H13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -7446,7 +8035,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7483,17 +8072,17 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
         <v>305</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="D3" t="s">
-        <v>306</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -7501,10 +8090,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
         <v>159</v>
@@ -7527,7 +8116,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7564,25 +8153,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>488</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>487</v>
+      </c>
+      <c r="F3" t="s">
+        <v>489</v>
+      </c>
+      <c r="H3" t="s">
         <v>490</v>
       </c>
-      <c r="D3" t="s">
-        <v>489</v>
-      </c>
-      <c r="F3" t="s">
-        <v>491</v>
-      </c>
-      <c r="H3" t="s">
-        <v>492</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="J3" t="s">
         <v>159</v>
@@ -7605,7 +8194,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -7625,7 +8214,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7662,28 +8251,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>381</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>382</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>383</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>384</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BC91CF-88A4-A94A-8B40-0146D27F97FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8130D4-4DEC-8F4C-B023-10396C1A0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="0" windowWidth="19840" windowHeight="21600" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17520" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="581">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="634">
   <si>
     <t>Title</t>
   </si>
@@ -197,9 +197,6 @@
     <t>&lt;a href="https://chance.dartmouth.edu/teaching_aids/books_articles/probability_book/amsbook.mac.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://chance.dartmouth.edu/teaching_aids/books_articles/probability_book/book.html" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>GNU Free Documentation License (FDL)</t>
-  </si>
-  <si>
     <t>Essentials of Stochastic Processes</t>
   </si>
   <si>
@@ -218,9 +215,6 @@
     <t>An introduction to measure theory</t>
   </si>
   <si>
-    <t>Measure</t>
-  </si>
-  <si>
     <t>Tao, Terence</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>The Quest for Artificial Intelligence: A History of Ideas and Achievements</t>
   </si>
   <si>
-    <t>History</t>
-  </si>
-  <si>
     <t>Nilsson, Nils J.</t>
   </si>
   <si>
@@ -443,9 +434,6 @@
     <t>Spanish</t>
   </si>
   <si>
-    <t>Linear and multilinear algebras&lt;br&gt;Matrix theory</t>
-  </si>
-  <si>
     <t>Discrete mathematics&lt;br&gt;Graph theory</t>
   </si>
   <si>
@@ -455,18 +443,6 @@
     <t>Grinstead, Charles M.&lt;br&gt;Snell, J. Laurie</t>
   </si>
   <si>
-    <t>Measure&lt;br&gt;Integration</t>
-  </si>
-  <si>
-    <t>Algorithms&lt;br&gt;Theory</t>
-  </si>
-  <si>
-    <t>Algorithms&lt;br&gt;Theory&lt;br&gt;Programming</t>
-  </si>
-  <si>
-    <t>Algorithms&lt;br&gt;Math&lt;br&gt;Theory</t>
-  </si>
-  <si>
     <t>Hardt, Moritz&lt;br&gt;Recht, Benjamin</t>
   </si>
   <si>
@@ -536,9 +512,6 @@
     <t>The Open Logic Text</t>
   </si>
   <si>
-    <t>Set theory&lt;br&gt;Propositional logic&lt;br&gt;First-order logic&lt;br&gt;Model theory&lt;br&gt;Computability&lt;br&gt;Turing machine&lt;br&gt;Incompleteness&lt;br&gt;Second-order logic&lt;br&gt;Lambda calculus&lt;br&gt;Many-valued logic&lt;br&gt;Normal modal logics&lt;br&gt;Intuitionistic logic&lt;br&gt;Counterfactuals</t>
-  </si>
-  <si>
     <t>The Open Logic Project contributors</t>
   </si>
   <si>
@@ -557,9 +530,6 @@
     <t>&lt;a href="https://slc.openlogicproject.org/slc-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://slc.openlogicproject.org" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Set theory&lt;br&gt;First-order logic&lt;br&gt;Turing machine</t>
-  </si>
-  <si>
     <t>forall x: Calgary: An Introduction to Formal Logic</t>
   </si>
   <si>
@@ -575,16 +545,10 @@
     <t>Incompleteness and Computability: An Open Introduction to Gödel’s Theorems</t>
   </si>
   <si>
-    <t>Incompleteness</t>
-  </si>
-  <si>
     <t>&lt;a href="https://ic.openlogicproject.org/ic-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://ic.openlogicproject.org" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Boxes and Diamonds: An Open Introduction toModal Logic</t>
-  </si>
-  <si>
-    <t>Normal modal logics&lt;br&gt;Intuitionistic logic&lt;br&gt;Counterfactuals</t>
   </si>
   <si>
     <t>&lt;a href="https://bd.openlogicproject.org/bd-screen.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://bd.openlogicproject.org" target="_blank"&gt;Site&lt;/a&gt;</t>
@@ -818,9 +782,6 @@
 Smola, Alexander J.</t>
   </si>
   <si>
-    <t>Algorithms&lt;br&gt;Data science&lt;br&gt;Theory</t>
-  </si>
-  <si>
     <t xml:space="preserve">Blum, Avrim&lt;br&gt;Hopcroft, John&lt;br&gt;Kannan, Ravindran </t>
   </si>
   <si>
@@ -1223,9 +1184,6 @@
     <t>Introduction to Compilers and Language Design</t>
   </si>
   <si>
-    <t>Programming languages&lt;br&gt;Compilers</t>
-  </si>
-  <si>
     <t>Thain, Douglas</t>
   </si>
   <si>
@@ -1376,9 +1334,6 @@
     <t xml:space="preserve">Beezer, Robert A. </t>
   </si>
   <si>
-    <t>Combinatorics&lt;br&gt;Recursion theory&lt;br&gt;Graph theory&lt;br&gt;Algebraic structures</t>
-  </si>
-  <si>
     <t>Doerr, Al&lt;br&gt;Levasseur, Ken</t>
   </si>
   <si>
@@ -1475,9 +1430,6 @@
     <t>&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783111172477/pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783111172477/epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.degruyter.com/document/doi/10.1515/9783111172477/html" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Differential equations&lt;br&gt;Applied math</t>
-  </si>
-  <si>
     <t>Numerical methods</t>
   </si>
   <si>
@@ -1487,9 +1439,6 @@
     <t>Reiter, Philipp&lt;br&gt;Blatt, Simon&lt;br&gt;Schikorra, Armin</t>
   </si>
   <si>
-    <t>Differential equations&lt;br&gt;Computational methods&lt;br&gt;Applied math</t>
-  </si>
-  <si>
     <t>Applied math&lt;br&gt;Geometry&lt;br&gt;Topology</t>
   </si>
   <si>
@@ -1589,9 +1538,6 @@
     <t>Random Differential Equations in Scientific Computing</t>
   </si>
   <si>
-    <t>Differential equations&lt;br&gt;Applied math&lt;br&gt;Probability</t>
-  </si>
-  <si>
     <t>Neckel, Tobias&lt;br&gt;Rupp, Florian</t>
   </si>
   <si>
@@ -1613,9 +1559,6 @@
     <t>Wang, Liang&lt;br&gt; Zhao, Jianxin</t>
   </si>
   <si>
-    <t>Scientific computing</t>
-  </si>
-  <si>
     <t>Undergrad&lt;br&gt;Pract</t>
   </si>
   <si>
@@ -1706,9 +1649,6 @@
     <t>Auscher, Pascal&lt;br&gt;Bandara, Lashi</t>
   </si>
   <si>
-    <t>Real Analysis&lt;br&gt;Partial differential equations</t>
-  </si>
-  <si>
     <t>&lt;a href="https://press-files.anu.edu.au/downloads/press/n1666/pdf/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://press.anu.edu.au/publications/real-harmonic-analysis" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -1890,6 +1830,225 @@
   </si>
   <si>
     <t>&lt;a href="http://discretemath.org/ads-latex/ads.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/ads/index-ads.html" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/klevasseur/ads" target="_blank"&gt;Sources&lt;/a&gt;&lt;br&gt;&lt;a href="https://discretemath.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Counting Rocks! An Introduction to Combinatorics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Adams, Henry&lt;br&gt;Emmrich, Kelly&lt;br&gt;Gillespie, Maria&lt;br&gt;Golden, Shannon&lt;br&gt;Pries, Rachel</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.mathematicalgemstones.com/maria/OER/CountingRocks-Nov2023.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/playlist?list=PL5J6K3znOvOmzBUoxlk-W0N4j7L1Y9yfW" target="_blank"&gt;Videos&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.mathematicalgemstones.com/maria/OER.php" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Compilers&lt;br&gt;Programming languages</t>
+  </si>
+  <si>
+    <t>Linear algebra&lt;br&gt;Matrix theory&lt;br&gt;Multilinear algebra</t>
+  </si>
+  <si>
+    <t>Algebraic structures&lt;br&gt;Combinatorics&lt;br&gt;Graph theory&lt;br&gt;Recursion theory</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Differential equations</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Differential equations&lt;br&gt;Probability</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Computational methods&lt;br&gt;Differential equations</t>
+  </si>
+  <si>
+    <t>Set theory&lt;br&gt;First-order logic&lt;br&gt;Turing machines</t>
+  </si>
+  <si>
+    <t>Computability&lt;br&gt;Counterfactuals&lt;br&gt;First-order logic&lt;br&gt;Incompleteness theory&lt;br&gt;Intuitionistic logic&lt;br&gt;Lambda calculus&lt;br&gt;Many-valued logic&lt;br&gt;Model theory&lt;br&gt;Normal modal logics&lt;br&gt;Propositional logic&lt;br&gt;Second-order logic&lt;br&gt;Set theory&lt;br&gt;Turing machines</t>
+  </si>
+  <si>
+    <t>Incompleteness theory</t>
+  </si>
+  <si>
+    <t>Counterfactuals&lt;br&gt;Intuitionistic logic&lt;br&gt;Normal modal logics</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Statistics</t>
+  </si>
+  <si>
+    <t>Measure theory&lt;br&gt;Integration theory</t>
+  </si>
+  <si>
+    <t>Measure theory</t>
+  </si>
+  <si>
+    <t>Partial differential equations&lt;br&gt;Real Analysis</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Deep learning theory</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Machine learning theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms&lt;br&gt;Machine learning theory&lt;br&gt;Responsible AI </t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Machine learning theory&lt;br&gt;Python</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Machine learning theory&lt;br&gt;R</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;NLP theory</t>
+  </si>
+  <si>
+    <t>History of AI</t>
+  </si>
+  <si>
+    <t>Quantum computing theory</t>
+  </si>
+  <si>
+    <t>Foundation Models for Natural Language Processing: Pre-trained Language Models Integrating Media</t>
+  </si>
+  <si>
+    <t>Paaß, Gerhard&lt;br&gt;Giesselbach, Sven</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-3-031-23190-2.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-3-031-23190-2.epub" &gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-3-031-23190-2" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Entity Alignment: Concepts, Recent Advances and Novel Approaches</t>
+  </si>
+  <si>
+    <t>Numerical analysis&lt;br&gt;Scientific computing</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data science&lt;br&gt;Topology</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data science</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data science&lt;br&gt;Knowledge graphs</t>
+  </si>
+  <si>
+    <t>Zhao, Xiang&lt;br&gt;Zeng, Weixin&lt;br&gt;Tang, Jiuyang</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-981-99-4250-3.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-981-99-4250-3.epub" target = "_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-981-99-4250-3" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Essay on AI</t>
+  </si>
+  <si>
+    <t>Hypergraph Computation</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data strctures&lt;br&gt;Machine learning theory</t>
+  </si>
+  <si>
+    <t>Dai, Qionghai&lt;br&gt;Gao, Yue</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-981-99-0185-2.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-981-99-0185-2.epub" target = "_blank" &gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-981-99-0185-2" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A Gentle Introduction to the Art of Mathematics</t>
+  </si>
+  <si>
+    <t>Fields,  Joseph E.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://github.com/osj1961/giam/blob/master/GIAM.pdf?raw=true" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/channel/UCHyJSIROOe3Bp9Mj3vVESVQ/featured" target="_blank"&gt;Videos&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/osj1961/giam" target="_blank"&gt;Sources&lt;/a&gt;&lt;br&gt;&lt;a href="https://osj1961.github.io/giam/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://scholarworks.gvsu.edu/books/24/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Machine Learning Systems with TinyML</t>
+  </si>
+  <si>
+    <t>Edge computing&lt;br&gt;Machine learning theory</t>
+  </si>
+  <si>
+    <t>Reddi, Vijay J.&lt;br&gt;Others</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://harvard-edge.github.io/cs249r_book/" &gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://github.com/harvard-edge/cs249r_book" &gt;Sources&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Moraga, Paula</t>
+  </si>
+  <si>
+    <t>Spatial Statistics for Data Science: Theory and Practice with R</t>
+  </si>
+  <si>
+    <t>Data science&lt;br&gt;R&lt;br&gt;Statistics</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.paulamoraga.com/book-spatial/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bertsekas, Dimitri P.</t>
+  </si>
+  <si>
+    <t>A Course in Reinforcement Learning</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://web.mit.edu/dimitrib/www/RLCOURSECOMPLETE.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://web.mit.edu/dimitrib/www/RLbook.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Reinforcement learning theoary</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Machine learning theory&lt;br&gt;Optimization</t>
+  </si>
+  <si>
+    <t>Modern Data Science with R</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data science&lt;br&gt;R</t>
+  </si>
+  <si>
+    <t>Baumer, Benjamin S.&lt;br&gt;Kaplan, Daniel T.&lt;br&gt;Horton, Nicholas J.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://mdsr-book.github.io/mdsr3e/" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://mdsr-book.github.io/index.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Classical and Quantum Computing</t>
+  </si>
+  <si>
+    <t>Wong, Thomas</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.thomaswong.net/introduction-to-classical-and-quantum-computing-1e4p.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.thomaswong.net/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Human-Centered Programming Languages</t>
+  </si>
+  <si>
+    <t>Bohrer, Rose</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://bookish.press/hcpl" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Foundations of Information</t>
+  </si>
+  <si>
+    <t>Information theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ko, Amy J. </t>
+  </si>
+  <si>
+    <t>&lt;a href="https://faculty.washington.edu/ajko/books/foundations-of-information/" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Design Methods</t>
+  </si>
+  <si>
+    <t>Ko, Amy J.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://faculty.washington.edu/ajko/books/design-methods/" target="_blank"&gt;Web&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2357,21 +2516,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.1640625" customWidth="1"/>
-    <col min="3" max="3" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2406,7 +2565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +2573,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>565</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2426,13 +2585,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -2461,10 +2620,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -2484,7 +2643,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -2493,10 +2652,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -2504,16 +2663,16 @@
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2522,24 +2681,24 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2548,25 +2707,25 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>278</v>
+      </c>
+      <c r="D8" t="s">
         <v>394</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D8" t="s">
-        <v>408</v>
-      </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
@@ -2574,27 +2733,27 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J8" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>409</v>
+        <v>566</v>
       </c>
       <c r="D9" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2603,27 +2762,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J9" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D10" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -2632,27 +2791,27 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J10" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>453</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D11" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2661,27 +2820,27 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D12" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2690,27 +2849,27 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J12" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="D13" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -2719,27 +2878,27 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J13" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D14" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -2748,10 +2907,10 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J14" t="s">
         <v>36</v>
@@ -2759,7 +2918,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>545</v>
+        <v>525</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -2768,7 +2927,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>546</v>
+        <v>526</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -2777,13 +2936,42 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>547</v>
+        <v>527</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J15" t="s">
-        <v>548</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>397</v>
+      </c>
+      <c r="D16" t="s">
+        <v>562</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>563</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2988,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2810,7 +2998,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2862,13 +3050,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2888,16 +3076,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -2914,19 +3102,19 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J5" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -2946,13 +3134,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -2981,12 +3169,12 @@
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -2995,7 +3183,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3004,39 +3192,39 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D9" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -3044,7 +3232,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3053,7 +3241,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -3062,13 +3250,13 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3082,7 +3270,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3092,7 +3280,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3129,16 +3317,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>548</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3147,27 +3335,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3176,27 +3364,27 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3205,56 +3393,56 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>242</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J6" t="s">
         <v>254</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s">
-        <v>250</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>255</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="J6" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -3263,27 +3451,27 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J7" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D8" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3292,27 +3480,27 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J8" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>442</v>
+        <v>567</v>
       </c>
       <c r="D9" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -3321,10 +3509,10 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
@@ -3332,74 +3520,74 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>480</v>
+        <v>568</v>
       </c>
       <c r="D10" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H10" t="s">
-        <v>482</v>
+        <v>464</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="J10" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="D11" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H11" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>538</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>446</v>
+        <v>569</v>
       </c>
       <c r="D12" t="s">
-        <v>559</v>
+        <v>539</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -3408,27 +3596,27 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>560</v>
+        <v>540</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>562</v>
+        <v>542</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -3437,24 +3625,24 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>565</v>
+        <v>545</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>563</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D14" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -3463,24 +3651,24 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>566</v>
+        <v>546</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>564</v>
+        <v>544</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D15" t="s">
-        <v>561</v>
+        <v>541</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -3489,24 +3677,24 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>574</v>
+        <v>554</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -3515,13 +3703,13 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>575</v>
+        <v>555</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3535,7 +3723,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3546,7 +3734,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3589,7 +3777,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -3601,10 +3789,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -3620,7 +3808,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3630,7 +3818,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3667,16 +3855,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3685,27 +3873,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3714,10 +3902,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -3725,16 +3913,16 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3743,27 +3931,27 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>525</v>
+        <v>505</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
-        <v>527</v>
+        <v>507</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3772,10 +3960,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -3789,10 +3977,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7317D5C-0833-9C49-910D-501B8A37D6EA}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3804,7 +3992,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3841,16 +4029,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>156</v>
+        <v>571</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3859,27 +4047,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>570</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3888,27 +4076,27 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -3917,27 +4105,27 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J5" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>572</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3946,27 +4134,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>172</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -3975,27 +4163,27 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="D8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -4004,27 +4192,27 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D9" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -4033,27 +4221,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J9" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -4062,27 +4250,27 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="J10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -4091,27 +4279,27 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="D12" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -4120,56 +4308,56 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>557</v>
+        <v>537</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>553</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="D13" t="s">
-        <v>554</v>
+        <v>534</v>
       </c>
       <c r="E13" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>556</v>
+        <v>536</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>555</v>
+        <v>535</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -4178,13 +4366,42 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>569</v>
+        <v>549</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J14" t="s">
-        <v>267</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D15" t="s">
+        <v>602</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>603</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J15" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4209,7 +4426,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4252,7 +4469,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -4261,53 +4478,53 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4316,24 +4533,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4342,27 +4559,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D7" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -4371,13 +4588,13 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4391,7 +4608,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4401,7 +4618,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4438,16 +4655,16 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4456,27 +4673,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -4485,27 +4702,27 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>448</v>
+        <v>431</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4514,27 +4731,27 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D6" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4543,27 +4760,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -4572,50 +4789,50 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D8" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H8" t="s">
-        <v>532</v>
+        <v>512</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>534</v>
+        <v>514</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="D9" t="s">
-        <v>535</v>
+        <v>515</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -4624,24 +4841,24 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>537</v>
+        <v>517</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D10" t="s">
-        <v>543</v>
+        <v>523</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -4650,10 +4867,10 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>544</v>
+        <v>524</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -4661,16 +4878,16 @@
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>549</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
       <c r="D11" t="s">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -4679,13 +4896,13 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>552</v>
+        <v>532</v>
       </c>
       <c r="H11" t="s">
-        <v>551</v>
+        <v>531</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
@@ -4693,16 +4910,16 @@
     </row>
     <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>576</v>
+        <v>556</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>577</v>
+        <v>557</v>
       </c>
       <c r="D12" t="s">
-        <v>578</v>
+        <v>558</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -4711,13 +4928,13 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>579</v>
+        <v>559</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J12" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4731,7 +4948,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9:I10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4742,7 +4959,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4788,7 +5005,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4800,50 +5017,50 @@
         <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>383</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>44</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>46</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>574</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4852,24 +5069,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>451</v>
+        <v>434</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D6" t="s">
-        <v>449</v>
+        <v>432</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4878,24 +5095,24 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>452</v>
+        <v>435</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>484</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -4904,24 +5121,24 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>485</v>
+        <v>467</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D8" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -4930,24 +5147,24 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>533</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>450</v>
+        <v>433</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>524</v>
+        <v>504</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -4956,27 +5173,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>529</v>
+        <v>509</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J9" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>538</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>541</v>
+        <v>521</v>
       </c>
       <c r="D10" t="s">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -4985,13 +5202,13 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>539</v>
+        <v>519</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J10" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5005,7 +5222,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5016,7 +5233,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5051,15 +5268,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>575</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -5068,13 +5285,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -5082,42 +5299,42 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>576</v>
+      </c>
+      <c r="D4" t="s">
         <v>49</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H4" t="s">
         <v>50</v>
       </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H4" t="s">
-        <v>52</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5126,85 +5343,85 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="D7" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>521</v>
+        <v>501</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="D8" t="s">
-        <v>522</v>
+        <v>502</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -5213,10 +5430,10 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -5227,17 +5444,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF473F-CBF9-BB4E-8EFC-85F894DA5870}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5274,16 +5494,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5292,39 +5512,39 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J3" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>591</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -5332,16 +5552,16 @@
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>223</v>
+        <v>592</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5350,16 +5570,101 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
     </row>
+    <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>589</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" t="s">
+        <v>594</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>595</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" t="s">
+        <v>608</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>611</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="D8" t="s">
+        <v>619</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>620</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5380,7 +5685,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5417,16 +5722,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5435,10 +5740,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -5446,16 +5751,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>571</v>
+        <v>551</v>
       </c>
       <c r="D4" t="s">
-        <v>572</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -5464,24 +5769,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="D5" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5490,10 +5795,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -5501,60 +5806,60 @@
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D6" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H6" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="J6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D7" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="H7" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="J7" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5662,7 +5967,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5675,18 +5980,18 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
+    <col min="1" max="1" width="26.5" customWidth="1"/>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5721,18 +6026,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5741,24 +6046,24 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -5767,24 +6072,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5793,230 +6098,230 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E8" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" t="s">
         <v>217</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>222</v>
       </c>
-      <c r="E10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>235</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>63</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>65</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>578</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -6025,10 +6330,10 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -6042,7 +6347,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6054,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6091,16 +6396,16 @@
     </row>
     <row r="3" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>580</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6109,13 +6414,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -6125,10 +6430,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF6137D-0C53-C045-9269-910480ECA323}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView topLeftCell="B3" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6140,7 +6445,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6175,18 +6480,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6195,51 +6500,51 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>132</v>
+        <v>579</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -6247,24 +6552,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>582</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -6273,134 +6578,134 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D8" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" t="s">
-        <v>100</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>101</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" t="s">
         <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J10" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -6409,24 +6714,24 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>132</v>
+        <v>579</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -6435,85 +6740,85 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H14" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>132</v>
+        <v>579</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -6522,36 +6827,36 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
         <v>83</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D16" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" t="s">
-        <v>85</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J16" t="s">
         <v>30</v>
@@ -6559,16 +6864,16 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -6577,24 +6882,24 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -6603,85 +6908,85 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" t="s">
         <v>53</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>192</v>
-      </c>
-      <c r="H19" t="s">
-        <v>55</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J20" t="s">
         <v>56</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>57</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -6690,56 +6995,56 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
         <v>93</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>95</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="E23" t="s">
         <v>13</v>
@@ -6748,50 +7053,50 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J24" t="s">
         <v>105</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="J24" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>131</v>
+        <v>579</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -6800,24 +7105,24 @@
         <v>18</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>130</v>
+        <v>579</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -6826,27 +7131,27 @@
         <v>18</v>
       </c>
       <c r="H26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="J26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>130</v>
+        <v>616</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -6855,24 +7160,24 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>130</v>
+        <v>582</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -6881,13 +7186,68 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
       <c r="J28" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
+        <v>600</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
+        <v>614</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -6900,13 +7260,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{111BA2C8-2CA4-904F-888B-5A7FB98580DB}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -6916,17 +7278,17 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20F8B490-A9E7-D347-9007-403C2A9D5669}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6963,16 +7325,16 @@
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>583</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6981,30 +7343,121 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>586</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="D4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>588</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7258B521-C020-A84C-A724-AAA32DDEDD5D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>605</v>
+      </c>
+      <c r="D3" t="s">
+        <v>606</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>607</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -7022,7 +7475,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -7042,7 +7495,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -7062,7 +7515,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -7075,7 +7528,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7085,7 +7538,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7122,80 +7575,83 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
         <v>116</v>
       </c>
-      <c r="D3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="H3" t="s">
-        <v>119</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>112</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
+      <c r="C5" t="s">
+        <v>596</v>
+      </c>
       <c r="D5" t="s">
-        <v>461</v>
+        <v>444</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="H5" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
       <c r="J5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -7216,7 +7672,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -7236,7 +7692,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -7246,7 +7702,7 @@
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909BB2A7-AC10-244A-B399-A7AD9473C2C7}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -7256,7 +7712,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7293,16 +7749,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>585</v>
       </c>
       <c r="D3" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -7311,13 +7767,39 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>621</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>585</v>
+      </c>
+      <c r="D4" t="s">
+        <v>622</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>623</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>480</v>
       </c>
     </row>
   </sheetData>
@@ -7335,7 +7817,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -7345,10 +7827,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21079C7-A759-D34E-A31D-0C3FA6B6DCD8}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7359,7 +7841,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7396,42 +7878,42 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="D3" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D4" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -7440,24 +7922,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D5" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -7466,10 +7948,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -7477,16 +7959,16 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="D6" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -7495,24 +7977,24 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -7521,28 +8003,28 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
         <v>331</v>
       </c>
-      <c r="D8" t="s">
-        <v>344</v>
-      </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
@@ -7550,24 +8032,24 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D9" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -7576,27 +8058,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J9" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>564</v>
       </c>
       <c r="D10" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -7605,10 +8087,10 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -7616,16 +8098,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="D11" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -7634,10 +8116,65 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>624</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D12" t="s">
+        <v>625</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>626</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>627</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>628</v>
+      </c>
+      <c r="D13" t="s">
+        <v>629</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>630</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J13" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -7662,7 +8199,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7699,277 +8236,277 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D3" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J3" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H4" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J4" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D5" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J5" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E6" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H6" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J6" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="F7" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H7" t="s">
-        <v>319</v>
+        <v>306</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J7" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E8" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>320</v>
+        <v>307</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J8" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E9" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
+        <v>297</v>
+      </c>
+      <c r="H9" t="s">
         <v>310</v>
       </c>
-      <c r="H9" t="s">
-        <v>323</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J9" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>321</v>
+        <v>308</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E10" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H10" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J10" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="E11" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F11" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J11" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="D12" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -7978,39 +8515,39 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="J12" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="D13" t="s">
+        <v>339</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" t="s">
         <v>351</v>
       </c>
-      <c r="D13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>310</v>
-      </c>
-      <c r="H13" t="s">
-        <v>365</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -8035,7 +8572,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8072,16 +8609,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -8090,13 +8627,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8116,7 +8653,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8153,28 +8690,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>488</v>
+        <v>590</v>
       </c>
       <c r="D3" t="s">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="F3" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="H3" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="J3" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -8194,7 +8731,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -8204,17 +8741,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8251,16 +8788,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="D3" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -8269,13 +8806,43 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>308</v>
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>631</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>326</v>
+      </c>
+      <c r="D4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>633</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="J4" t="s">
+        <v>528</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11220"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8130D4-4DEC-8F4C-B023-10396C1A0C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3C686-7382-5240-B333-50944329DB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17480" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="773">
   <si>
     <t>Title</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Boosting: Foundations and Algorithms</t>
   </si>
   <si>
-    <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2091763/book_9780262301183.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://doi.org/10.7551/mitpress/8291.001.0001" target = "_blank"&gt;Site&lt;/a&gt;</t>
-  </si>
-  <si>
     <t>Foundations of Machine Learning</t>
   </si>
   <si>
@@ -336,9 +333,6 @@
   </si>
   <si>
     <t>Distributional Reinforcement Learning</t>
-  </si>
-  <si>
-    <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2111075/book_9780262374026.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/oa-monograph/5590/Distributional-Reinforcement-Learning" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
     <t>Probabilistic Machine Learning: An Introduction</t>
@@ -839,9 +833,6 @@
     <t>Arora,Sanjeev&lt;br&gt;Barak,Boaz</t>
   </si>
   <si>
-    <t>Computational complexity</t>
-  </si>
-  <si>
     <t>&lt;a href="https://theory.cs.princeton.edu/complexity/book.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://theory.cs.princeton.edu/complexity/" target="_blank"&gt;Site&lt;/a&gt;&lt;br&gt;&lt;a href="https://link.springer.com/book/10.1007/978-3-031-41026-0" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -1484,9 +1475,6 @@
     <t>Kim, Hyeongjoo&lt;br&gt;Schönecker, Dieter</t>
   </si>
   <si>
-    <t>Prac</t>
-  </si>
-  <si>
     <t>&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110706611/pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110706611/epub" &gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.degruyter.com/document/doi/10.1515/9783110706611/html" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -2049,6 +2037,435 @@
   </si>
   <si>
     <t>&lt;a href="https://faculty.washington.edu/ajko/books/design-methods/" target="_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Telling Stories with Data With Applications in R</t>
+  </si>
+  <si>
+    <t>Alexander, Rohan</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://tellingstorieswithdata.com/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>R for Data Science</t>
+  </si>
+  <si>
+    <t>CC BY-NC-ND 3.0 US DEED</t>
+  </si>
+  <si>
+    <t>Wickham, Hadley&lt;br&gt;Çetinkaya-Rundel, Mine&lt;br&gt;Grolemund, Garrett</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://r4ds.hadley.nz/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Italian</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://es.r4ds.hadley.nz/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://it.r4ds.hadley.nz/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://tr.r4ds.hadley.nz/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Python for Data Analysis</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data science&lt;br&gt;Python</t>
+  </si>
+  <si>
+    <t>McKinney, Wes</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://wesmckinney.com/book/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Regression and Other Stories</t>
+  </si>
+  <si>
+    <t>Gelman, Andrew&lt;br&gt;Hill, Jennifer&lt;br&gt;Vehtari, Aki</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://users.aalto.fi/~ave/ROS.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://avehtari.github.io/ROS-Examples/index.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>A Course in Field Theory</t>
+  </si>
+  <si>
+    <t>van Baal, Pierre</t>
+  </si>
+  <si>
+    <t>Quantum physics</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.taylorfrancis.com/books/oa-mono/10.1201/b15364/course-field-theory-pierre-van-baal" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Data Science: A First Introduction</t>
+  </si>
+  <si>
+    <t>Timbers, Tiffany&lt;br&gt;Campbell, Trevor&lt;br&gt;Lee, Melissa</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://datasciencebook.ca/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Time Series Analysis: Lecture Notes with Examples in R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyubchich, Vyacheslav&lt;br&gt;Gel, Yulia R. </t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://vlyubchich.github.io/tsar/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Modern Cryptography Volume 1: A Classical Introduction to Informational and Mathematical Principle</t>
+  </si>
+  <si>
+    <t>Zheng, Zhiyong</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-981-19-0920-7.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-981-19-0920-7.epub" target = "_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-981-19-0920-7" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Modern Cryptography Volume 2: A Classical Introduction to Informational and Mathematical Principle</t>
+  </si>
+  <si>
+    <t>Zheng, Zhiyong&lt;br&gt;Tian, Kun&lt;br&gt;Liu, Fengxia</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-981-19-7644-5.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-981-19-7644-5.epub" target = "_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-981-19-7644-5" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Probability on Trees and Networks</t>
+  </si>
+  <si>
+    <t>Lyons, Russell&lt;br&gt;Peres, Yuval</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://rdlyons.pages.iu.edu/prbtree/book_pb.pdf" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://rdlyons.pages.iu.edu/prbtree/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Algebraic Topology</t>
+  </si>
+  <si>
+    <t>Hatcher, Allen</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://pi.math.cornell.edu/~hatcher/AT/AT.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://pi.math.cornell.edu/~hatcher/AT/ATpage.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Vector Bundles &amp; K-Theory</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://pi.math.cornell.edu/~hatcher/VBKT/VB.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://pi.math.cornell.edu/~hatcher/VBKT/VBpage.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Topology of Numbers</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://pi.math.cornell.edu/~hatcher/TN/TNbook.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://pi.math.cornell.edu/~hatcher/TN/TNpage.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Database Design</t>
+  </si>
+  <si>
+    <t>Watt, Adrienne</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://opentextbc.ca/dbdesign01/open/download?type=pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://opentextbc.ca/dbdesign01/open/download?type=epub" target="_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href="https://opentextbc.ca/dbdesign01/front-matter/preface/" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://opentextbc.ca/dbdesign01/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Database theory</t>
+  </si>
+  <si>
+    <t>Explanatory Model Analysis: Explore, Explain, and Examine Predictive Models. With examples in R and Python</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data science&lt;br&gt;Python&lt;br&gt;R</t>
+  </si>
+  <si>
+    <t>Burzykowski, Tomasz&lt;br&gt;Biecek, Przemyslaw</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://pbiecek.github.io/ema/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Numerical Methods for Variational Problems</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Finite element method&lt;br&gt;Numerical analysis</t>
+  </si>
+  <si>
+    <t>Langtangen, Hans P.&lt;br&gt;Mardal, Kent-Andre</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://hplgit.github.io/fem-book/doc/pub/book/pdf/fem-book-4screen.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://hplgit.github.io/fem-book/doc/web/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Planar Maps, Random Walks and Circle Packing</t>
+  </si>
+  <si>
+    <t>Nachmias, Asaf</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-3-030-27968-4.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-3-030-27968-4.epub" target = "_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-3-030-27968-4" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Algorithms for Decision Making</t>
+  </si>
+  <si>
+    <t>Kochenderfer, Mykel J.&lt;br&gt; Wheeler, Tim A.&lt;br&gt;Wray, Kyle H.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://algorithmsbook.com/files/dm.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://github.com/algorithmsbooks/decisionmaking-ancillaries" target="_blank"&gt;Res&lt;/a&gt;&lt;br&gt;&lt;a href="https://algorithmsbook.com/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Finite Difference Computing with PDEs: A Modern Software Approach</t>
+  </si>
+  <si>
+    <t>Langtangen, Hans P.&lt;br&gt;Linge, Svein</t>
+  </si>
+  <si>
+    <t>Beyond Multiple Linear Regression: Applied Generalized Linear Models and Multilevel Models in R</t>
+  </si>
+  <si>
+    <t>Roback, Paul&lt;br&gt;Legler, Julie</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://bookdown.org/roback/bookdown-BeyondMLR/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Introduction to Data Science: Data Wrangling and Visualization with R</t>
+  </si>
+  <si>
+    <t>Irizarry. Rafael A.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://rafalab.dfci.harvard.edu/dsbook-part-1/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Advanced Data Science: Statistics and Prediction Algorithms Through Case Studies</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://rafalab.dfci.harvard.edu/dsbook-part-2/" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Computability and Complexity: From a Programming Perspective</t>
+  </si>
+  <si>
+    <t>Jones, Neil D.</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://hjemmesider.diku.dk/~neil/comp2book2007/book-whole.pdf" target="_blank"&gt;PDF&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Partial Evaluation and Automatic Program Generation</t>
+  </si>
+  <si>
+    <t>Program transformation techniques</t>
+  </si>
+  <si>
+    <t>Jones, Neil D.&lt;br&gt;Gomard, Carsten&lt;br&gt;Sestoft, Peter</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.itu.dk/~sestoft/pebook/jonesgomardsestoft-a4.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.itu.dk/~sestoft/pebook/pebook.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Topology: A Categorical Approach</t>
+  </si>
+  <si>
+    <t>Bradley, Tai-Danae&lt;br&gt;Bryson, Tyler&lt;br&gt;Terilla, John</t>
+  </si>
+  <si>
+    <t>Category theory&lt;br&gt;Topology</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://topology.mitpress.mit.edu/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Person, Thing, Robot: A Moral and Legal Ontology for the 21st Century and Beyond</t>
+  </si>
+  <si>
+    <t>Gunkel, David J.</t>
+  </si>
+  <si>
+    <t>Gradient Expectations: Structure, Origins, and Synthesis of Predictive Neural Networks</t>
+  </si>
+  <si>
+    <t>Downing, Keith L.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2145839/book_9780262374675.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/book-media/5608/epubviewer/2145840" &gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/oa-monograph/5608/Gradient-ExpectationsStructure-Origins-and" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2156679/book_9780262375221.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/book-media/5641/epubviewer/2156680" &gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/oa-monograph/5641/Person-Thing-RobotA-Moral-and-Legal-Ontology-for" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2111075/book_9780262374026.pdf" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/book-media/5590/epubviewer/2111076" &gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/oa-monograph/5590/Distributional-Reinforcement-Learning" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://direct.mit.edu/books/book-pdf/2091763/book_9780262301183.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://direct.mit.edu/books/book-media/5342/pdfviewer/2091763" target = "_blank" &gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://doi.org/10.7551/mitpress/8291.001.0001" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Actual Causality</t>
+  </si>
+  <si>
+    <t>Causality theory</t>
+  </si>
+  <si>
+    <t>Halpern, Joseph Y.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://direct.mit.edu/books/book-pdf/2090747/book_9780262336611.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://direct.mit.edu/books/book-media/3451/pdfviewer/2090747" target="_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href="https://direct.mit.edu/books/oa-monograph/3451/Actual-Causality" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Basic Category Theory</t>
+  </si>
+  <si>
+    <t>Leinster, Tom</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://arxiv.org/pdf/1612.09375.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://arxiv.org/abs/1612.09375" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Foundations of Infinitesimal Calculus</t>
+  </si>
+  <si>
+    <t>Keisler, Howard J.</t>
+  </si>
+  <si>
+    <t>Elementary Calculus: An Infinitesimal Approach</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://people.math.wisc.edu/~hkeisler/keislercalc-12-14-22.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://people.math.wisc.edu/~hkeisler/calc.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://people.math.wisc.edu/~hkeisler/foundations.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://people.math.wisc.edu/~hkeisler/foundations.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>High dimensional probability. An introduction with applications in Data Science</t>
+  </si>
+  <si>
+    <t>Vershynin, Roman</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.math.uci.edu/~rvershyn/papers/HDP-book/HDP-book.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.math.uci.edu/~rvershyn/teaching/hdp/hdp.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mining of Massive Datasets</t>
+  </si>
+  <si>
+    <t>Leskovec, Jure&lt;br&gt;Rajaraman, Anand&lt;br&gt;Ullman, Jeff</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Big data&lt;br&gt;Data science</t>
+  </si>
+  <si>
+    <t>Algorithms</t>
+  </si>
+  <si>
+    <t>Erickson, Jeff</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://jeffe.cs.illinois.edu/teaching/algorithms/book/Algorithms-JeffE.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://jeffe.cs.illinois.edu/teaching/algorithms/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Bayesian Modeling and Computation in Python</t>
+  </si>
+  <si>
+    <t>Martin, Osvaldo A.&lt;br&gt;Kumar, Ravin&lt;br&gt;Lao, Junpeng</t>
+  </si>
+  <si>
+    <t>&lt;a href = "http://infolab.stanford.edu/~ullman/mmds/book0n.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "http://mmds.org/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://bayesiancomputationbook.com/welcome.html" target = "_blank"&gt;Web&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Shallow and the Deep: A biased introduction to neural networks and old school machine learning</t>
+  </si>
+  <si>
+    <t>Biehl, Michael</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://books.ugp.rug.nl/index.php/ugp/catalog/view/130/134/997" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://books.ugp.rug.nl/index.php/ugp/catalog/book/130" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence: Foundations of Computational Agents</t>
+  </si>
+  <si>
+    <t>Poole, David L.&lt;br&gt;Mackworth, Alan K.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://artint.info/3e/html/ArtInt3e.html" target = "_blank" &gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://artint.info/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Algorithmic High-Dimensional Robust Statistics</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Probability</t>
+  </si>
+  <si>
+    <t>Diakonikolas,Ilias&lt;br&gt;Kane, Daniel M.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "http://www.iliasdiakonikolas.org/ars-book.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/view/ars-book/home" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Machine Learning - A First Course for Engineers and Scientists</t>
+  </si>
+  <si>
+    <t>Lindholm, Andreas&lt;br&gt;Wahlström, Niklas&lt;br&gt;Lindsten, Fredrik&lt;br&gt;Schön, Thomas B.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://smlbook.org/book/sml-book-draft-latest.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://smlbook.org/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Optimization for Modern Data Analysis</t>
+  </si>
+  <si>
+    <t>Wright, Stephen J.&lt;br&gt;Recht, Benjamin</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://people.eecs.berkeley.edu/~brecht/opt4ml_book/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>High-Dimensional Data Analysis with Low-Dimensional Models: Principles, Computation, and Applications</t>
+  </si>
+  <si>
+    <t>Applied math&lt;br&gt;Data science&lt;br&gt;Optimization</t>
+  </si>
+  <si>
+    <t>Wright, John&lt;br&gt;Ma, Yi</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://link.springer.com/content/pdf/10.1007/978-3-319-55456-3.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/download/epub/10.1007/978-3-319-55456-3.epub" target = "_blank"&gt;EPUB&lt;/a&gt;&lt;br&gt;&lt;a href = "https://link.springer.com/book/10.1007/978-3-319-55456-3" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://book-wright-ma.github.io/Book-WM-20210422.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://book-wright-ma.github.io/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Graph Representation Learning</t>
+  </si>
+  <si>
+    <t>Hamilton, William L.</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://www.cs.mcgill.ca/~wlh/grl_book/files/GRL_Book.pdf" target = "_blank" &gt;PDF&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Little Book of Deep Learning</t>
+  </si>
+  <si>
+    <t>Fleuret, François</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://fleuret.org/public/lbdl.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://fleuret.org/francois/lbdl.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2530,7 +2947,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -2573,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -2585,13 +3002,13 @@
         <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -2620,10 +3037,10 @@
         <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -2643,7 +3060,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
         <v>18</v>
@@ -2652,10 +3069,10 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -2663,16 +3080,16 @@
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -2681,24 +3098,24 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -2707,53 +3124,53 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>275</v>
+      </c>
+      <c r="D8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>379</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="J8" t="s">
         <v>380</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D8" t="s">
-        <v>394</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>382</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="J8" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -2762,56 +3179,56 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>394</v>
+      </c>
+      <c r="D10" t="s">
+        <v>395</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>396</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D10" t="s">
-        <v>398</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>399</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J10" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2820,10 +3237,10 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -2831,16 +3248,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D12" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -2849,56 +3266,56 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+      <c r="D13" t="s">
+        <v>485</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>488</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" t="s">
-        <v>489</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>492</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J13" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D14" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -2907,10 +3324,10 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J14" t="s">
         <v>36</v>
@@ -2918,7 +3335,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -2927,7 +3344,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -2936,27 +3353,27 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J15" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D16" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -2965,13 +3382,13 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2985,10 +3402,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{598FC08E-8E9F-E940-8F67-020FA76015AA}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2998,7 +3415,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3050,13 +3467,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3076,16 +3493,16 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -3102,19 +3519,19 @@
         <v>26</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J5" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -3134,13 +3551,13 @@
         <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J6" t="s">
         <v>30</v>
@@ -3169,12 +3586,12 @@
         <v>33</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -3183,7 +3600,7 @@
         <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3192,39 +3609,39 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" t="s">
+        <v>400</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" t="s">
         <v>401</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D9" t="s">
-        <v>403</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>119</v>
-      </c>
-      <c r="H9" t="s">
-        <v>404</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
@@ -3232,7 +3649,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
@@ -3241,7 +3658,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -3250,13 +3667,184 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J10" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>667</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>668</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
+        <v>669</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>670</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>668</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" t="s">
+        <v>671</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>668</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>673</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>709</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>711</v>
+      </c>
+      <c r="D14" t="s">
+        <v>710</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>712</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>354</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>725</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>726</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>727</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -3267,10 +3855,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328D7A68-83AD-754B-AA96-4236ABDE3150}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3280,7 +3868,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3317,16 +3905,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3335,85 +3923,85 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>237</v>
       </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>240</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>235</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>238</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3422,85 +4010,85 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" t="s">
+        <v>382</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>384</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" t="s">
-        <v>385</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>387</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
+        <v>382</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>385</v>
       </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>388</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -3509,10 +4097,10 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J9" t="s">
         <v>30</v>
@@ -3520,57 +4108,57 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D10" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H10" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J10" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>565</v>
+      </c>
+      <c r="D11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H11" t="s">
         <v>423</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>569</v>
-      </c>
-      <c r="D11" t="s">
-        <v>424</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" t="s">
-        <v>426</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J11" t="s">
         <v>56</v>
@@ -3578,16 +4166,16 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D12" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -3596,53 +4184,53 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
+        <v>537</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>541</v>
       </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>545</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -3651,24 +4239,24 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -3677,24 +4265,24 @@
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -3703,13 +4291,71 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J16" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>728</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" t="s">
+        <v>729</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>732</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" t="s">
+        <v>729</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>731</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J18" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3734,7 +4380,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3777,7 +4423,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -3789,10 +4435,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -3818,7 +4464,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -3855,16 +4501,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -3873,27 +4519,27 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -3902,10 +4548,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
         <v>14</v>
@@ -3913,45 +4559,45 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" t="s">
         <v>251</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>253</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="J5" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D6" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -3960,10 +4606,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -3980,7 +4626,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3992,7 +4638,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4029,248 +4675,248 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>147</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>571</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
         <v>148</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J3" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>566</v>
+      </c>
+      <c r="D4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>151</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>570</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J4" t="s">
         <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>153</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>154</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>156</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J6" t="s">
         <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>159</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>159</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J7" t="s">
         <v>148</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>162</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="I8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J8" t="s">
         <v>148</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>164</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J8" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>165</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>166</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="I9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" t="s">
         <v>148</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>167</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J9" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>168</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J10" t="s">
         <v>148</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>170</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="J10" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>266</v>
+        <v>531</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>530</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -4279,39 +4925,39 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>357</v>
+        <v>533</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>213</v>
+        <v>476</v>
       </c>
       <c r="J11" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D12" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
@@ -4319,45 +4965,45 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>252</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D13" t="s">
-        <v>534</v>
+        <v>253</v>
       </c>
       <c r="E13" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>597</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D14" t="s">
-        <v>256</v>
+        <v>598</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
@@ -4366,42 +5012,42 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>549</v>
+        <v>599</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J14" t="s">
-        <v>254</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>601</v>
+        <v>721</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>535</v>
+        <v>722</v>
       </c>
       <c r="D15" t="s">
-        <v>602</v>
+        <v>723</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>603</v>
+        <v>724</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J15" t="s">
-        <v>383</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4412,21 +5058,21 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{834A9FE3-F807-1F4C-B439-D9A6ED53C31D}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="69.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4469,7 +5115,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -4478,53 +5124,53 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
         <v>39</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
         <v>181</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" t="s">
         <v>182</v>
       </c>
-      <c r="D4" t="s">
+      <c r="I4" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -4533,24 +5179,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -4559,27 +5205,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>447</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>451</v>
-      </c>
       <c r="D7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -4588,13 +5234,68 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>689</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D8" t="s">
+        <v>690</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>691</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>759</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>447</v>
+      </c>
+      <c r="D9" t="s">
+        <v>760</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>761</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -4605,10 +5306,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4618,7 +5319,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -4655,16 +5356,16 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -4673,39 +5374,39 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>428</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>430</v>
-      </c>
-      <c r="D4" t="s">
-        <v>429</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>431</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
@@ -4713,28 +5414,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>439</v>
       </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>442</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
@@ -4742,97 +5443,97 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D6" t="s">
+        <v>454</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>457</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>460</v>
-      </c>
-      <c r="D6" t="s">
-        <v>458</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>461</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>142</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>487</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="I7" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>144</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D8" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H8" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -4841,24 +5542,24 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D10" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -4867,10 +5568,10 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -4878,16 +5579,16 @@
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D11" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -4896,13 +5597,13 @@
         <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="H11" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
@@ -4910,16 +5611,16 @@
     </row>
     <row r="12" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D12" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -4928,13 +5629,155 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J12" t="s">
-        <v>465</v>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D13" t="s">
+        <v>659</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>660</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D14" t="s">
+        <v>662</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>663</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>682</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D15" t="s">
+        <v>684</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>685</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="119" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>692</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D16" t="s">
+        <v>693</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>765</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J16" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>762</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="D17" t="s">
+        <v>764</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>766</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J17" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -4945,25 +5788,26 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B33D024-5E4D-ED4D-9BDC-83AA1325EDF6}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="42.83203125" customWidth="1"/>
+    <col min="1" max="1" width="42.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -4995,7 +5839,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B3" t="s">
@@ -5005,7 +5849,7 @@
         <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5017,14 +5861,14 @@
         <v>42</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B4" t="s">
@@ -5046,22 +5890,22 @@
         <v>46</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -5069,50 +5913,50 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>434</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>431</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D6" t="s">
+        <v>429</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>432</v>
       </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>435</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>466</v>
+      <c r="A7" s="2" t="s">
+        <v>462</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -5121,24 +5965,24 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>494</v>
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>490</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -5147,24 +5991,24 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -5173,27 +6017,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>518</v>
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>514</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D10" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -5202,13 +6046,123 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J10" t="s">
-        <v>146</v>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>666</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" t="s">
+        <v>687</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>688</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>735</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D14" t="s">
+        <v>754</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>755</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -5222,7 +6176,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5233,7 +6187,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5276,7 +6230,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -5285,13 +6239,13 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -5305,7 +6259,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -5314,27 +6268,27 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -5343,39 +6297,39 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
         <v>419</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>420</v>
-      </c>
-      <c r="D6" t="s">
-        <v>421</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>119</v>
-      </c>
-      <c r="H6" t="s">
-        <v>422</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J6" t="s">
         <v>56</v>
@@ -5383,28 +6337,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -5412,16 +6366,16 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D8" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -5430,10 +6384,10 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -5444,10 +6398,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFCF473F-CBF9-BB4E-8EFC-85F894DA5870}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5457,7 +6411,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5494,57 +6448,57 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>333</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>336</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J4" t="s">
         <v>30</v>
@@ -5552,28 +6506,28 @@
     </row>
     <row r="5" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>592</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>210</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
@@ -5581,16 +6535,16 @@
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>585</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>593</v>
-      </c>
       <c r="D6" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -5599,27 +6553,27 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D7" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -5628,10 +6582,10 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
@@ -5639,16 +6593,16 @@
     </row>
     <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -5657,10 +6611,459 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>630</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D9" t="s">
+        <v>631</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>632</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D10" t="s">
+        <v>635</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>636</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J10" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>633</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" t="s">
+        <v>635</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>638</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J11" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D12" t="s">
+        <v>635</v>
+      </c>
+      <c r="E12" t="s">
+        <v>637</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>639</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>633</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D13" t="s">
+        <v>635</v>
+      </c>
+      <c r="E13" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>640</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J13" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>641</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D14" t="s">
+        <v>643</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>644</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>645</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D15" t="s">
+        <v>646</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>647</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>652</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D16" t="s">
+        <v>653</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>654</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>652</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D17" t="s">
+        <v>653</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>654</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>655</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D18" t="s">
+        <v>656</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>657</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>678</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D19" t="s">
+        <v>680</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>681</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>694</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D20" t="s">
+        <v>695</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
+        <v>696</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J20" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>697</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D21" t="s">
+        <v>698</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
+        <v>699</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>700</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>614</v>
+      </c>
+      <c r="D22" t="s">
+        <v>698</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
+        <v>701</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>736</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D23" t="s">
+        <v>737</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" t="s">
+        <v>744</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>742</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="D24" t="s">
+        <v>743</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>745</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J24" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5685,7 +7088,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="17" x14ac:dyDescent="0.2">
@@ -5722,16 +7125,16 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -5740,10 +7143,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
@@ -5751,16 +7154,16 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D4" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -5769,36 +7172,36 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
         <v>389</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D5" t="s">
-        <v>390</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>392</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -5806,60 +7209,60 @@
     </row>
     <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D6" t="s">
+        <v>403</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>406</v>
+      </c>
+      <c r="H6" t="s">
         <v>405</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D6" t="s">
-        <v>406</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>409</v>
-      </c>
-      <c r="H6" t="s">
-        <v>408</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="J6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="H7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -5967,7 +7370,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -5977,10 +7380,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893C98B-CBC4-7246-B032-90C8B1A2697A}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C13"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5991,7 +7394,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6034,10 +7437,10 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6049,21 +7452,21 @@
         <v>58</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -6072,24 +7475,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -6098,10 +7501,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -6109,28 +7512,28 @@
     </row>
     <row r="6" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E6" t="s">
         <v>205</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" t="s">
-        <v>207</v>
-      </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J6" t="s">
         <v>36</v>
@@ -6138,28 +7541,28 @@
     </row>
     <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J7" t="s">
         <v>36</v>
@@ -6167,28 +7570,28 @@
     </row>
     <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J8" t="s">
         <v>36</v>
@@ -6196,28 +7599,28 @@
     </row>
     <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J9" t="s">
         <v>36</v>
@@ -6225,28 +7628,28 @@
     </row>
     <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J10" t="s">
         <v>36</v>
@@ -6254,28 +7657,28 @@
     </row>
     <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J11" t="s">
         <v>36</v>
@@ -6289,7 +7692,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
@@ -6304,7 +7707,7 @@
         <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
@@ -6312,16 +7715,16 @@
     </row>
     <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -6330,10 +7733,36 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>772</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -6359,7 +7788,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6396,16 +7825,16 @@
     </row>
     <row r="3" spans="1:10" ht="47" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -6414,10 +7843,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J3" t="s">
         <v>56</v>
@@ -6430,22 +7859,23 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF6137D-0C53-C045-9269-910480ECA323}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView topLeftCell="B26" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" customWidth="1"/>
     <col min="4" max="4" width="28.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -6482,17 +7912,17 @@
     </row>
     <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D3" t="s">
         <v>87</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D3" t="s">
-        <v>88</v>
-      </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
@@ -6500,50 +7930,50 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" t="s">
         <v>76</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>119</v>
-      </c>
-      <c r="H4" t="s">
-        <v>77</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -6552,24 +7982,24 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E6" t="s">
         <v>13</v>
@@ -6578,10 +8008,10 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6592,48 +8022,48 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>117</v>
+      </c>
+      <c r="H8" t="s">
         <v>96</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H8" t="s">
-        <v>98</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6644,22 +8074,22 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>720</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J9" t="s">
         <v>56</v>
@@ -6667,45 +8097,45 @@
     </row>
     <row r="10" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>99</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="I10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
         <v>100</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>101</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J10" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -6714,24 +8144,24 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -6740,10 +8170,10 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>719</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
         <v>56</v>
@@ -6751,28 +8181,28 @@
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J13" t="s">
         <v>56</v>
@@ -6780,28 +8210,28 @@
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
         <v>56</v>
@@ -6809,54 +8239,54 @@
     </row>
     <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>74</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>75</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D16" t="s">
         <v>81</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
         <v>82</v>
       </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>119</v>
-      </c>
-      <c r="H16" t="s">
-        <v>83</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J16" t="s">
         <v>30</v>
@@ -6864,54 +8294,54 @@
     </row>
     <row r="17" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>69</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
         <v>85</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>86</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J18" t="s">
         <v>56</v>
@@ -6925,7 +8355,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -6937,13 +8367,13 @@
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H19" t="s">
         <v>53</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -6954,10 +8384,10 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E20" t="s">
         <v>13</v>
@@ -6969,7 +8399,7 @@
         <v>55</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J20" t="s">
         <v>56</v>
@@ -6977,16 +8407,16 @@
     </row>
     <row r="21" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -6995,10 +8425,10 @@
         <v>18</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J21" t="s">
         <v>56</v>
@@ -7006,28 +8436,28 @@
     </row>
     <row r="22" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
         <v>91</v>
       </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>93</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J22" t="s">
         <v>56</v>
@@ -7035,17 +8465,17 @@
     </row>
     <row r="23" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
@@ -7053,62 +8483,62 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H24" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" t="s">
         <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="H25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>73</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
@@ -7119,10 +8549,10 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -7134,7 +8564,7 @@
         <v>60</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="J26" t="s">
         <v>30</v>
@@ -7142,16 +8572,16 @@
     </row>
     <row r="27" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E27" t="s">
         <v>13</v>
@@ -7160,24 +8590,24 @@
         <v>18</v>
       </c>
       <c r="H27" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E28" t="s">
         <v>13</v>
@@ -7186,27 +8616,27 @@
         <v>18</v>
       </c>
       <c r="H28" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="E29" t="s">
         <v>13</v>
@@ -7215,27 +8645,27 @@
         <v>18</v>
       </c>
       <c r="H29" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="E30" t="s">
         <v>13</v>
@@ -7244,10 +8674,120 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
+        <v>748</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
+        <v>751</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
+        <v>758</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>767</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
+        <v>769</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -7268,7 +8808,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -7288,7 +8828,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7325,43 +8865,43 @@
     </row>
     <row r="3" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>79</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>583</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>80</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="D4" t="s">
         <v>583</v>
       </c>
-      <c r="D4" t="s">
-        <v>587</v>
-      </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
@@ -7369,13 +8909,13 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -7396,7 +8936,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7433,16 +8973,16 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D3" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -7451,10 +8991,10 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J3" t="s">
         <v>36</v>
@@ -7475,7 +9015,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -7495,7 +9035,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -7515,7 +9055,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7525,10 +9065,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B6C7CF-36BB-AD4D-AEAE-1663B96F77E5}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7538,7 +9078,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7575,82 +9115,140 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>113</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="H3" t="s">
         <v>114</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>112</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D5" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>445</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="J5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>713</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>592</v>
+      </c>
+      <c r="D6" t="s">
+        <v>714</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>718</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>715</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>592</v>
+      </c>
+      <c r="D7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>717</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -7672,7 +9270,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -7692,7 +9290,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -7705,14 +9303,14 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H4" sqref="H4:I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7749,45 +9347,45 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>274</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>585</v>
-      </c>
-      <c r="D3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>277</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D4" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -7796,10 +9394,10 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -7809,15 +9407,78 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2C43D7-6A9E-8A4D-B8F2-19E8DCCCCADB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>648</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>650</v>
+      </c>
+      <c r="D3" t="s">
+        <v>649</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>651</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -7827,10 +9488,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21079C7-A759-D34E-A31D-0C3FA6B6DCD8}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7841,7 +9502,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -7876,44 +9537,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" t="s">
         <v>228</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H3" t="s">
-        <v>231</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -7922,24 +9583,24 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
@@ -7948,10 +9609,10 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J5" t="s">
         <v>36</v>
@@ -7959,17 +9620,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D6" t="s">
         <v>316</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D6" t="s">
-        <v>319</v>
-      </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
@@ -7977,53 +9638,53 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>315</v>
+      </c>
+      <c r="D7" t="s">
+        <v>319</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>317</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J7" t="s">
         <v>321</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>318</v>
-      </c>
-      <c r="D7" t="s">
-        <v>322</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>320</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J7" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -8032,24 +9693,24 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -8058,27 +9719,27 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -8087,10 +9748,10 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J10" t="s">
         <v>30</v>
@@ -8098,16 +9759,16 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -8116,24 +9777,24 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D12" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -8142,24 +9803,24 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D13" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -8168,13 +9829,94 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J13" t="s">
-        <v>528</v>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>674</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>677</v>
+      </c>
+      <c r="D14" t="s">
+        <v>675</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>676</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>702</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D15" t="s">
+        <v>703</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>704</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>705</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>706</v>
+      </c>
+      <c r="D16" t="s">
+        <v>707</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" t="s">
+        <v>708</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>
@@ -8185,10 +9927,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA1A8F-9ED2-A448-BD63-707E314BDF07}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8199,7 +9941,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8236,318 +9978,347 @@
     </row>
     <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H4" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J4" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D5" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J5" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" t="s">
+        <v>300</v>
+      </c>
+      <c r="F6" t="s">
+        <v>294</v>
+      </c>
+      <c r="H6" t="s">
         <v>302</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D6" t="s">
-        <v>296</v>
-      </c>
-      <c r="E6" t="s">
-        <v>303</v>
-      </c>
-      <c r="F6" t="s">
-        <v>297</v>
-      </c>
-      <c r="H6" t="s">
-        <v>305</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F7" t="s">
+        <v>294</v>
+      </c>
+      <c r="H7" t="s">
         <v>303</v>
       </c>
-      <c r="F7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H7" t="s">
-        <v>306</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D8" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J8" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H9" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J9" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D10" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" t="s">
+        <v>212</v>
+      </c>
+      <c r="F10" t="s">
+        <v>294</v>
+      </c>
+      <c r="H10" t="s">
         <v>308</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="D10" t="s">
-        <v>296</v>
-      </c>
-      <c r="E10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10" t="s">
-        <v>297</v>
-      </c>
-      <c r="H10" t="s">
-        <v>311</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D12" t="s">
         <v>325</v>
       </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" t="s">
         <v>326</v>
-      </c>
-      <c r="D12" t="s">
-        <v>328</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>350</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="J12" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D13" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
       </c>
       <c r="F13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H13" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D14" t="s">
+        <v>740</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
+        <v>741</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="J14" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8572,7 +10343,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8609,16 +10380,16 @@
     </row>
     <row r="3" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -8627,13 +10398,13 @@
         <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8646,14 +10417,14 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8690,28 +10461,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H3" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +10502,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -8743,7 +10514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908BA679-2FEB-714E-AEB6-0930ED643E19}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -8751,7 +10522,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8788,42 +10559,42 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>364</v>
+      </c>
+      <c r="D3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>366</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>369</v>
-      </c>
       <c r="I3" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D4" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -8832,13 +10603,13 @@
         <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="J4" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/utilities/cfk.xlsx
+++ b/utilities/cfk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11220"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11224"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/antonio/Desktop/PROJECTS/REPOS/cfknow.github.io/utilities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE3C686-7382-5240-B333-50944329DB5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4996903-15EA-3C4A-815C-6F1FA68CD07E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17480" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="14" activeTab="21" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17460" yWindow="0" windowWidth="19840" windowHeight="21600" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COVER" sheetId="24" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2165" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2230" uniqueCount="803">
   <si>
     <t>Title</t>
   </si>
@@ -1823,9 +1823,6 @@
     <t>Counting Rocks! An Introduction to Combinatorics</t>
   </si>
   <si>
-    <t xml:space="preserve"> Adams, Henry&lt;br&gt;Emmrich, Kelly&lt;br&gt;Gillespie, Maria&lt;br&gt;Golden, Shannon&lt;br&gt;Pries, Rachel</t>
-  </si>
-  <si>
     <t>&lt;a href="https://www.mathematicalgemstones.com/maria/OER/CountingRocks-Nov2023.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.youtube.com/playlist?list=PL5J6K3znOvOmzBUoxlk-W0N4j7L1Y9yfW" target="_blank"&gt;Videos&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.mathematicalgemstones.com/maria/OER.php" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
@@ -2417,9 +2414,6 @@
     <t>&lt;a href = "http://www.iliasdiakonikolas.org/ars-book.pdf" target = "_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://sites.google.com/view/ars-book/home" target = "_blank"&gt;Site&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Machine Learning - A First Course for Engineers and Scientists</t>
-  </si>
-  <si>
     <t>Lindholm, Andreas&lt;br&gt;Wahlström, Niklas&lt;br&gt;Lindsten, Fredrik&lt;br&gt;Schön, Thomas B.</t>
   </si>
   <si>
@@ -2466,6 +2460,102 @@
   </si>
   <si>
     <t>&lt;a href = "https://fleuret.org/public/lbdl.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://fleuret.org/francois/lbdl.html" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>The Mathematical Engineering of Deep Learning</t>
+  </si>
+  <si>
+    <t>Liquet, Benoit&lt;br&gt;Moka, Sarat&lt;br&gt;Nazarathy, Yoni</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://deeplearningmath.org/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Deep Learning: Foundations and Concepts</t>
+  </si>
+  <si>
+    <t>Bishop, Chris&lt;br&gt;Bishop, Hugh</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://issuu.com/cmb321/docs/deep_learning_ebook" target = "_blank"&gt;Web&lt;/a&gt;&lt;br&gt;&lt;a href = "https://www.bishopbook.com/" target = "_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mathematical Foundations of Machine Learning</t>
+  </si>
+  <si>
+    <t>Kim, Seongjai</t>
+  </si>
+  <si>
+    <t>2024-01-02</t>
+  </si>
+  <si>
+    <t>&lt;a href = "https://skim.math.msstate.edu/LectureNotes/Machine_Learning_Lecture.pdf" target = "_blank" &gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href = "https://youtu.be/kMf0qDtQ_PM?si=oY3GKHUIKhzWp4al" target = "_blank" &gt;Videos&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Machine Learning: A First Course for Engineers and Scientists</t>
+  </si>
+  <si>
+    <t>The Matrix Cookbook</t>
+  </si>
+  <si>
+    <t>Matrix theory</t>
+  </si>
+  <si>
+    <t>Adams, Henry&lt;br&gt;Emmrich, Kelly&lt;br&gt;Gillespie, Maria&lt;br&gt;Golden, Shannon&lt;br&gt;Pries, Rachel</t>
+  </si>
+  <si>
+    <t>Petersen, Kaare P.&lt;br&gt;Petersen, Michael S.</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.math.uwaterloo.ca/~hwolkowi/matrixcookbook.pdf" target="_blank"&gt;PDF&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Interpretable Machine Learning: A Guide for Making Black Box Models Explainable</t>
+  </si>
+  <si>
+    <t>Molnar, Christoph</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://christophm.github.io/interpretable-ml-book/" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunter, John K. </t>
+  </si>
+  <si>
+    <t>An Introduction to Real Analysis</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.math.ucdavis.edu/~hunter/intro_analysis_pdf/intro_analysis.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://www.math.ucdavis.edu/~hunter/intro_analysis_pdf/intro_analysis.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Applied Analysis</t>
+  </si>
+  <si>
+    <t>Differential equations&lt;br&gt;Real Analysis</t>
+  </si>
+  <si>
+    <t>Hunter, John K.&lt;br&gt;Nachtergaele, Bruno</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://www.math.ucdavis.edu/~hunter/book/pdfbook.html" target="_blank"&gt;Site&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Functional Data Structures and Algorithms</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data structures&lt;br&gt;Java</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Data structures&lt;br&gt;C++</t>
+  </si>
+  <si>
+    <t>Algorithms&lt;br&gt;Isabelle</t>
+  </si>
+  <si>
+    <t>Nipkow, Tobias&lt;br&gt;Blanchette, Jasmin&lt;br&gt;Eberl, Manuel&lt;br&gt;Gómez-Londoño, Alejandro&lt;br&gt;Lammich, Peter&lt;br&gt;Sternagel, Christian&lt;br&gt;Wimmer, Simon&lt;br&gt;Zhan, Bohua</t>
+  </si>
+  <si>
+    <t>&lt;a href="https://functional-algorithms-verified.org/functional_data_structures_algorithms.pdf" target="_blank"&gt;PDF&lt;/a&gt;&lt;br&gt;&lt;a href="https://functional-algorithms-verified.org/" target="_blank"&gt;Site&lt;/a&gt;</t>
   </si>
 </sst>
 </file>
@@ -2522,13 +2612,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2933,10 +3027,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2990,7 +3084,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3167,7 +3261,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D9" t="s">
         <v>392</v>
@@ -3373,22 +3467,48 @@
         <v>394</v>
       </c>
       <c r="D16" t="s">
+        <v>784</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
         <v>558</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>559</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>476</v>
       </c>
       <c r="J16" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>782</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>783</v>
+      </c>
+      <c r="D17" t="s">
+        <v>785</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
+        <v>786</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -3678,7 +3798,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -3687,7 +3807,7 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -3696,7 +3816,7 @@
         <v>117</v>
       </c>
       <c r="H11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>476</v>
@@ -3707,7 +3827,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -3716,7 +3836,7 @@
         <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E12" t="s">
         <v>13</v>
@@ -3725,7 +3845,7 @@
         <v>117</v>
       </c>
       <c r="H12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>476</v>
@@ -3736,7 +3856,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -3745,7 +3865,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -3754,7 +3874,7 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>476</v>
@@ -3765,25 +3885,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>708</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>710</v>
+      </c>
+      <c r="D14" t="s">
         <v>709</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>711</v>
-      </c>
-      <c r="D14" t="s">
-        <v>710</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>712</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>476</v>
@@ -3823,7 +3943,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B16" t="s">
         <v>11</v>
@@ -3832,16 +3952,16 @@
         <v>263</v>
       </c>
       <c r="D16" t="s">
+        <v>725</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
         <v>726</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>727</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>476</v>
@@ -3858,7 +3978,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4085,7 +4205,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D9" t="s">
         <v>411</v>
@@ -4114,7 +4234,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D10" t="s">
         <v>459</v>
@@ -4143,7 +4263,7 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D11" t="s">
         <v>421</v>
@@ -4172,7 +4292,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D12" t="s">
         <v>535</v>
@@ -4302,7 +4422,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B17" t="s">
         <v>11</v>
@@ -4311,7 +4431,7 @@
         <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E17" t="s">
         <v>13</v>
@@ -4320,7 +4440,7 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>476</v>
@@ -4331,7 +4451,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B18" t="s">
         <v>11</v>
@@ -4340,7 +4460,7 @@
         <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E18" t="s">
         <v>13</v>
@@ -4349,7 +4469,7 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>476</v>
@@ -4681,7 +4801,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D3" t="s">
         <v>146</v>
@@ -4710,7 +4830,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D4" t="s">
         <v>146</v>
@@ -4768,7 +4888,7 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D6" t="s">
         <v>146</v>
@@ -4797,7 +4917,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D7" t="s">
         <v>146</v>
@@ -4994,7 +5114,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -5003,16 +5123,16 @@
         <v>531</v>
       </c>
       <c r="D14" t="s">
+        <v>597</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>598</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>599</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>476</v>
@@ -5023,16 +5143,16 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>720</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>721</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>722</v>
-      </c>
-      <c r="D15" t="s">
-        <v>723</v>
       </c>
       <c r="E15" t="s">
         <v>13</v>
@@ -5041,7 +5161,7 @@
         <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>476</v>
@@ -5245,7 +5365,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
@@ -5254,16 +5374,16 @@
         <v>447</v>
       </c>
       <c r="D8" t="s">
+        <v>689</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>690</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>691</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>476</v>
@@ -5274,7 +5394,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -5283,7 +5403,7 @@
         <v>447</v>
       </c>
       <c r="D9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -5292,7 +5412,7 @@
         <v>18</v>
       </c>
       <c r="H9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>476</v>
@@ -5308,8 +5428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2430-4948-534B-AFC6-44BDA4B947CF}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5640,7 +5760,7 @@
     </row>
     <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -5649,16 +5769,16 @@
         <v>483</v>
       </c>
       <c r="D13" t="s">
+        <v>658</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>659</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>660</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>476</v>
@@ -5669,7 +5789,7 @@
     </row>
     <row r="14" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B14" t="s">
         <v>11</v>
@@ -5678,16 +5798,16 @@
         <v>483</v>
       </c>
       <c r="D14" t="s">
+        <v>661</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>662</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>663</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>476</v>
@@ -5698,25 +5818,25 @@
     </row>
     <row r="15" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" t="s">
         <v>683</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>684</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>685</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>476</v>
@@ -5724,17 +5844,17 @@
     </row>
     <row r="16" spans="1:10" ht="119" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>691</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D16" t="s">
         <v>692</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>683</v>
-      </c>
-      <c r="D16" t="s">
-        <v>693</v>
-      </c>
       <c r="E16" t="s">
         <v>13</v>
       </c>
@@ -5742,7 +5862,7 @@
         <v>18</v>
       </c>
       <c r="H16" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>476</v>
@@ -5753,25 +5873,25 @@
     </row>
     <row r="17" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>760</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="D17" t="s">
         <v>762</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
         <v>764</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>766</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>476</v>
@@ -5901,7 +6021,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>224</v>
@@ -6057,7 +6177,7 @@
     </row>
     <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -6066,16 +6186,16 @@
         <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
         <v>665</v>
-      </c>
-      <c r="E11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>666</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>476</v>
@@ -6083,7 +6203,7 @@
     </row>
     <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -6092,16 +6212,16 @@
         <v>430</v>
       </c>
       <c r="D12" t="s">
+        <v>686</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>687</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>688</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>476</v>
@@ -6112,7 +6232,7 @@
     </row>
     <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -6121,16 +6241,16 @@
         <v>430</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>734</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>735</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>476</v>
@@ -6138,25 +6258,25 @@
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
         <v>752</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>753</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>754</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>755</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>476</v>
@@ -6173,10 +6293,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320D4303-C318-9243-91F0-9D29FB74C205}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6230,7 +6350,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -6259,7 +6379,7 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D4" t="s">
         <v>49</v>
@@ -6343,7 +6463,7 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D7" t="s">
         <v>495</v>
@@ -6388,6 +6508,58 @@
       </c>
       <c r="I8" s="1" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>791</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" t="s">
+        <v>790</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>792</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>793</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>794</v>
+      </c>
+      <c r="D10" t="s">
+        <v>795</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>796</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -6401,7 +6573,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6483,7 +6655,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>138</v>
@@ -6512,7 +6684,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>209</v>
@@ -6535,25 +6707,25 @@
     </row>
     <row r="6" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="D6" t="s">
         <v>589</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
         <v>590</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" t="s">
-        <v>591</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>476</v>
@@ -6564,25 +6736,25 @@
     </row>
     <row r="7" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" t="s">
+        <v>603</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>606</v>
-      </c>
-      <c r="D7" t="s">
-        <v>604</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>607</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>476</v>
@@ -6593,25 +6765,25 @@
     </row>
     <row r="8" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>612</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" t="s">
         <v>614</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>615</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>616</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>476</v>
@@ -6619,25 +6791,25 @@
     </row>
     <row r="9" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D9" t="s">
         <v>630</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
         <v>631</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>632</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>476</v>
@@ -6645,45 +6817,45 @@
     </row>
     <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D10" t="s">
+        <v>634</v>
+      </c>
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>635</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>636</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>476</v>
       </c>
       <c r="J10" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D11" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E11" t="s">
         <v>119</v>
@@ -6692,56 +6864,56 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>476</v>
       </c>
       <c r="J11" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D12" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E12" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>476</v>
       </c>
       <c r="J12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E13" t="s">
         <v>213</v>
@@ -6750,36 +6922,36 @@
         <v>18</v>
       </c>
       <c r="H13" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>476</v>
       </c>
       <c r="J13" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>640</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" t="s">
         <v>642</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>643</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>644</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>476</v>
@@ -6787,25 +6959,25 @@
     </row>
     <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>644</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D15" t="s">
         <v>645</v>
       </c>
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>646</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>647</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>476</v>
@@ -6813,25 +6985,25 @@
     </row>
     <row r="16" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>651</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D16" t="s">
         <v>652</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
         <v>653</v>
-      </c>
-      <c r="E16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
-        <v>654</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>476</v>
@@ -6842,25 +7014,25 @@
     </row>
     <row r="17" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>651</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D17" t="s">
         <v>652</v>
       </c>
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" t="s">
         <v>653</v>
-      </c>
-      <c r="E17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>654</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>476</v>
@@ -6871,25 +7043,25 @@
     </row>
     <row r="18" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>654</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D18" t="s">
         <v>655</v>
       </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
         <v>656</v>
-      </c>
-      <c r="E18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>657</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>476</v>
@@ -6900,25 +7072,25 @@
     </row>
     <row r="19" spans="1:10" ht="85" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>677</v>
+      </c>
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" t="s">
         <v>679</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
         <v>680</v>
-      </c>
-      <c r="E19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>681</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>476</v>
@@ -6926,25 +7098,25 @@
     </row>
     <row r="20" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>693</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D20" t="s">
         <v>694</v>
       </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" t="s">
         <v>695</v>
-      </c>
-      <c r="E20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" t="s">
-        <v>696</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>476</v>
@@ -6955,25 +7127,25 @@
     </row>
     <row r="21" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>696</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D21" t="s">
         <v>697</v>
       </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" t="s">
         <v>698</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" t="s">
-        <v>699</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>476</v>
@@ -6984,25 +7156,25 @@
     </row>
     <row r="22" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>699</v>
+      </c>
+      <c r="B22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="D22" t="s">
+        <v>697</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H22" t="s">
         <v>700</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>614</v>
-      </c>
-      <c r="D22" t="s">
-        <v>698</v>
-      </c>
-      <c r="E22" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>701</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>476</v>
@@ -7013,17 +7185,17 @@
     </row>
     <row r="23" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>735</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D23" t="s">
         <v>736</v>
       </c>
-      <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="D23" t="s">
-        <v>737</v>
-      </c>
       <c r="E23" t="s">
         <v>13</v>
       </c>
@@ -7031,7 +7203,7 @@
         <v>18</v>
       </c>
       <c r="H23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>476</v>
@@ -7039,17 +7211,17 @@
     </row>
     <row r="24" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>741</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" t="s">
         <v>742</v>
       </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="D24" t="s">
-        <v>743</v>
-      </c>
       <c r="E24" t="s">
         <v>13</v>
       </c>
@@ -7057,7 +7229,7 @@
         <v>18</v>
       </c>
       <c r="H24" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>476</v>
@@ -7380,10 +7552,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1893C98B-CBC4-7246-B032-90C8B1A2697A}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7437,7 +7609,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>124</v>
@@ -7463,7 +7635,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>264</v>
@@ -7489,7 +7661,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>208</v>
@@ -7518,7 +7690,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>208</v>
@@ -7547,7 +7719,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>208</v>
@@ -7576,7 +7748,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>208</v>
@@ -7605,7 +7777,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>208</v>
@@ -7634,7 +7806,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>208</v>
@@ -7663,7 +7835,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>208</v>
@@ -7692,7 +7864,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D12" t="s">
         <v>62</v>
@@ -7721,7 +7893,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>474</v>
@@ -7741,27 +7913,79 @@
     </row>
     <row r="14" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>770</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>574</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="I14" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>773</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" t="s">
+        <v>776</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>476</v>
       </c>
     </row>
@@ -7773,53 +7997,57 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DC12F66-7D6E-B749-8951-4A7A989FC3AD}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="27" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="2" customWidth="1"/>
+    <col min="5" max="7" width="10.83203125" style="2"/>
+    <col min="8" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7827,42 +8055,72 @@
       <c r="A3" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="2" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>779</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CF6137D-0C53-C045-9269-910480ECA323}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="B26" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7918,7 +8176,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D3" t="s">
         <v>87</v>
@@ -7936,7 +8194,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>75</v>
       </c>
@@ -7944,7 +8202,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>132</v>
@@ -7970,7 +8228,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>129</v>
@@ -7996,7 +8254,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>130</v>
@@ -8022,7 +8280,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>126</v>
@@ -8048,7 +8306,7 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
         <v>95</v>
@@ -8074,7 +8332,7 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>127</v>
@@ -8086,7 +8344,7 @@
         <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>116</v>
@@ -8103,7 +8361,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
@@ -8124,7 +8382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
@@ -8132,7 +8390,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>133</v>
@@ -8158,7 +8416,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>136</v>
@@ -8170,7 +8428,7 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>116</v>
@@ -8179,7 +8437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>106</v>
       </c>
@@ -8187,7 +8445,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>139</v>
@@ -8216,7 +8474,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>128</v>
@@ -8237,7 +8495,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="102" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>73</v>
       </c>
@@ -8245,7 +8503,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>132</v>
@@ -8271,7 +8529,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D16" t="s">
         <v>81</v>
@@ -8300,7 +8558,7 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>202</v>
@@ -8326,7 +8584,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>135</v>
@@ -8355,7 +8613,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D19" t="s">
         <v>52</v>
@@ -8376,7 +8634,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>54</v>
       </c>
@@ -8384,7 +8642,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>123</v>
@@ -8413,7 +8671,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D21" t="s">
         <v>90</v>
@@ -8442,7 +8700,7 @@
         <v>11</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D22" t="s">
         <v>90</v>
@@ -8471,7 +8729,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>225</v>
@@ -8494,7 +8752,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>137</v>
@@ -8515,7 +8773,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>71</v>
       </c>
@@ -8523,7 +8781,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>131</v>
@@ -8541,7 +8799,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>59</v>
       </c>
@@ -8549,7 +8807,7 @@
         <v>11</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>125</v>
@@ -8578,7 +8836,7 @@
         <v>11</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>449</v>
@@ -8604,7 +8862,7 @@
         <v>11</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>451</v>
@@ -8627,25 +8885,25 @@
     </row>
     <row r="29" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" t="s">
         <v>595</v>
-      </c>
-      <c r="E29" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>596</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>476</v>
@@ -8656,51 +8914,51 @@
     </row>
     <row r="30" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" t="s">
         <v>609</v>
-      </c>
-      <c r="B30" t="s">
-        <v>11</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="E30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" t="s">
-        <v>18</v>
-      </c>
-      <c r="H30" t="s">
-        <v>610</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="68" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="B31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D31" s="2" t="s">
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="H31" t="s">
         <v>747</v>
-      </c>
-      <c r="E31" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="H31" t="s">
-        <v>748</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>476</v>
@@ -8709,27 +8967,27 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" t="s">
         <v>750</v>
-      </c>
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" t="s">
-        <v>751</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>476</v>
@@ -8740,25 +8998,25 @@
     </row>
     <row r="33" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" t="s">
         <v>756</v>
-      </c>
-      <c r="B33" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="E33" t="s">
-        <v>13</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" t="s">
-        <v>758</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>476</v>
@@ -8766,28 +9024,54 @@
     </row>
     <row r="34" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>765</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" t="s">
         <v>767</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="E34" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" t="s">
-        <v>769</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>476</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" t="s">
+        <v>780</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -8871,7 +9155,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>134</v>
@@ -8891,25 +9175,25 @@
     </row>
     <row r="4" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>581</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="D4" t="s">
         <v>582</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>583</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>584</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>476</v>
@@ -8973,25 +9257,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>600</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>601</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>602</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>603</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>476</v>
@@ -9121,7 +9405,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D3" t="s">
         <v>112</v>
@@ -9147,7 +9431,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D4" t="s">
         <v>109</v>
@@ -9173,7 +9457,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D5" t="s">
         <v>441</v>
@@ -9196,17 +9480,17 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D6" t="s">
         <v>713</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>592</v>
-      </c>
-      <c r="D6" t="s">
-        <v>714</v>
-      </c>
       <c r="E6" t="s">
         <v>13</v>
       </c>
@@ -9214,7 +9498,7 @@
         <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>476</v>
@@ -9225,25 +9509,25 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>714</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>591</v>
+      </c>
+      <c r="D7" t="s">
         <v>715</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>592</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>716</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>717</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>476</v>
@@ -9353,7 +9637,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D3" t="s">
         <v>273</v>
@@ -9376,25 +9660,25 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>616</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" t="s">
         <v>617</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>581</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>618</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>619</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>476</v>
@@ -9454,25 +9738,25 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>647</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>649</v>
+      </c>
+      <c r="D3" t="s">
         <v>648</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>650</v>
-      </c>
-      <c r="D3" t="s">
-        <v>649</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>651</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>476</v>
@@ -9736,7 +10020,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D10" t="s">
         <v>342</v>
@@ -9785,7 +10069,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -9794,16 +10078,16 @@
         <v>335</v>
       </c>
       <c r="D12" t="s">
+        <v>620</v>
+      </c>
+      <c r="E12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>621</v>
-      </c>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>622</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>476</v>
@@ -9811,25 +10095,25 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>622</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
         <v>623</v>
       </c>
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>624</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>625</v>
-      </c>
-      <c r="E13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" t="s">
-        <v>626</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>476</v>
@@ -9840,25 +10124,25 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>676</v>
+      </c>
+      <c r="D14" t="s">
         <v>674</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>677</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>675</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>676</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>476</v>
@@ -9869,7 +10153,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B15" t="s">
         <v>11</v>
@@ -9878,16 +10162,16 @@
         <v>315</v>
       </c>
       <c r="D15" t="s">
+        <v>702</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>703</v>
-      </c>
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>704</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>476</v>
@@ -9895,16 +10179,16 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>704</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>705</v>
       </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>706</v>
-      </c>
-      <c r="D16" t="s">
-        <v>707</v>
       </c>
       <c r="E16" t="s">
         <v>13</v>
@@ -9913,7 +10197,7 @@
         <v>117</v>
       </c>
       <c r="H16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>476</v>
@@ -9927,10 +10211,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80BA1A8F-9ED2-A448-BD63-707E314BDF07}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10005,7 +10289,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>296</v>
       </c>
@@ -10013,7 +10297,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>324</v>
+        <v>798</v>
       </c>
       <c r="D4" t="s">
         <v>293</v>
@@ -10034,7 +10318,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>297</v>
       </c>
@@ -10042,7 +10326,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>324</v>
+        <v>799</v>
       </c>
       <c r="D5" t="s">
         <v>293</v>
@@ -10071,7 +10355,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>324</v>
+        <v>798</v>
       </c>
       <c r="D6" t="s">
         <v>293</v>
@@ -10100,7 +10384,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>324</v>
+        <v>799</v>
       </c>
       <c r="D7" t="s">
         <v>293</v>
@@ -10187,7 +10471,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>324</v>
+        <v>798</v>
       </c>
       <c r="D10" t="s">
         <v>293</v>
@@ -10216,7 +10500,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>324</v>
+        <v>799</v>
       </c>
       <c r="D11" t="s">
         <v>293</v>
@@ -10294,31 +10578,57 @@
     </row>
     <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D14" t="s">
         <v>739</v>
       </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>739</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>740</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>741</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>476</v>
       </c>
       <c r="J14" t="s">
         <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="D15" t="s">
+        <v>801</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>802</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>779</v>
       </c>
     </row>
   </sheetData>
@@ -10467,7 +10777,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D3" t="s">
         <v>465</v>
@@ -10585,7 +10895,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -10594,16 +10904,16 @@
         <v>323</v>
       </c>
       <c r="D4" t="s">
+        <v>627</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
         <v>628</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s">
-        <v>629</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>476</v>
